--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>56272</v>
+        <v>57634</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
@@ -1476,12 +1476,12 @@
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
@@ -1517,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>56278</v>
+        <v>57635</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
@@ -1526,12 +1526,12 @@
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
@@ -1550,16 +1550,16 @@
         </is>
       </c>
       <c r="I12" s="10" t="n">
-        <v>312</v>
+        <v>198</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>38.66</v>
+        <v>24.53</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>1113</v>
+        <v>706</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>1143</v>
+        <v>736</v>
       </c>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1567,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="18" t="n">
-        <v>56280</v>
+        <v>57636</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E13" s="10" t="inlineStr">
         <is>
-          <t>Scott Rustic</t>
+          <t>Gold</t>
         </is>
       </c>
       <c r="F13" s="13" t="inlineStr">
@@ -1591,725 +1591,291 @@
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I13" s="10" t="n">
-        <v>312</v>
+        <v>40</v>
       </c>
       <c r="J13" s="9" t="n">
-        <v>38.66</v>
+        <v>10</v>
       </c>
       <c r="K13" s="10" t="n">
-        <v>1113</v>
+        <v>288</v>
       </c>
       <c r="L13" s="16" t="n">
-        <v>1143</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A14" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="n">
-        <v>56292</v>
-      </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D14" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Scott Rustic</t>
-        </is>
-      </c>
-      <c r="F14" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G14" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I14" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J14" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K14" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L14" s="16" t="n">
-        <v>1143</v>
+      <c r="B14" s="18" t="n"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="D14" s="14" t="n"/>
+      <c r="E14" s="10" t="n"/>
+      <c r="F14" s="13" t="n"/>
+      <c r="G14" s="11" t="n"/>
+      <c r="H14" s="11" t="n"/>
+      <c r="I14" s="10" t="n"/>
+      <c r="J14" s="9" t="n"/>
+      <c r="K14" s="10" t="n"/>
+      <c r="L14" s="16">
+        <f>K14+30</f>
+        <v/>
       </c>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A15" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="n">
-        <v>56294</v>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D15" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Scott Rustic</t>
-        </is>
-      </c>
-      <c r="F15" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G15" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I15" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J15" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K15" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L15" s="16" t="n">
-        <v>1143</v>
+      <c r="B15" s="18" t="n"/>
+      <c r="C15" s="10" t="n"/>
+      <c r="D15" s="14" t="n"/>
+      <c r="E15" s="10" t="n"/>
+      <c r="F15" s="13" t="n"/>
+      <c r="G15" s="11" t="n"/>
+      <c r="H15" s="11" t="n"/>
+      <c r="I15" s="10" t="n"/>
+      <c r="J15" s="9" t="n"/>
+      <c r="K15" s="10" t="n"/>
+      <c r="L15" s="16">
+        <f>K15+30</f>
+        <v/>
       </c>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A16" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="18" t="n">
-        <v>56297</v>
-      </c>
-      <c r="C16" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D16" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E16" s="10" t="inlineStr">
-        <is>
-          <t>Scott Rustic</t>
-        </is>
-      </c>
-      <c r="F16" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I16" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J16" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K16" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L16" s="16" t="n">
-        <v>1143</v>
+      <c r="B16" s="18" t="n"/>
+      <c r="C16" s="10" t="n"/>
+      <c r="D16" s="14" t="n"/>
+      <c r="E16" s="10" t="n"/>
+      <c r="F16" s="13" t="n"/>
+      <c r="G16" s="11" t="n"/>
+      <c r="H16" s="11" t="n"/>
+      <c r="I16" s="10" t="n"/>
+      <c r="J16" s="9" t="n"/>
+      <c r="K16" s="10" t="n"/>
+      <c r="L16" s="16">
+        <f>K16+30</f>
+        <v/>
       </c>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A17" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="n">
-        <v>56298</v>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D17" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E17" s="10" t="inlineStr">
-        <is>
-          <t>Scott Rustic</t>
-        </is>
-      </c>
-      <c r="F17" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H17" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I17" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J17" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K17" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L17" s="16" t="n">
-        <v>1143</v>
+      <c r="B17" s="18" t="n"/>
+      <c r="C17" s="10" t="n"/>
+      <c r="D17" s="14" t="n"/>
+      <c r="E17" s="10" t="n"/>
+      <c r="F17" s="13" t="n"/>
+      <c r="G17" s="11" t="n"/>
+      <c r="H17" s="11" t="n"/>
+      <c r="I17" s="10" t="n"/>
+      <c r="J17" s="9" t="n"/>
+      <c r="K17" s="10" t="n"/>
+      <c r="L17" s="16">
+        <f>K17+30</f>
+        <v/>
       </c>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A18" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="n">
-        <v>56321</v>
-      </c>
-      <c r="C18" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D18" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E18" s="10" t="inlineStr">
-        <is>
-          <t>Scott Rustic</t>
-        </is>
-      </c>
-      <c r="F18" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H18" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I18" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J18" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K18" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L18" s="16" t="n">
-        <v>1143</v>
+      <c r="B18" s="18" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="14" t="n"/>
+      <c r="E18" s="10" t="n"/>
+      <c r="F18" s="13" t="n"/>
+      <c r="G18" s="11" t="n"/>
+      <c r="H18" s="11" t="n"/>
+      <c r="I18" s="10" t="n"/>
+      <c r="J18" s="9" t="n"/>
+      <c r="K18" s="10" t="n"/>
+      <c r="L18" s="16">
+        <f>K18+30</f>
+        <v/>
       </c>
     </row>
     <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A19" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="18" t="n">
-        <v>56322</v>
-      </c>
-      <c r="C19" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D19" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E19" s="10" t="inlineStr">
-        <is>
-          <t>Scott Rustic</t>
-        </is>
-      </c>
-      <c r="F19" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G19" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H19" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I19" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J19" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K19" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L19" s="16" t="n">
-        <v>1143</v>
+      <c r="B19" s="18" t="n"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="14" t="n"/>
+      <c r="E19" s="10" t="n"/>
+      <c r="F19" s="13" t="n"/>
+      <c r="G19" s="11" t="n"/>
+      <c r="H19" s="11" t="n"/>
+      <c r="I19" s="10" t="n"/>
+      <c r="J19" s="9" t="n"/>
+      <c r="K19" s="10" t="n"/>
+      <c r="L19" s="16">
+        <f>K19+30</f>
+        <v/>
       </c>
     </row>
     <row r="20" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A20" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="18" t="n">
-        <v>56324</v>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D20" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E20" s="10" t="inlineStr">
-        <is>
-          <t>Scott Rustic</t>
-        </is>
-      </c>
-      <c r="F20" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G20" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H20" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I20" s="10" t="n">
-        <v>312</v>
-      </c>
-      <c r="J20" s="9" t="n">
-        <v>38.66</v>
-      </c>
-      <c r="K20" s="10" t="n">
-        <v>1113</v>
-      </c>
-      <c r="L20" s="16" t="n">
-        <v>1143</v>
+      <c r="B20" s="18" t="n"/>
+      <c r="C20" s="10" t="n"/>
+      <c r="D20" s="14" t="n"/>
+      <c r="E20" s="10" t="n"/>
+      <c r="F20" s="13" t="n"/>
+      <c r="G20" s="11" t="n"/>
+      <c r="H20" s="11" t="n"/>
+      <c r="I20" s="10" t="n"/>
+      <c r="J20" s="9" t="n"/>
+      <c r="K20" s="10" t="n"/>
+      <c r="L20" s="16">
+        <f>K20+30</f>
+        <v/>
       </c>
     </row>
     <row r="21" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A21" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="18" t="n">
-        <v>525767</v>
-      </c>
-      <c r="C21" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Ledger</t>
-        </is>
-      </c>
-      <c r="D21" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E21" s="10" t="inlineStr">
-        <is>
-          <t>Ivory Light</t>
-        </is>
-      </c>
-      <c r="F21" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="H21" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I21" s="10" t="n">
-        <v>216</v>
-      </c>
-      <c r="J21" s="9" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="K21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="16" t="n">
-        <v>30</v>
+      <c r="B21" s="18" t="n"/>
+      <c r="C21" s="10" t="n"/>
+      <c r="D21" s="14" t="n"/>
+      <c r="E21" s="10" t="n"/>
+      <c r="F21" s="13" t="n"/>
+      <c r="G21" s="11" t="n"/>
+      <c r="H21" s="11" t="n"/>
+      <c r="I21" s="10" t="n"/>
+      <c r="J21" s="9" t="n"/>
+      <c r="K21" s="10" t="n"/>
+      <c r="L21" s="16">
+        <f>K21+30</f>
+        <v/>
       </c>
     </row>
     <row r="22" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A22" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="18" t="n">
-        <v>525768</v>
-      </c>
-      <c r="C22" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Ledger</t>
-        </is>
-      </c>
-      <c r="D22" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E22" s="10" t="inlineStr">
-        <is>
-          <t>Ivory Light</t>
-        </is>
-      </c>
-      <c r="F22" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G22" s="11" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="H22" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I22" s="10" t="n">
-        <v>216</v>
-      </c>
-      <c r="J22" s="9" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="K22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="16" t="n">
-        <v>30</v>
+      <c r="B22" s="18" t="n"/>
+      <c r="C22" s="10" t="n"/>
+      <c r="D22" s="14" t="n"/>
+      <c r="E22" s="10" t="n"/>
+      <c r="F22" s="13" t="n"/>
+      <c r="G22" s="11" t="n"/>
+      <c r="H22" s="11" t="n"/>
+      <c r="I22" s="10" t="n"/>
+      <c r="J22" s="9" t="n"/>
+      <c r="K22" s="10" t="n"/>
+      <c r="L22" s="16">
+        <f>K22+30</f>
+        <v/>
       </c>
     </row>
     <row r="23" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A23" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="18" t="n">
-        <v>525769</v>
-      </c>
-      <c r="C23" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Ledger</t>
-        </is>
-      </c>
-      <c r="D23" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E23" s="10" t="inlineStr">
-        <is>
-          <t>Ivory Light</t>
-        </is>
-      </c>
-      <c r="F23" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G23" s="11" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="H23" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I23" s="10" t="n">
-        <v>216</v>
-      </c>
-      <c r="J23" s="9" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="K23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="16" t="n">
-        <v>30</v>
+      <c r="B23" s="18" t="n"/>
+      <c r="C23" s="10" t="n"/>
+      <c r="D23" s="14" t="n"/>
+      <c r="E23" s="10" t="n"/>
+      <c r="F23" s="13" t="n"/>
+      <c r="G23" s="11" t="n"/>
+      <c r="H23" s="11" t="n"/>
+      <c r="I23" s="10" t="n"/>
+      <c r="J23" s="9" t="n"/>
+      <c r="K23" s="10" t="n"/>
+      <c r="L23" s="16">
+        <f>K23+30</f>
+        <v/>
       </c>
     </row>
     <row r="24" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A24" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="18" t="n">
-        <v>525770</v>
-      </c>
-      <c r="C24" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Ledger</t>
-        </is>
-      </c>
-      <c r="D24" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E24" s="10" t="inlineStr">
-        <is>
-          <t>Ivory Light</t>
-        </is>
-      </c>
-      <c r="F24" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G24" s="11" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="H24" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I24" s="10" t="n">
-        <v>216</v>
-      </c>
-      <c r="J24" s="9" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="K24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="16" t="n">
-        <v>30</v>
+      <c r="B24" s="18" t="n"/>
+      <c r="C24" s="10" t="n"/>
+      <c r="D24" s="14" t="n"/>
+      <c r="E24" s="10" t="n"/>
+      <c r="F24" s="13" t="n"/>
+      <c r="G24" s="11" t="n"/>
+      <c r="H24" s="11" t="n"/>
+      <c r="I24" s="10" t="n"/>
+      <c r="J24" s="9" t="n"/>
+      <c r="K24" s="10" t="n"/>
+      <c r="L24" s="16">
+        <f>K24+30</f>
+        <v/>
       </c>
     </row>
     <row r="25" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A25" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="18" t="n">
-        <v>525771</v>
-      </c>
-      <c r="C25" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Ledger</t>
-        </is>
-      </c>
-      <c r="D25" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E25" s="10" t="inlineStr">
-        <is>
-          <t>Ivory Light</t>
-        </is>
-      </c>
-      <c r="F25" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G25" s="11" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="H25" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I25" s="10" t="n">
-        <v>216</v>
-      </c>
-      <c r="J25" s="9" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="K25" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="16" t="n">
-        <v>30</v>
+      <c r="B25" s="18" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="14" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="13" t="n"/>
+      <c r="G25" s="11" t="n"/>
+      <c r="H25" s="11" t="n"/>
+      <c r="I25" s="10" t="n"/>
+      <c r="J25" s="9" t="n"/>
+      <c r="K25" s="10" t="n"/>
+      <c r="L25" s="16">
+        <f>K25+30</f>
+        <v/>
       </c>
     </row>
     <row r="26" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A26" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="18" t="n">
-        <v>525772</v>
-      </c>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Ledger</t>
-        </is>
-      </c>
-      <c r="D26" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E26" s="10" t="inlineStr">
-        <is>
-          <t>Ivory Light</t>
-        </is>
-      </c>
-      <c r="F26" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G26" s="11" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="H26" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I26" s="10" t="n">
-        <v>216</v>
-      </c>
-      <c r="J26" s="9" t="n">
-        <v>19.76</v>
-      </c>
-      <c r="K26" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="16" t="n">
-        <v>30</v>
+      <c r="B26" s="18" t="n"/>
+      <c r="C26" s="10" t="n"/>
+      <c r="D26" s="14" t="n"/>
+      <c r="E26" s="10" t="n"/>
+      <c r="F26" s="13" t="n"/>
+      <c r="G26" s="11" t="n"/>
+      <c r="H26" s="11" t="n"/>
+      <c r="I26" s="10" t="n"/>
+      <c r="J26" s="9" t="n"/>
+      <c r="K26" s="10" t="n"/>
+      <c r="L26" s="16">
+        <f>K26+30</f>
+        <v/>
       </c>
     </row>
     <row r="27" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A27" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="B27" s="18" t="n">
-        <v>525773</v>
-      </c>
-      <c r="C27" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Ledger</t>
-        </is>
-      </c>
-      <c r="D27" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E27" s="10" t="inlineStr">
-        <is>
-          <t>Ivory Light</t>
-        </is>
-      </c>
-      <c r="F27" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G27" s="11" t="inlineStr">
-        <is>
-          <t>15,0</t>
-        </is>
-      </c>
-      <c r="H27" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I27" s="10" t="n">
-        <v>144</v>
-      </c>
-      <c r="J27" s="9" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="K27" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="16" t="n">
-        <v>30</v>
+      <c r="B27" s="18" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="14" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="13" t="n"/>
+      <c r="G27" s="11" t="n"/>
+      <c r="H27" s="11" t="n"/>
+      <c r="I27" s="10" t="n"/>
+      <c r="J27" s="9" t="n"/>
+      <c r="K27" s="10" t="n"/>
+      <c r="L27" s="16">
+        <f>K27+30</f>
+        <v/>
       </c>
     </row>
     <row r="28" ht="24.9" customFormat="1" customHeight="1" s="4">

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>57634</v>
+        <v>511559</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
@@ -1476,40 +1476,40 @@
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="I11" s="10" t="n">
-        <v>312</v>
+        <v>25</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>38.66</v>
+        <v>25</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>1113</v>
+        <v>1200</v>
       </c>
       <c r="L11" s="16" t="n">
-        <v>1143</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1517,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>57635</v>
+        <v>522263</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
@@ -1526,40 +1526,40 @@
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="I12" s="10" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>24.53</v>
+        <v>25</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>706</v>
+        <v>1200</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>736</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1567,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="18" t="n">
-        <v>57636</v>
+        <v>522264</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
@@ -1576,306 +1576,742 @@
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Split face</t>
         </is>
       </c>
       <c r="E13" s="10" t="inlineStr">
         <is>
-          <t>Gold</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="F13" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>10,0</t>
         </is>
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
+          <t>Free</t>
         </is>
       </c>
       <c r="I13" s="10" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J13" s="9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K13" s="10" t="n">
-        <v>288</v>
+        <v>1200</v>
       </c>
       <c r="L13" s="16" t="n">
-        <v>318</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A14" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="n"/>
-      <c r="C14" s="10" t="n"/>
-      <c r="D14" s="14" t="n"/>
-      <c r="E14" s="10" t="n"/>
-      <c r="F14" s="13" t="n"/>
-      <c r="G14" s="11" t="n"/>
-      <c r="H14" s="11" t="n"/>
-      <c r="I14" s="10" t="n"/>
-      <c r="J14" s="9" t="n"/>
-      <c r="K14" s="10" t="n"/>
-      <c r="L14" s="16">
-        <f>K14+30</f>
-        <v/>
+      <c r="B14" s="18" t="n">
+        <v>522265</v>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D14" s="14" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G14" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="I14" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="K14" s="10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L14" s="16" t="n">
+        <v>1230</v>
       </c>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A15" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="n"/>
-      <c r="C15" s="10" t="n"/>
-      <c r="D15" s="14" t="n"/>
-      <c r="E15" s="10" t="n"/>
-      <c r="F15" s="13" t="n"/>
-      <c r="G15" s="11" t="n"/>
-      <c r="H15" s="11" t="n"/>
-      <c r="I15" s="10" t="n"/>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="10" t="n"/>
-      <c r="L15" s="16">
-        <f>K15+30</f>
-        <v/>
+      <c r="B15" s="18" t="n">
+        <v>522266</v>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D15" s="14" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="I15" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="K15" s="10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L15" s="16" t="n">
+        <v>1230</v>
       </c>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A16" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="18" t="n"/>
-      <c r="C16" s="10" t="n"/>
-      <c r="D16" s="14" t="n"/>
-      <c r="E16" s="10" t="n"/>
-      <c r="F16" s="13" t="n"/>
-      <c r="G16" s="11" t="n"/>
-      <c r="H16" s="11" t="n"/>
-      <c r="I16" s="10" t="n"/>
-      <c r="J16" s="9" t="n"/>
-      <c r="K16" s="10" t="n"/>
-      <c r="L16" s="16">
-        <f>K16+30</f>
-        <v/>
+      <c r="B16" s="18" t="n">
+        <v>522267</v>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="E16" s="10" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="F16" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="K16" s="10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L16" s="16" t="n">
+        <v>1230</v>
       </c>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A17" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="n"/>
-      <c r="C17" s="10" t="n"/>
-      <c r="D17" s="14" t="n"/>
-      <c r="E17" s="10" t="n"/>
-      <c r="F17" s="13" t="n"/>
-      <c r="G17" s="11" t="n"/>
-      <c r="H17" s="11" t="n"/>
-      <c r="I17" s="10" t="n"/>
-      <c r="J17" s="9" t="n"/>
-      <c r="K17" s="10" t="n"/>
-      <c r="L17" s="16">
-        <f>K17+30</f>
-        <v/>
+      <c r="B17" s="18" t="n">
+        <v>522268</v>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D17" s="14" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="H17" s="11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="I17" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="K17" s="10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L17" s="16" t="n">
+        <v>1230</v>
       </c>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A18" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="n"/>
-      <c r="C18" s="10" t="n"/>
-      <c r="D18" s="14" t="n"/>
-      <c r="E18" s="10" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="11" t="n"/>
-      <c r="H18" s="11" t="n"/>
-      <c r="I18" s="10" t="n"/>
-      <c r="J18" s="9" t="n"/>
-      <c r="K18" s="10" t="n"/>
-      <c r="L18" s="16">
-        <f>K18+30</f>
-        <v/>
+      <c r="B18" s="18" t="n">
+        <v>522269</v>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D18" s="14" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="F18" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="H18" s="11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="I18" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="K18" s="10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L18" s="16" t="n">
+        <v>1230</v>
       </c>
     </row>
     <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A19" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="18" t="n"/>
-      <c r="C19" s="10" t="n"/>
-      <c r="D19" s="14" t="n"/>
-      <c r="E19" s="10" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="11" t="n"/>
-      <c r="H19" s="11" t="n"/>
-      <c r="I19" s="10" t="n"/>
-      <c r="J19" s="9" t="n"/>
-      <c r="K19" s="10" t="n"/>
-      <c r="L19" s="16">
-        <f>K19+30</f>
-        <v/>
+      <c r="B19" s="18" t="n">
+        <v>522270</v>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D19" s="14" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="E19" s="10" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="F19" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G19" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="H19" s="11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="K19" s="10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L19" s="16" t="n">
+        <v>1230</v>
       </c>
     </row>
     <row r="20" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A20" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="18" t="n"/>
-      <c r="C20" s="10" t="n"/>
-      <c r="D20" s="14" t="n"/>
-      <c r="E20" s="10" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="11" t="n"/>
-      <c r="H20" s="11" t="n"/>
-      <c r="I20" s="10" t="n"/>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="10" t="n"/>
-      <c r="L20" s="16">
-        <f>K20+30</f>
-        <v/>
+      <c r="B20" s="18" t="n">
+        <v>522271</v>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D20" s="14" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="E20" s="10" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="F20" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="H20" s="11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="I20" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="K20" s="10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L20" s="16" t="n">
+        <v>1230</v>
       </c>
     </row>
     <row r="21" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A21" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="18" t="n"/>
-      <c r="C21" s="10" t="n"/>
-      <c r="D21" s="14" t="n"/>
-      <c r="E21" s="10" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="11" t="n"/>
-      <c r="H21" s="11" t="n"/>
-      <c r="I21" s="10" t="n"/>
-      <c r="J21" s="9" t="n"/>
-      <c r="K21" s="10" t="n"/>
-      <c r="L21" s="16">
-        <f>K21+30</f>
-        <v/>
+      <c r="B21" s="18" t="n">
+        <v>522272</v>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D21" s="14" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="E21" s="10" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="F21" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="H21" s="11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="I21" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="K21" s="10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L21" s="16" t="n">
+        <v>1230</v>
       </c>
     </row>
     <row r="22" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A22" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="18" t="n"/>
-      <c r="C22" s="10" t="n"/>
-      <c r="D22" s="14" t="n"/>
-      <c r="E22" s="10" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="11" t="n"/>
-      <c r="H22" s="11" t="n"/>
-      <c r="I22" s="10" t="n"/>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="10" t="n"/>
-      <c r="L22" s="16">
-        <f>K22+30</f>
-        <v/>
+      <c r="B22" s="18" t="n">
+        <v>522335</v>
+      </c>
+      <c r="C22" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D22" s="14" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="E22" s="10" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="F22" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G22" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="H22" s="11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="I22" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="K22" s="10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L22" s="16" t="n">
+        <v>1230</v>
       </c>
     </row>
     <row r="23" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A23" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="18" t="n"/>
-      <c r="C23" s="10" t="n"/>
-      <c r="D23" s="14" t="n"/>
-      <c r="E23" s="10" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="11" t="n"/>
-      <c r="H23" s="11" t="n"/>
-      <c r="I23" s="10" t="n"/>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="10" t="n"/>
-      <c r="L23" s="16">
-        <f>K23+30</f>
-        <v/>
+      <c r="B23" s="18" t="n">
+        <v>522336</v>
+      </c>
+      <c r="C23" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D23" s="14" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="E23" s="10" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="F23" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G23" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="H23" s="11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="I23" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="K23" s="10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L23" s="16" t="n">
+        <v>1230</v>
       </c>
     </row>
     <row r="24" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A24" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="18" t="n"/>
-      <c r="C24" s="10" t="n"/>
-      <c r="D24" s="14" t="n"/>
-      <c r="E24" s="10" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="11" t="n"/>
-      <c r="H24" s="11" t="n"/>
-      <c r="I24" s="10" t="n"/>
-      <c r="J24" s="9" t="n"/>
-      <c r="K24" s="10" t="n"/>
-      <c r="L24" s="16">
-        <f>K24+30</f>
-        <v/>
+      <c r="B24" s="18" t="n">
+        <v>522337</v>
+      </c>
+      <c r="C24" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D24" s="14" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="E24" s="10" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="F24" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G24" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="H24" s="11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="I24" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="K24" s="10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L24" s="16" t="n">
+        <v>1230</v>
       </c>
     </row>
     <row r="25" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A25" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="18" t="n"/>
-      <c r="C25" s="10" t="n"/>
-      <c r="D25" s="14" t="n"/>
-      <c r="E25" s="10" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="11" t="n"/>
-      <c r="H25" s="11" t="n"/>
-      <c r="I25" s="10" t="n"/>
-      <c r="J25" s="9" t="n"/>
-      <c r="K25" s="10" t="n"/>
-      <c r="L25" s="16">
-        <f>K25+30</f>
-        <v/>
+      <c r="B25" s="18" t="n">
+        <v>522338</v>
+      </c>
+      <c r="C25" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D25" s="14" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="E25" s="10" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="F25" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G25" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="H25" s="11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="I25" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="K25" s="10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L25" s="16" t="n">
+        <v>1230</v>
       </c>
     </row>
     <row r="26" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A26" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="18" t="n"/>
-      <c r="C26" s="10" t="n"/>
-      <c r="D26" s="14" t="n"/>
-      <c r="E26" s="10" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="11" t="n"/>
-      <c r="H26" s="11" t="n"/>
-      <c r="I26" s="10" t="n"/>
-      <c r="J26" s="9" t="n"/>
-      <c r="K26" s="10" t="n"/>
-      <c r="L26" s="16">
-        <f>K26+30</f>
-        <v/>
+      <c r="B26" s="18" t="n">
+        <v>522339</v>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D26" s="14" t="inlineStr">
+        <is>
+          <t>Split face</t>
+        </is>
+      </c>
+      <c r="E26" s="10" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="F26" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G26" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="H26" s="11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="I26" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>25</v>
+      </c>
+      <c r="K26" s="10" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L26" s="16" t="n">
+        <v>1230</v>
       </c>
     </row>
     <row r="27" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A27" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="B27" s="18" t="n"/>
-      <c r="C27" s="10" t="n"/>
-      <c r="D27" s="14" t="n"/>
-      <c r="E27" s="10" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="11" t="n"/>
-      <c r="H27" s="11" t="n"/>
-      <c r="I27" s="10" t="n"/>
-      <c r="J27" s="9" t="n"/>
-      <c r="K27" s="10" t="n"/>
-      <c r="L27" s="16">
-        <f>K27+30</f>
-        <v/>
+      <c r="B27" s="18" t="n">
+        <v>527000</v>
+      </c>
+      <c r="C27" s="10" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D27" s="14" t="inlineStr">
+        <is>
+          <t>Tile Adhesive</t>
+        </is>
+      </c>
+      <c r="E27" s="10" t="inlineStr">
+        <is>
+          <t>Kalekim 1051</t>
+        </is>
+      </c>
+      <c r="F27" s="13" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="G27" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="H27" s="11" t="inlineStr">
+        <is>
+          <t>Various</t>
+        </is>
+      </c>
+      <c r="I27" s="10" t="n">
+        <v>128</v>
+      </c>
+      <c r="J27" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K27" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="16" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.9" customFormat="1" customHeight="1" s="4">

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>511559</v>
+        <v>58648</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
@@ -1476,40 +1476,40 @@
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="I11" s="10" t="n">
-        <v>25</v>
+        <v>420</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>25</v>
+        <v>39.07</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>1200</v>
+        <v>1125</v>
       </c>
       <c r="L11" s="16" t="n">
-        <v>1230</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1517,7 +1517,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>522263</v>
+        <v>58662</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
@@ -1526,40 +1526,40 @@
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="I12" s="10" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>25</v>
+        <v>39.07</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>1200</v>
+        <v>1125</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>1230</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1567,7 +1567,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="18" t="n">
-        <v>522264</v>
+        <v>58725</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
@@ -1576,40 +1576,40 @@
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E13" s="10" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F13" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="I13" s="10" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="J13" s="9" t="n">
-        <v>25</v>
+        <v>39.07</v>
       </c>
       <c r="K13" s="10" t="n">
-        <v>1200</v>
+        <v>1125</v>
       </c>
       <c r="L13" s="16" t="n">
-        <v>1230</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1617,7 +1617,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>522265</v>
+        <v>58726</v>
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
@@ -1626,692 +1626,287 @@
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>Split face</t>
+          <t>Filled&amp;Honed</t>
         </is>
       </c>
       <c r="E14" s="10" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F14" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="I14" s="10" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="J14" s="9" t="n">
-        <v>25</v>
+        <v>32.84</v>
       </c>
       <c r="K14" s="10" t="n">
-        <v>1200</v>
+        <v>946</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>1230</v>
+        <v>976</v>
       </c>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A15" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="n">
-        <v>522266</v>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D15" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="F15" s="13" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G15" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="I15" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="K15" s="10" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L15" s="16" t="n">
-        <v>1230</v>
+      <c r="B15" s="18" t="n"/>
+      <c r="C15" s="10" t="n"/>
+      <c r="D15" s="14" t="n"/>
+      <c r="E15" s="10" t="n"/>
+      <c r="F15" s="13" t="n"/>
+      <c r="G15" s="11" t="n"/>
+      <c r="H15" s="11" t="n"/>
+      <c r="I15" s="10" t="n"/>
+      <c r="J15" s="9" t="n"/>
+      <c r="K15" s="10" t="n"/>
+      <c r="L15" s="16">
+        <f>K15+30</f>
+        <v/>
       </c>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A16" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="18" t="n">
-        <v>522267</v>
-      </c>
-      <c r="C16" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D16" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E16" s="10" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="F16" s="13" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="I16" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="K16" s="10" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L16" s="16" t="n">
-        <v>1230</v>
+      <c r="B16" s="18" t="n"/>
+      <c r="C16" s="10" t="n"/>
+      <c r="D16" s="14" t="n"/>
+      <c r="E16" s="10" t="n"/>
+      <c r="F16" s="13" t="n"/>
+      <c r="G16" s="11" t="n"/>
+      <c r="H16" s="11" t="n"/>
+      <c r="I16" s="10" t="n"/>
+      <c r="J16" s="9" t="n"/>
+      <c r="K16" s="10" t="n"/>
+      <c r="L16" s="16">
+        <f>K16+30</f>
+        <v/>
       </c>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A17" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="n">
-        <v>522268</v>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D17" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E17" s="10" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="F17" s="13" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H17" s="11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="I17" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="K17" s="10" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L17" s="16" t="n">
-        <v>1230</v>
+      <c r="B17" s="18" t="n"/>
+      <c r="C17" s="10" t="n"/>
+      <c r="D17" s="14" t="n"/>
+      <c r="E17" s="10" t="n"/>
+      <c r="F17" s="13" t="n"/>
+      <c r="G17" s="11" t="n"/>
+      <c r="H17" s="11" t="n"/>
+      <c r="I17" s="10" t="n"/>
+      <c r="J17" s="9" t="n"/>
+      <c r="K17" s="10" t="n"/>
+      <c r="L17" s="16">
+        <f>K17+30</f>
+        <v/>
       </c>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A18" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="n">
-        <v>522269</v>
-      </c>
-      <c r="C18" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D18" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E18" s="10" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="F18" s="13" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H18" s="11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="I18" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="K18" s="10" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L18" s="16" t="n">
-        <v>1230</v>
+      <c r="B18" s="18" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="14" t="n"/>
+      <c r="E18" s="10" t="n"/>
+      <c r="F18" s="13" t="n"/>
+      <c r="G18" s="11" t="n"/>
+      <c r="H18" s="11" t="n"/>
+      <c r="I18" s="10" t="n"/>
+      <c r="J18" s="9" t="n"/>
+      <c r="K18" s="10" t="n"/>
+      <c r="L18" s="16">
+        <f>K18+30</f>
+        <v/>
       </c>
     </row>
     <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A19" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="18" t="n">
-        <v>522270</v>
-      </c>
-      <c r="C19" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D19" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E19" s="10" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="F19" s="13" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G19" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H19" s="11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="I19" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="K19" s="10" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L19" s="16" t="n">
-        <v>1230</v>
+      <c r="B19" s="18" t="n"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="14" t="n"/>
+      <c r="E19" s="10" t="n"/>
+      <c r="F19" s="13" t="n"/>
+      <c r="G19" s="11" t="n"/>
+      <c r="H19" s="11" t="n"/>
+      <c r="I19" s="10" t="n"/>
+      <c r="J19" s="9" t="n"/>
+      <c r="K19" s="10" t="n"/>
+      <c r="L19" s="16">
+        <f>K19+30</f>
+        <v/>
       </c>
     </row>
     <row r="20" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A20" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="18" t="n">
-        <v>522271</v>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D20" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E20" s="10" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="F20" s="13" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G20" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H20" s="11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="I20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="K20" s="10" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L20" s="16" t="n">
-        <v>1230</v>
+      <c r="B20" s="18" t="n"/>
+      <c r="C20" s="10" t="n"/>
+      <c r="D20" s="14" t="n"/>
+      <c r="E20" s="10" t="n"/>
+      <c r="F20" s="13" t="n"/>
+      <c r="G20" s="11" t="n"/>
+      <c r="H20" s="11" t="n"/>
+      <c r="I20" s="10" t="n"/>
+      <c r="J20" s="9" t="n"/>
+      <c r="K20" s="10" t="n"/>
+      <c r="L20" s="16">
+        <f>K20+30</f>
+        <v/>
       </c>
     </row>
     <row r="21" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A21" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="18" t="n">
-        <v>522272</v>
-      </c>
-      <c r="C21" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D21" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E21" s="10" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="F21" s="13" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H21" s="11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="I21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="K21" s="10" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L21" s="16" t="n">
-        <v>1230</v>
+      <c r="B21" s="18" t="n"/>
+      <c r="C21" s="10" t="n"/>
+      <c r="D21" s="14" t="n"/>
+      <c r="E21" s="10" t="n"/>
+      <c r="F21" s="13" t="n"/>
+      <c r="G21" s="11" t="n"/>
+      <c r="H21" s="11" t="n"/>
+      <c r="I21" s="10" t="n"/>
+      <c r="J21" s="9" t="n"/>
+      <c r="K21" s="10" t="n"/>
+      <c r="L21" s="16">
+        <f>K21+30</f>
+        <v/>
       </c>
     </row>
     <row r="22" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A22" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="18" t="n">
-        <v>522335</v>
-      </c>
-      <c r="C22" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D22" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E22" s="10" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="F22" s="13" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G22" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H22" s="11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="I22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="K22" s="10" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L22" s="16" t="n">
-        <v>1230</v>
+      <c r="B22" s="18" t="n"/>
+      <c r="C22" s="10" t="n"/>
+      <c r="D22" s="14" t="n"/>
+      <c r="E22" s="10" t="n"/>
+      <c r="F22" s="13" t="n"/>
+      <c r="G22" s="11" t="n"/>
+      <c r="H22" s="11" t="n"/>
+      <c r="I22" s="10" t="n"/>
+      <c r="J22" s="9" t="n"/>
+      <c r="K22" s="10" t="n"/>
+      <c r="L22" s="16">
+        <f>K22+30</f>
+        <v/>
       </c>
     </row>
     <row r="23" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A23" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="18" t="n">
-        <v>522336</v>
-      </c>
-      <c r="C23" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D23" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E23" s="10" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="F23" s="13" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G23" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H23" s="11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="I23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="K23" s="10" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L23" s="16" t="n">
-        <v>1230</v>
+      <c r="B23" s="18" t="n"/>
+      <c r="C23" s="10" t="n"/>
+      <c r="D23" s="14" t="n"/>
+      <c r="E23" s="10" t="n"/>
+      <c r="F23" s="13" t="n"/>
+      <c r="G23" s="11" t="n"/>
+      <c r="H23" s="11" t="n"/>
+      <c r="I23" s="10" t="n"/>
+      <c r="J23" s="9" t="n"/>
+      <c r="K23" s="10" t="n"/>
+      <c r="L23" s="16">
+        <f>K23+30</f>
+        <v/>
       </c>
     </row>
     <row r="24" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A24" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="18" t="n">
-        <v>522337</v>
-      </c>
-      <c r="C24" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D24" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E24" s="10" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="F24" s="13" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G24" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H24" s="11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="I24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="K24" s="10" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L24" s="16" t="n">
-        <v>1230</v>
+      <c r="B24" s="18" t="n"/>
+      <c r="C24" s="10" t="n"/>
+      <c r="D24" s="14" t="n"/>
+      <c r="E24" s="10" t="n"/>
+      <c r="F24" s="13" t="n"/>
+      <c r="G24" s="11" t="n"/>
+      <c r="H24" s="11" t="n"/>
+      <c r="I24" s="10" t="n"/>
+      <c r="J24" s="9" t="n"/>
+      <c r="K24" s="10" t="n"/>
+      <c r="L24" s="16">
+        <f>K24+30</f>
+        <v/>
       </c>
     </row>
     <row r="25" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A25" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="18" t="n">
-        <v>522338</v>
-      </c>
-      <c r="C25" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D25" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E25" s="10" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="F25" s="13" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G25" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H25" s="11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="I25" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="K25" s="10" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L25" s="16" t="n">
-        <v>1230</v>
+      <c r="B25" s="18" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="14" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="13" t="n"/>
+      <c r="G25" s="11" t="n"/>
+      <c r="H25" s="11" t="n"/>
+      <c r="I25" s="10" t="n"/>
+      <c r="J25" s="9" t="n"/>
+      <c r="K25" s="10" t="n"/>
+      <c r="L25" s="16">
+        <f>K25+30</f>
+        <v/>
       </c>
     </row>
     <row r="26" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A26" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="18" t="n">
-        <v>522339</v>
-      </c>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D26" s="14" t="inlineStr">
-        <is>
-          <t>Split face</t>
-        </is>
-      </c>
-      <c r="E26" s="10" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="F26" s="13" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G26" s="11" t="inlineStr">
-        <is>
-          <t>10,0</t>
-        </is>
-      </c>
-      <c r="H26" s="11" t="inlineStr">
-        <is>
-          <t>Free</t>
-        </is>
-      </c>
-      <c r="I26" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" s="9" t="n">
-        <v>25</v>
-      </c>
-      <c r="K26" s="10" t="n">
-        <v>1200</v>
-      </c>
-      <c r="L26" s="16" t="n">
-        <v>1230</v>
+      <c r="B26" s="18" t="n"/>
+      <c r="C26" s="10" t="n"/>
+      <c r="D26" s="14" t="n"/>
+      <c r="E26" s="10" t="n"/>
+      <c r="F26" s="13" t="n"/>
+      <c r="G26" s="11" t="n"/>
+      <c r="H26" s="11" t="n"/>
+      <c r="I26" s="10" t="n"/>
+      <c r="J26" s="9" t="n"/>
+      <c r="K26" s="10" t="n"/>
+      <c r="L26" s="16">
+        <f>K26+30</f>
+        <v/>
       </c>
     </row>
     <row r="27" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A27" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="B27" s="18" t="n">
-        <v>527000</v>
-      </c>
-      <c r="C27" s="10" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D27" s="14" t="inlineStr">
-        <is>
-          <t>Tile Adhesive</t>
-        </is>
-      </c>
-      <c r="E27" s="10" t="inlineStr">
-        <is>
-          <t>Kalekim 1051</t>
-        </is>
-      </c>
-      <c r="F27" s="13" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="G27" s="11" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="H27" s="11" t="inlineStr">
-        <is>
-          <t>Various</t>
-        </is>
-      </c>
-      <c r="I27" s="10" t="n">
-        <v>128</v>
-      </c>
-      <c r="J27" s="9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="K27" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="16" t="n">
-        <v>30</v>
+      <c r="B27" s="18" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="14" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="13" t="n"/>
+      <c r="G27" s="11" t="n"/>
+      <c r="H27" s="11" t="n"/>
+      <c r="I27" s="10" t="n"/>
+      <c r="J27" s="9" t="n"/>
+      <c r="K27" s="10" t="n"/>
+      <c r="L27" s="16">
+        <f>K27+30</f>
+        <v/>
       </c>
     </row>
     <row r="28" ht="24.9" customFormat="1" customHeight="1" s="4">

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1467,49 +1467,49 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>58648</v>
+        <v>527076</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Spider Cream</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="I11" s="10" t="n">
-        <v>420</v>
+        <v>50</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>39.07</v>
+        <v>18</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>1125</v>
+        <v>990</v>
       </c>
       <c r="L11" s="16" t="n">
-        <v>1155</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1517,49 +1517,49 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>58662</v>
+        <v>527077</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Spider Cream</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="I12" s="10" t="n">
-        <v>420</v>
+        <v>50</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>39.07</v>
+        <v>18</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>1125</v>
+        <v>990</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>1155</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1567,49 +1567,49 @@
         <v>3</v>
       </c>
       <c r="B13" s="18" t="n">
-        <v>58725</v>
+        <v>527078</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="E13" s="10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Spider Cream</t>
         </is>
       </c>
       <c r="F13" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="I13" s="10" t="n">
-        <v>420</v>
+        <v>50</v>
       </c>
       <c r="J13" s="9" t="n">
-        <v>39.07</v>
+        <v>18</v>
       </c>
       <c r="K13" s="10" t="n">
-        <v>1125</v>
+        <v>990</v>
       </c>
       <c r="L13" s="16" t="n">
-        <v>1155</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1617,106 +1617,199 @@
         <v>4</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>58726</v>
+        <v>527079</v>
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Honed</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="E14" s="10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Spider Cream</t>
         </is>
       </c>
       <c r="F14" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="I14" s="10" t="n">
-        <v>353</v>
+        <v>50</v>
       </c>
       <c r="J14" s="9" t="n">
-        <v>32.84</v>
+        <v>18</v>
       </c>
       <c r="K14" s="10" t="n">
-        <v>946</v>
+        <v>990</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>976</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A15" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="n"/>
-      <c r="C15" s="10" t="n"/>
-      <c r="D15" s="14" t="n"/>
-      <c r="E15" s="10" t="n"/>
-      <c r="F15" s="13" t="n"/>
-      <c r="G15" s="11" t="n"/>
-      <c r="H15" s="11" t="n"/>
-      <c r="I15" s="10" t="n"/>
-      <c r="J15" s="9" t="n"/>
-      <c r="K15" s="10" t="n"/>
-      <c r="L15" s="16">
-        <f>K15+30</f>
-        <v/>
+      <c r="B15" s="18" t="n">
+        <v>527080</v>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="D15" s="14" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Spider Cream</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I15" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J15" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K15" s="10" t="n">
+        <v>990</v>
+      </c>
+      <c r="L15" s="16" t="n">
+        <v>1020</v>
       </c>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A16" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="18" t="n"/>
-      <c r="C16" s="10" t="n"/>
-      <c r="D16" s="14" t="n"/>
-      <c r="E16" s="10" t="n"/>
-      <c r="F16" s="13" t="n"/>
-      <c r="G16" s="11" t="n"/>
-      <c r="H16" s="11" t="n"/>
-      <c r="I16" s="10" t="n"/>
-      <c r="J16" s="9" t="n"/>
-      <c r="K16" s="10" t="n"/>
-      <c r="L16" s="16">
-        <f>K16+30</f>
-        <v/>
+      <c r="B16" s="18" t="n">
+        <v>527081</v>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="E16" s="10" t="inlineStr">
+        <is>
+          <t>Spider Cream</t>
+        </is>
+      </c>
+      <c r="F16" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I16" s="10" t="n">
+        <v>50</v>
+      </c>
+      <c r="J16" s="9" t="n">
+        <v>18</v>
+      </c>
+      <c r="K16" s="10" t="n">
+        <v>990</v>
+      </c>
+      <c r="L16" s="16" t="n">
+        <v>1020</v>
       </c>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A17" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="n"/>
-      <c r="C17" s="10" t="n"/>
-      <c r="D17" s="14" t="n"/>
-      <c r="E17" s="10" t="n"/>
-      <c r="F17" s="13" t="n"/>
-      <c r="G17" s="11" t="n"/>
-      <c r="H17" s="11" t="n"/>
-      <c r="I17" s="10" t="n"/>
-      <c r="J17" s="9" t="n"/>
-      <c r="K17" s="10" t="n"/>
-      <c r="L17" s="16">
-        <f>K17+30</f>
-        <v/>
+      <c r="B17" s="18" t="n">
+        <v>527082</v>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>Marble Skirting</t>
+        </is>
+      </c>
+      <c r="D17" s="14" t="inlineStr">
+        <is>
+          <t>Polished&amp;Bevelled</t>
+        </is>
+      </c>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Spider Cream</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H17" s="11" t="inlineStr">
+        <is>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I17" s="10" t="n">
+        <v>80</v>
+      </c>
+      <c r="J17" s="9" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="K17" s="10" t="n">
+        <v>184.8</v>
+      </c>
+      <c r="L17" s="16" t="n">
+        <v>214.8</v>
       </c>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1467,49 +1467,49 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>527076</v>
+        <v>58882</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Spider Cream</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="I11" s="10" t="n">
-        <v>50</v>
+        <v>960</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>18</v>
+        <v>39.56</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>990</v>
+        <v>1139.328</v>
       </c>
       <c r="L11" s="16" t="n">
-        <v>1020</v>
+        <v>1169.328</v>
       </c>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1517,49 +1517,49 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>527077</v>
+        <v>58884</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Spider Cream</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="I12" s="10" t="n">
-        <v>50</v>
+        <v>960</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>18</v>
+        <v>39.56</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>990</v>
+        <v>1139.328</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>1020</v>
+        <v>1169.328</v>
       </c>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1567,49 +1567,49 @@
         <v>3</v>
       </c>
       <c r="B13" s="18" t="n">
-        <v>527078</v>
+        <v>58886</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="E13" s="10" t="inlineStr">
         <is>
-          <t>Spider Cream</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="F13" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="I13" s="10" t="n">
-        <v>50</v>
+        <v>960</v>
       </c>
       <c r="J13" s="9" t="n">
-        <v>18</v>
+        <v>39.56</v>
       </c>
       <c r="K13" s="10" t="n">
-        <v>990</v>
+        <v>1139.328</v>
       </c>
       <c r="L13" s="16" t="n">
-        <v>1020</v>
+        <v>1169.328</v>
       </c>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1617,49 +1617,49 @@
         <v>4</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>527079</v>
+        <v>58889</v>
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="E14" s="10" t="inlineStr">
         <is>
-          <t>Spider Cream</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="F14" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="I14" s="10" t="n">
-        <v>50</v>
+        <v>760</v>
       </c>
       <c r="J14" s="9" t="n">
-        <v>18</v>
+        <v>31.32</v>
       </c>
       <c r="K14" s="10" t="n">
-        <v>990</v>
+        <v>902.016</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>1020</v>
+        <v>932.016</v>
       </c>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1667,49 +1667,49 @@
         <v>5</v>
       </c>
       <c r="B15" s="18" t="n">
-        <v>527080</v>
+        <v>58878</v>
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="E15" s="10" t="inlineStr">
         <is>
-          <t>Spider Cream</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="F15" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="H15" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="I15" s="10" t="n">
-        <v>50</v>
+        <v>620</v>
       </c>
       <c r="J15" s="9" t="n">
-        <v>18</v>
+        <v>38.39</v>
       </c>
       <c r="K15" s="10" t="n">
-        <v>990</v>
+        <v>1105.632</v>
       </c>
       <c r="L15" s="16" t="n">
-        <v>1020</v>
+        <v>1135.632</v>
       </c>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1717,49 +1717,49 @@
         <v>6</v>
       </c>
       <c r="B16" s="18" t="n">
-        <v>527081</v>
+        <v>58879</v>
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D16" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="E16" s="10" t="inlineStr">
         <is>
-          <t>Spider Cream</t>
+          <t>Noche</t>
         </is>
       </c>
       <c r="F16" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>20,3</t>
         </is>
       </c>
       <c r="H16" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="I16" s="10" t="n">
-        <v>50</v>
+        <v>620</v>
       </c>
       <c r="J16" s="9" t="n">
-        <v>18</v>
+        <v>38.39</v>
       </c>
       <c r="K16" s="10" t="n">
-        <v>990</v>
+        <v>1105.632</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>1020</v>
+        <v>1135.632</v>
       </c>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1767,144 +1767,299 @@
         <v>7</v>
       </c>
       <c r="B17" s="18" t="n">
-        <v>527082</v>
+        <v>58896</v>
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
-          <t>Marble Skirting</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D17" s="14" t="inlineStr">
         <is>
-          <t>Polished&amp;Bevelled</t>
+          <t>Unfilled&amp;Honed</t>
         </is>
       </c>
       <c r="E17" s="10" t="inlineStr">
         <is>
-          <t>Spider Cream</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="F17" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G17" s="11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="H17" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>30,5</t>
         </is>
       </c>
       <c r="I17" s="10" t="n">
-        <v>80</v>
+        <v>365</v>
       </c>
       <c r="J17" s="9" t="n">
-        <v>3.36</v>
+        <v>33.95</v>
       </c>
       <c r="K17" s="10" t="n">
-        <v>184.8</v>
+        <v>977.7600000000001</v>
       </c>
       <c r="L17" s="16" t="n">
-        <v>214.8</v>
+        <v>1007.76</v>
       </c>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A18" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="n"/>
-      <c r="C18" s="10" t="n"/>
-      <c r="D18" s="14" t="n"/>
-      <c r="E18" s="10" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="11" t="n"/>
-      <c r="H18" s="11" t="n"/>
-      <c r="I18" s="10" t="n"/>
-      <c r="J18" s="9" t="n"/>
-      <c r="K18" s="10" t="n"/>
-      <c r="L18" s="16">
-        <f>K18+30</f>
-        <v/>
+      <c r="B18" s="18" t="n">
+        <v>58895</v>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D18" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t>Silver Grey</t>
+        </is>
+      </c>
+      <c r="F18" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="H18" s="11" t="inlineStr">
+        <is>
+          <t>15,25</t>
+        </is>
+      </c>
+      <c r="I18" s="10" t="n">
+        <v>820</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>19.07</v>
+      </c>
+      <c r="K18" s="10" t="n">
+        <v>549.216</v>
+      </c>
+      <c r="L18" s="16" t="n">
+        <v>579.216</v>
       </c>
     </row>
     <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A19" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="18" t="n"/>
-      <c r="C19" s="10" t="n"/>
-      <c r="D19" s="14" t="n"/>
-      <c r="E19" s="10" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="11" t="n"/>
-      <c r="H19" s="11" t="n"/>
-      <c r="I19" s="10" t="n"/>
-      <c r="J19" s="9" t="n"/>
-      <c r="K19" s="10" t="n"/>
-      <c r="L19" s="16">
-        <f>K19+30</f>
-        <v/>
+      <c r="B19" s="18" t="n">
+        <v>58893</v>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D19" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E19" s="10" t="inlineStr">
+        <is>
+          <t>Noche</t>
+        </is>
+      </c>
+      <c r="F19" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G19" s="11" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="H19" s="11" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="I19" s="10" t="n">
+        <v>365</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>33.95</v>
+      </c>
+      <c r="K19" s="10" t="n">
+        <v>977.7600000000001</v>
+      </c>
+      <c r="L19" s="16" t="n">
+        <v>1007.76</v>
       </c>
     </row>
     <row r="20" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A20" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="18" t="n"/>
-      <c r="C20" s="10" t="n"/>
-      <c r="D20" s="14" t="n"/>
-      <c r="E20" s="10" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="11" t="n"/>
-      <c r="H20" s="11" t="n"/>
-      <c r="I20" s="10" t="n"/>
-      <c r="J20" s="9" t="n"/>
-      <c r="K20" s="10" t="n"/>
-      <c r="L20" s="16">
-        <f>K20+30</f>
-        <v/>
+      <c r="B20" s="18" t="n">
+        <v>58890</v>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D20" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E20" s="10" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="F20" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H20" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I20" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K20" s="10" t="n">
+        <v>1113.408</v>
+      </c>
+      <c r="L20" s="16" t="n">
+        <v>1143.408</v>
       </c>
     </row>
     <row r="21" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A21" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="18" t="n"/>
-      <c r="C21" s="10" t="n"/>
-      <c r="D21" s="14" t="n"/>
-      <c r="E21" s="10" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="11" t="n"/>
-      <c r="H21" s="11" t="n"/>
-      <c r="I21" s="10" t="n"/>
-      <c r="J21" s="9" t="n"/>
-      <c r="K21" s="10" t="n"/>
-      <c r="L21" s="16">
-        <f>K21+30</f>
-        <v/>
+      <c r="B21" s="18" t="n">
+        <v>58891</v>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D21" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E21" s="10" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="F21" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H21" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I21" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K21" s="10" t="n">
+        <v>1113.408</v>
+      </c>
+      <c r="L21" s="16" t="n">
+        <v>1143.408</v>
       </c>
     </row>
     <row r="22" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A22" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="18" t="n"/>
-      <c r="C22" s="10" t="n"/>
-      <c r="D22" s="14" t="n"/>
-      <c r="E22" s="10" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="11" t="n"/>
-      <c r="H22" s="11" t="n"/>
-      <c r="I22" s="10" t="n"/>
-      <c r="J22" s="9" t="n"/>
-      <c r="K22" s="10" t="n"/>
-      <c r="L22" s="16">
-        <f>K22+30</f>
-        <v/>
+      <c r="B22" s="18" t="n">
+        <v>58897</v>
+      </c>
+      <c r="C22" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D22" s="14" t="inlineStr">
+        <is>
+          <t>Unfilled&amp;Honed</t>
+        </is>
+      </c>
+      <c r="E22" s="10" t="inlineStr">
+        <is>
+          <t>Classic Mina</t>
+        </is>
+      </c>
+      <c r="F22" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G22" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H22" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I22" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="K22" s="10" t="n">
+        <v>1113.408</v>
+      </c>
+      <c r="L22" s="16" t="n">
+        <v>1143.408</v>
       </c>
     </row>
     <row r="23" ht="24.9" customFormat="1" customHeight="1" s="4">

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1467,49 +1467,49 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>58882</v>
+        <v>527234</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>VH72</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Elkay Maximax</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="I11" s="10" t="n">
-        <v>960</v>
+        <v>12</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>39.56</v>
+        <v>0</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>1139.328</v>
+        <v>0</v>
       </c>
       <c r="L11" s="16" t="n">
-        <v>1169.328</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1517,49 +1517,49 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>58884</v>
+        <v>527206</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Crema Marfil</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="I12" s="10" t="n">
-        <v>960</v>
+        <v>40</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>39.56</v>
+        <v>28.8</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>1139.328</v>
+        <v>1584</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>1169.328</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1567,49 +1567,49 @@
         <v>3</v>
       </c>
       <c r="B13" s="18" t="n">
-        <v>58886</v>
+        <v>527207</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E13" s="10" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Crema Marfil</t>
         </is>
       </c>
       <c r="F13" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="I13" s="10" t="n">
-        <v>960</v>
+        <v>40</v>
       </c>
       <c r="J13" s="9" t="n">
-        <v>39.56</v>
+        <v>28.8</v>
       </c>
       <c r="K13" s="10" t="n">
-        <v>1139.328</v>
+        <v>1584</v>
       </c>
       <c r="L13" s="16" t="n">
-        <v>1169.328</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1617,49 +1617,49 @@
         <v>4</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>58889</v>
+        <v>527208</v>
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E14" s="10" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Crema Marfil</t>
         </is>
       </c>
       <c r="F14" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="I14" s="10" t="n">
-        <v>760</v>
+        <v>40</v>
       </c>
       <c r="J14" s="9" t="n">
-        <v>31.32</v>
+        <v>28.8</v>
       </c>
       <c r="K14" s="10" t="n">
-        <v>902.016</v>
+        <v>1584</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>932.016</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1667,49 +1667,49 @@
         <v>5</v>
       </c>
       <c r="B15" s="18" t="n">
-        <v>58878</v>
+        <v>527209</v>
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E15" s="10" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Crema Marfil</t>
         </is>
       </c>
       <c r="F15" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H15" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="I15" s="10" t="n">
-        <v>620</v>
+        <v>40</v>
       </c>
       <c r="J15" s="9" t="n">
-        <v>38.39</v>
+        <v>28.8</v>
       </c>
       <c r="K15" s="10" t="n">
-        <v>1105.632</v>
+        <v>1584</v>
       </c>
       <c r="L15" s="16" t="n">
-        <v>1135.632</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1717,49 +1717,49 @@
         <v>6</v>
       </c>
       <c r="B16" s="18" t="n">
-        <v>58879</v>
+        <v>527210</v>
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="D16" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Brushed</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E16" s="10" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Crema Marfil</t>
         </is>
       </c>
       <c r="F16" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
-          <t>20,3</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H16" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="I16" s="10" t="n">
-        <v>620</v>
+        <v>40</v>
       </c>
       <c r="J16" s="9" t="n">
-        <v>38.39</v>
+        <v>28.8</v>
       </c>
       <c r="K16" s="10" t="n">
-        <v>1105.632</v>
+        <v>1584</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>1135.632</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1767,49 +1767,49 @@
         <v>7</v>
       </c>
       <c r="B17" s="18" t="n">
-        <v>58896</v>
+        <v>527211</v>
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="D17" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E17" s="10" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Crema Marfil</t>
         </is>
       </c>
       <c r="F17" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G17" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H17" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="I17" s="10" t="n">
-        <v>365</v>
+        <v>40</v>
       </c>
       <c r="J17" s="9" t="n">
-        <v>33.95</v>
+        <v>28.8</v>
       </c>
       <c r="K17" s="10" t="n">
-        <v>977.7600000000001</v>
+        <v>1584</v>
       </c>
       <c r="L17" s="16" t="n">
-        <v>1007.76</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1817,49 +1817,49 @@
         <v>8</v>
       </c>
       <c r="B18" s="18" t="n">
-        <v>58895</v>
+        <v>527212</v>
       </c>
       <c r="C18" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E18" s="10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Crema Marfil</t>
         </is>
       </c>
       <c r="F18" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H18" s="11" t="inlineStr">
         <is>
-          <t>15,25</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="I18" s="10" t="n">
-        <v>820</v>
+        <v>41</v>
       </c>
       <c r="J18" s="9" t="n">
-        <v>19.07</v>
+        <v>29.52</v>
       </c>
       <c r="K18" s="10" t="n">
-        <v>549.216</v>
+        <v>1623.6</v>
       </c>
       <c r="L18" s="16" t="n">
-        <v>579.216</v>
+        <v>1653.6</v>
       </c>
     </row>
     <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1867,49 +1867,49 @@
         <v>9</v>
       </c>
       <c r="B19" s="18" t="n">
-        <v>58893</v>
+        <v>527213</v>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="D19" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E19" s="10" t="inlineStr">
         <is>
-          <t>Noche</t>
+          <t>Crema Marfil</t>
         </is>
       </c>
       <c r="F19" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G19" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H19" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="I19" s="10" t="n">
-        <v>365</v>
+        <v>41</v>
       </c>
       <c r="J19" s="9" t="n">
-        <v>33.95</v>
+        <v>29.52</v>
       </c>
       <c r="K19" s="10" t="n">
-        <v>977.7600000000001</v>
+        <v>1623.6</v>
       </c>
       <c r="L19" s="16" t="n">
-        <v>1007.76</v>
+        <v>1653.6</v>
       </c>
     </row>
     <row r="20" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1917,49 +1917,49 @@
         <v>10</v>
       </c>
       <c r="B20" s="18" t="n">
-        <v>58890</v>
+        <v>527214</v>
       </c>
       <c r="C20" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="D20" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E20" s="10" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Crema Marfil</t>
         </is>
       </c>
       <c r="F20" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="I20" s="10" t="n">
-        <v>312</v>
+        <v>41</v>
       </c>
       <c r="J20" s="9" t="n">
-        <v>38.66</v>
+        <v>29.52</v>
       </c>
       <c r="K20" s="10" t="n">
-        <v>1113.408</v>
+        <v>1623.6</v>
       </c>
       <c r="L20" s="16" t="n">
-        <v>1143.408</v>
+        <v>1653.6</v>
       </c>
     </row>
     <row r="21" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1967,49 +1967,49 @@
         <v>11</v>
       </c>
       <c r="B21" s="18" t="n">
-        <v>58891</v>
+        <v>527215</v>
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="D21" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E21" s="10" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Crema Marfil</t>
         </is>
       </c>
       <c r="F21" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G21" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H21" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="I21" s="10" t="n">
-        <v>312</v>
+        <v>40</v>
       </c>
       <c r="J21" s="9" t="n">
-        <v>38.66</v>
+        <v>28.8</v>
       </c>
       <c r="K21" s="10" t="n">
-        <v>1113.408</v>
+        <v>1584</v>
       </c>
       <c r="L21" s="16" t="n">
-        <v>1143.408</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="22" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2017,163 +2017,349 @@
         <v>12</v>
       </c>
       <c r="B22" s="18" t="n">
-        <v>58897</v>
+        <v>527217</v>
       </c>
       <c r="C22" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Tiles</t>
         </is>
       </c>
       <c r="D22" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed</t>
+          <t>Honed</t>
         </is>
       </c>
       <c r="E22" s="10" t="inlineStr">
         <is>
-          <t>Classic Mina</t>
+          <t>Turkish Calacatta</t>
         </is>
       </c>
       <c r="F22" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>30,0</t>
         </is>
       </c>
       <c r="H22" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="I22" s="10" t="n">
-        <v>312</v>
+        <v>123</v>
       </c>
       <c r="J22" s="9" t="n">
-        <v>38.66</v>
+        <v>22.14</v>
       </c>
       <c r="K22" s="10" t="n">
-        <v>1113.408</v>
+        <v>1217.7</v>
       </c>
       <c r="L22" s="16" t="n">
-        <v>1143.408</v>
+        <v>1247.7</v>
       </c>
     </row>
     <row r="23" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A23" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="18" t="n"/>
-      <c r="C23" s="10" t="n"/>
-      <c r="D23" s="14" t="n"/>
-      <c r="E23" s="10" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="11" t="n"/>
-      <c r="H23" s="11" t="n"/>
-      <c r="I23" s="10" t="n"/>
-      <c r="J23" s="9" t="n"/>
-      <c r="K23" s="10" t="n"/>
-      <c r="L23" s="16">
-        <f>K23+30</f>
-        <v/>
+      <c r="B23" s="18" t="n">
+        <v>527201</v>
+      </c>
+      <c r="C23" s="10" t="inlineStr">
+        <is>
+          <t>Marble Stairs</t>
+        </is>
+      </c>
+      <c r="D23" s="14" t="inlineStr">
+        <is>
+          <t>Honed&amp;Bullnose</t>
+        </is>
+      </c>
+      <c r="E23" s="10" t="inlineStr">
+        <is>
+          <t>Burdur Beige</t>
+        </is>
+      </c>
+      <c r="F23" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G23" s="11" t="inlineStr">
+        <is>
+          <t>35,0</t>
+        </is>
+      </c>
+      <c r="H23" s="11" t="inlineStr">
+        <is>
+          <t>125,0</t>
+        </is>
+      </c>
+      <c r="I23" s="10" t="n">
+        <v>20</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="K23" s="10" t="n">
+        <v>481.25</v>
+      </c>
+      <c r="L23" s="16" t="n">
+        <v>511.25</v>
       </c>
     </row>
     <row r="24" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A24" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="18" t="n"/>
-      <c r="C24" s="10" t="n"/>
-      <c r="D24" s="14" t="n"/>
-      <c r="E24" s="10" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="11" t="n"/>
-      <c r="H24" s="11" t="n"/>
-      <c r="I24" s="10" t="n"/>
-      <c r="J24" s="9" t="n"/>
-      <c r="K24" s="10" t="n"/>
-      <c r="L24" s="16">
-        <f>K24+30</f>
-        <v/>
+      <c r="B24" s="18" t="n">
+        <v>527202</v>
+      </c>
+      <c r="C24" s="10" t="inlineStr">
+        <is>
+          <t>Marble Risers</t>
+        </is>
+      </c>
+      <c r="D24" s="14" t="inlineStr">
+        <is>
+          <t>Honed</t>
+        </is>
+      </c>
+      <c r="E24" s="10" t="inlineStr">
+        <is>
+          <t>Burdur Beige</t>
+        </is>
+      </c>
+      <c r="F24" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G24" s="11" t="inlineStr">
+        <is>
+          <t>15,0</t>
+        </is>
+      </c>
+      <c r="H24" s="11" t="inlineStr">
+        <is>
+          <t>125,0</t>
+        </is>
+      </c>
+      <c r="I24" s="10" t="n">
+        <v>22</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="K24" s="10" t="n">
+        <v>226.875</v>
+      </c>
+      <c r="L24" s="16" t="n">
+        <v>256.875</v>
       </c>
     </row>
     <row r="25" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A25" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="18" t="n"/>
-      <c r="C25" s="10" t="n"/>
-      <c r="D25" s="14" t="n"/>
-      <c r="E25" s="10" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="11" t="n"/>
-      <c r="H25" s="11" t="n"/>
-      <c r="I25" s="10" t="n"/>
-      <c r="J25" s="9" t="n"/>
-      <c r="K25" s="10" t="n"/>
-      <c r="L25" s="16">
-        <f>K25+30</f>
-        <v/>
+      <c r="B25" s="18" t="n">
+        <v>527233</v>
+      </c>
+      <c r="C25" s="10" t="inlineStr">
+        <is>
+          <t>Marble Landing</t>
+        </is>
+      </c>
+      <c r="D25" s="14" t="inlineStr">
+        <is>
+          <t>Honed</t>
+        </is>
+      </c>
+      <c r="E25" s="10" t="inlineStr">
+        <is>
+          <t>Burdur Beige</t>
+        </is>
+      </c>
+      <c r="F25" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G25" s="11" t="inlineStr">
+        <is>
+          <t>30,0</t>
+        </is>
+      </c>
+      <c r="H25" s="11" t="inlineStr">
+        <is>
+          <t>125,0</t>
+        </is>
+      </c>
+      <c r="I25" s="10" t="n">
+        <v>18</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="K25" s="10" t="n">
+        <v>371.25</v>
+      </c>
+      <c r="L25" s="16" t="n">
+        <v>401.25</v>
       </c>
     </row>
     <row r="26" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A26" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="18" t="n"/>
-      <c r="C26" s="10" t="n"/>
-      <c r="D26" s="14" t="n"/>
-      <c r="E26" s="10" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="11" t="n"/>
-      <c r="H26" s="11" t="n"/>
-      <c r="I26" s="10" t="n"/>
-      <c r="J26" s="9" t="n"/>
-      <c r="K26" s="10" t="n"/>
-      <c r="L26" s="16">
-        <f>K26+30</f>
-        <v/>
+      <c r="B26" s="18" t="n">
+        <v>527218</v>
+      </c>
+      <c r="C26" s="10" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="D26" s="14" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="E26" s="10" t="inlineStr">
+        <is>
+          <t>Turkish Calacatta</t>
+        </is>
+      </c>
+      <c r="F26" s="13" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="G26" s="11" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="H26" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I26" s="10" t="n">
+        <v>156</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>29.02</v>
+      </c>
+      <c r="K26" s="10" t="n">
+        <v>798.05</v>
+      </c>
+      <c r="L26" s="16" t="n">
+        <v>828.05</v>
       </c>
     </row>
     <row r="27" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A27" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="B27" s="18" t="n"/>
-      <c r="C27" s="10" t="n"/>
-      <c r="D27" s="14" t="n"/>
-      <c r="E27" s="10" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="11" t="n"/>
-      <c r="H27" s="11" t="n"/>
-      <c r="I27" s="10" t="n"/>
-      <c r="J27" s="9" t="n"/>
-      <c r="K27" s="10" t="n"/>
-      <c r="L27" s="16">
-        <f>K27+30</f>
-        <v/>
+      <c r="B27" s="18" t="n">
+        <v>527219</v>
+      </c>
+      <c r="C27" s="10" t="inlineStr">
+        <is>
+          <t>Marble Tiles</t>
+        </is>
+      </c>
+      <c r="D27" s="14" t="inlineStr">
+        <is>
+          <t>Polished</t>
+        </is>
+      </c>
+      <c r="E27" s="10" t="inlineStr">
+        <is>
+          <t>Turkish Calacatta</t>
+        </is>
+      </c>
+      <c r="F27" s="13" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="G27" s="11" t="inlineStr">
+        <is>
+          <t>30,5</t>
+        </is>
+      </c>
+      <c r="H27" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I27" s="10" t="n">
+        <v>156</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>29.03</v>
+      </c>
+      <c r="K27" s="10" t="n">
+        <v>798.325</v>
+      </c>
+      <c r="L27" s="16" t="n">
+        <v>828.325</v>
       </c>
     </row>
     <row r="28" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A28" s="17" t="n">
         <v>18</v>
       </c>
-      <c r="B28" s="18" t="n"/>
-      <c r="C28" s="10" t="n"/>
-      <c r="D28" s="14" t="n"/>
-      <c r="E28" s="10" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="11" t="n"/>
-      <c r="H28" s="11" t="n"/>
-      <c r="I28" s="10" t="n"/>
-      <c r="J28" s="9" t="n"/>
-      <c r="K28" s="10" t="n"/>
-      <c r="L28" s="16">
-        <f>K28+30</f>
-        <v/>
+      <c r="B28" s="18" t="n">
+        <v>527216</v>
+      </c>
+      <c r="C28" s="10" t="inlineStr">
+        <is>
+          <t>Marble Skirting</t>
+        </is>
+      </c>
+      <c r="D28" s="14" t="inlineStr">
+        <is>
+          <t>Honed&amp;Bevelled</t>
+        </is>
+      </c>
+      <c r="E28" s="10" t="inlineStr">
+        <is>
+          <t>Crema Marfil</t>
+        </is>
+      </c>
+      <c r="F28" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G28" s="11" t="inlineStr">
+        <is>
+          <t>10,0</t>
+        </is>
+      </c>
+      <c r="H28" s="11" t="inlineStr">
+        <is>
+          <t>Free</t>
+        </is>
+      </c>
+      <c r="I28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>155</v>
+      </c>
+      <c r="K28" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="16" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="29" ht="24.9" customFormat="1" customHeight="1" s="4">

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1467,49 +1467,49 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>527234</v>
+        <v>527258</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>VH72</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Elkay Maximax</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I11" s="10" t="n">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="J11" s="9" t="n">
-        <v>0</v>
+        <v>16.35</v>
       </c>
       <c r="K11" s="10" t="n">
-        <v>0</v>
+        <v>1177.2</v>
       </c>
       <c r="L11" s="16" t="n">
-        <v>30</v>
+        <v>1207.2</v>
       </c>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1517,49 +1517,49 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>527206</v>
+        <v>527259</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Crema Marfil</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I12" s="10" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J12" s="9" t="n">
-        <v>28.8</v>
+        <v>16.35</v>
       </c>
       <c r="K12" s="10" t="n">
-        <v>1584</v>
+        <v>1177.2</v>
       </c>
       <c r="L12" s="16" t="n">
-        <v>1614</v>
+        <v>1207.2</v>
       </c>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1567,49 +1567,49 @@
         <v>3</v>
       </c>
       <c r="B13" s="18" t="n">
-        <v>527207</v>
+        <v>527260</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E13" s="10" t="inlineStr">
         <is>
-          <t>Crema Marfil</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F13" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I13" s="10" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J13" s="9" t="n">
-        <v>28.8</v>
+        <v>16.35</v>
       </c>
       <c r="K13" s="10" t="n">
-        <v>1584</v>
+        <v>1177.2</v>
       </c>
       <c r="L13" s="16" t="n">
-        <v>1614</v>
+        <v>1207.2</v>
       </c>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1617,49 +1617,49 @@
         <v>4</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>527208</v>
+        <v>527261</v>
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E14" s="10" t="inlineStr">
         <is>
-          <t>Crema Marfil</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F14" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I14" s="10" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J14" s="9" t="n">
-        <v>28.8</v>
+        <v>16.35</v>
       </c>
       <c r="K14" s="10" t="n">
-        <v>1584</v>
+        <v>1177.2</v>
       </c>
       <c r="L14" s="16" t="n">
-        <v>1614</v>
+        <v>1207.2</v>
       </c>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1667,49 +1667,49 @@
         <v>5</v>
       </c>
       <c r="B15" s="18" t="n">
-        <v>527209</v>
+        <v>527262</v>
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E15" s="10" t="inlineStr">
         <is>
-          <t>Crema Marfil</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F15" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H15" s="11" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I15" s="10" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J15" s="9" t="n">
-        <v>28.8</v>
+        <v>16.35</v>
       </c>
       <c r="K15" s="10" t="n">
-        <v>1584</v>
+        <v>1177.2</v>
       </c>
       <c r="L15" s="16" t="n">
-        <v>1614</v>
+        <v>1207.2</v>
       </c>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1717,49 +1717,49 @@
         <v>6</v>
       </c>
       <c r="B16" s="18" t="n">
-        <v>527210</v>
+        <v>527263</v>
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D16" s="14" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E16" s="10" t="inlineStr">
         <is>
-          <t>Crema Marfil</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F16" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H16" s="11" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I16" s="10" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J16" s="9" t="n">
-        <v>28.8</v>
+        <v>16.35</v>
       </c>
       <c r="K16" s="10" t="n">
-        <v>1584</v>
+        <v>1177.2</v>
       </c>
       <c r="L16" s="16" t="n">
-        <v>1614</v>
+        <v>1207.2</v>
       </c>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1767,49 +1767,49 @@
         <v>7</v>
       </c>
       <c r="B17" s="18" t="n">
-        <v>527211</v>
+        <v>527264</v>
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D17" s="14" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E17" s="10" t="inlineStr">
         <is>
-          <t>Crema Marfil</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F17" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G17" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H17" s="11" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I17" s="10" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J17" s="9" t="n">
-        <v>28.8</v>
+        <v>16.35</v>
       </c>
       <c r="K17" s="10" t="n">
-        <v>1584</v>
+        <v>1177.2</v>
       </c>
       <c r="L17" s="16" t="n">
-        <v>1614</v>
+        <v>1207.2</v>
       </c>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1817,49 +1817,49 @@
         <v>8</v>
       </c>
       <c r="B18" s="18" t="n">
-        <v>527212</v>
+        <v>527265</v>
       </c>
       <c r="C18" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E18" s="10" t="inlineStr">
         <is>
-          <t>Crema Marfil</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F18" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H18" s="11" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I18" s="10" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="J18" s="9" t="n">
-        <v>29.52</v>
+        <v>16.35</v>
       </c>
       <c r="K18" s="10" t="n">
-        <v>1623.6</v>
+        <v>1177.2</v>
       </c>
       <c r="L18" s="16" t="n">
-        <v>1653.6</v>
+        <v>1207.2</v>
       </c>
     </row>
     <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1867,49 +1867,49 @@
         <v>9</v>
       </c>
       <c r="B19" s="18" t="n">
-        <v>527213</v>
+        <v>527266</v>
       </c>
       <c r="C19" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D19" s="14" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Unfilled&amp;Honed&amp;Tumbled</t>
         </is>
       </c>
       <c r="E19" s="10" t="inlineStr">
         <is>
-          <t>Crema Marfil</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F19" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G19" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H19" s="11" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I19" s="10" t="n">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="J19" s="9" t="n">
-        <v>29.52</v>
+        <v>16.31</v>
       </c>
       <c r="K19" s="10" t="n">
-        <v>1623.6</v>
+        <v>1174.32</v>
       </c>
       <c r="L19" s="16" t="n">
-        <v>1653.6</v>
+        <v>1204.32</v>
       </c>
     </row>
     <row r="20" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1917,49 +1917,49 @@
         <v>10</v>
       </c>
       <c r="B20" s="18" t="n">
-        <v>527214</v>
+        <v>527276</v>
       </c>
       <c r="C20" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D20" s="14" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>VH72</t>
         </is>
       </c>
       <c r="E20" s="10" t="inlineStr">
         <is>
-          <t>Crema Marfil</t>
+          <t>Elkay Maxiseal</t>
         </is>
       </c>
       <c r="F20" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1 LT</t>
         </is>
       </c>
       <c r="G20" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>1 LT</t>
         </is>
       </c>
       <c r="H20" s="11" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>1 LT</t>
         </is>
       </c>
       <c r="I20" s="10" t="n">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="J20" s="9" t="n">
-        <v>29.52</v>
+        <v>0</v>
       </c>
       <c r="K20" s="10" t="n">
-        <v>1623.6</v>
+        <v>0</v>
       </c>
       <c r="L20" s="16" t="n">
-        <v>1653.6</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1967,49 +1967,49 @@
         <v>11</v>
       </c>
       <c r="B21" s="18" t="n">
-        <v>527215</v>
+        <v>527251</v>
       </c>
       <c r="C21" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Coping</t>
         </is>
       </c>
       <c r="D21" s="14" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Unfilled&amp;Tumbled&amp;Bullnosed</t>
         </is>
       </c>
       <c r="E21" s="10" t="inlineStr">
         <is>
-          <t>Crema Marfil</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F21" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G21" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H21" s="11" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I21" s="10" t="n">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J21" s="9" t="n">
-        <v>28.8</v>
+        <v>40.26</v>
       </c>
       <c r="K21" s="10" t="n">
-        <v>1584</v>
+        <v>0</v>
       </c>
       <c r="L21" s="16" t="n">
-        <v>1614</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2017,49 +2017,49 @@
         <v>12</v>
       </c>
       <c r="B22" s="18" t="n">
-        <v>527217</v>
+        <v>527252</v>
       </c>
       <c r="C22" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Coping</t>
         </is>
       </c>
       <c r="D22" s="14" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Unfilled&amp;Tumbled&amp;Bullnosed</t>
         </is>
       </c>
       <c r="E22" s="10" t="inlineStr">
         <is>
-          <t>Turkish Calacatta</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F22" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G22" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H22" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I22" s="10" t="n">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="J22" s="9" t="n">
-        <v>22.14</v>
+        <v>40.26</v>
       </c>
       <c r="K22" s="10" t="n">
-        <v>1217.7</v>
+        <v>0</v>
       </c>
       <c r="L22" s="16" t="n">
-        <v>1247.7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2067,49 +2067,49 @@
         <v>13</v>
       </c>
       <c r="B23" s="18" t="n">
-        <v>527201</v>
+        <v>527253</v>
       </c>
       <c r="C23" s="10" t="inlineStr">
         <is>
-          <t>Marble Stairs</t>
+          <t>Travertine Coping</t>
         </is>
       </c>
       <c r="D23" s="14" t="inlineStr">
         <is>
-          <t>Honed&amp;Bullnose</t>
+          <t>Unfilled&amp;Tumbled&amp;Bullnosed</t>
         </is>
       </c>
       <c r="E23" s="10" t="inlineStr">
         <is>
-          <t>Burdur Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F23" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G23" s="11" t="inlineStr">
         <is>
-          <t>35,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H23" s="11" t="inlineStr">
         <is>
-          <t>125,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I23" s="10" t="n">
-        <v>20</v>
+        <v>66</v>
       </c>
       <c r="J23" s="9" t="n">
-        <v>8.75</v>
+        <v>40.26</v>
       </c>
       <c r="K23" s="10" t="n">
-        <v>481.25</v>
+        <v>0</v>
       </c>
       <c r="L23" s="16" t="n">
-        <v>511.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2117,49 +2117,49 @@
         <v>14</v>
       </c>
       <c r="B24" s="18" t="n">
-        <v>527202</v>
+        <v>527254</v>
       </c>
       <c r="C24" s="10" t="inlineStr">
         <is>
-          <t>Marble Risers</t>
+          <t>Travertine Coping</t>
         </is>
       </c>
       <c r="D24" s="14" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Unfilled&amp;Tumbled&amp;Bullnosed</t>
         </is>
       </c>
       <c r="E24" s="10" t="inlineStr">
         <is>
-          <t>Burdur Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F24" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G24" s="11" t="inlineStr">
         <is>
-          <t>15,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H24" s="11" t="inlineStr">
         <is>
-          <t>125,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I24" s="10" t="n">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="J24" s="9" t="n">
-        <v>4.12</v>
+        <v>40.26</v>
       </c>
       <c r="K24" s="10" t="n">
-        <v>226.875</v>
+        <v>0</v>
       </c>
       <c r="L24" s="16" t="n">
-        <v>256.875</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2167,49 +2167,49 @@
         <v>15</v>
       </c>
       <c r="B25" s="18" t="n">
-        <v>527233</v>
+        <v>527255</v>
       </c>
       <c r="C25" s="10" t="inlineStr">
         <is>
-          <t>Marble Landing</t>
+          <t>Travertine Coping</t>
         </is>
       </c>
       <c r="D25" s="14" t="inlineStr">
         <is>
-          <t>Honed</t>
+          <t>Unfilled&amp;Tumbled&amp;Bullnosed</t>
         </is>
       </c>
       <c r="E25" s="10" t="inlineStr">
         <is>
-          <t>Burdur Beige</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F25" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G25" s="11" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H25" s="11" t="inlineStr">
         <is>
-          <t>125,0</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I25" s="10" t="n">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="J25" s="9" t="n">
-        <v>6.75</v>
+        <v>40.26</v>
       </c>
       <c r="K25" s="10" t="n">
-        <v>371.25</v>
+        <v>0</v>
       </c>
       <c r="L25" s="16" t="n">
-        <v>401.25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2217,31 +2217,31 @@
         <v>16</v>
       </c>
       <c r="B26" s="18" t="n">
-        <v>527218</v>
+        <v>527256</v>
       </c>
       <c r="C26" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Coping</t>
         </is>
       </c>
       <c r="D26" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Tumbled&amp;Bullnosed</t>
         </is>
       </c>
       <c r="E26" s="10" t="inlineStr">
         <is>
-          <t>Turkish Calacatta</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F26" s="13" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G26" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H26" s="11" t="inlineStr">
@@ -2250,16 +2250,16 @@
         </is>
       </c>
       <c r="I26" s="10" t="n">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="J26" s="9" t="n">
-        <v>29.02</v>
+        <v>40.26</v>
       </c>
       <c r="K26" s="10" t="n">
-        <v>798.05</v>
+        <v>0</v>
       </c>
       <c r="L26" s="16" t="n">
-        <v>828.05</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2267,31 +2267,31 @@
         <v>17</v>
       </c>
       <c r="B27" s="18" t="n">
-        <v>527219</v>
+        <v>527257</v>
       </c>
       <c r="C27" s="10" t="inlineStr">
         <is>
-          <t>Marble Tiles</t>
+          <t>Travertine Coping</t>
         </is>
       </c>
       <c r="D27" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Unfilled&amp;Tumbled&amp;Bullnosed</t>
         </is>
       </c>
       <c r="E27" s="10" t="inlineStr">
         <is>
-          <t>Turkish Calacatta</t>
+          <t>Silver Grey</t>
         </is>
       </c>
       <c r="F27" s="13" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G27" s="11" t="inlineStr">
         <is>
-          <t>30,5</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H27" s="11" t="inlineStr">
@@ -2300,16 +2300,16 @@
         </is>
       </c>
       <c r="I27" s="10" t="n">
-        <v>156</v>
+        <v>66</v>
       </c>
       <c r="J27" s="9" t="n">
-        <v>29.03</v>
+        <v>40.26</v>
       </c>
       <c r="K27" s="10" t="n">
-        <v>798.325</v>
+        <v>0</v>
       </c>
       <c r="L27" s="16" t="n">
-        <v>828.325</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2317,43 +2317,43 @@
         <v>18</v>
       </c>
       <c r="B28" s="18" t="n">
-        <v>527216</v>
+        <v>59251</v>
       </c>
       <c r="C28" s="10" t="inlineStr">
         <is>
-          <t>Marble Skirting</t>
+          <t>Travertine Copings</t>
         </is>
       </c>
       <c r="D28" s="14" t="inlineStr">
         <is>
-          <t>Honed&amp;Bevelled</t>
+          <t>Unfilled&amp;Honed&amp;Bevelled</t>
         </is>
       </c>
       <c r="E28" s="10" t="inlineStr">
         <is>
-          <t>Crema Marfil</t>
+          <t>Classic Mina</t>
         </is>
       </c>
       <c r="F28" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>3,0</t>
         </is>
       </c>
       <c r="G28" s="11" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>40,6</t>
         </is>
       </c>
       <c r="H28" s="11" t="inlineStr">
         <is>
-          <t>Free</t>
+          <t>61,0</t>
         </is>
       </c>
       <c r="I28" s="10" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J28" s="9" t="n">
-        <v>155</v>
+        <v>40.26</v>
       </c>
       <c r="K28" s="10" t="n">
         <v>0</v>
@@ -2366,19 +2366,50 @@
       <c r="A29" s="17" t="n">
         <v>19</v>
       </c>
-      <c r="B29" s="18" t="n"/>
-      <c r="C29" s="10" t="n"/>
-      <c r="D29" s="14" t="n"/>
-      <c r="E29" s="10" t="n"/>
-      <c r="F29" s="13" t="n"/>
-      <c r="G29" s="11" t="n"/>
-      <c r="H29" s="11" t="n"/>
-      <c r="I29" s="10" t="n"/>
-      <c r="J29" s="9" t="n"/>
-      <c r="K29" s="10" t="n"/>
-      <c r="L29" s="16">
-        <f>K29+30</f>
-        <v/>
+      <c r="B29" s="18" t="n">
+        <v>527250</v>
+      </c>
+      <c r="C29" s="10" t="inlineStr">
+        <is>
+          <t>Marble Coping</t>
+        </is>
+      </c>
+      <c r="D29" s="14" t="inlineStr">
+        <is>
+          <t>Sandblasted&amp;Bullnose</t>
+        </is>
+      </c>
+      <c r="E29" s="10" t="inlineStr">
+        <is>
+          <t>Alaska Grey</t>
+        </is>
+      </c>
+      <c r="F29" s="13" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="G29" s="11" t="inlineStr">
+        <is>
+          <t>40,6</t>
+        </is>
+      </c>
+      <c r="H29" s="11" t="inlineStr">
+        <is>
+          <t>61,0</t>
+        </is>
+      </c>
+      <c r="I29" s="10" t="n">
+        <v>100</v>
+      </c>
+      <c r="J29" s="9" t="n">
+        <v>61</v>
+      </c>
+      <c r="K29" s="10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="16" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="30" ht="24.9" customFormat="1" customHeight="1" s="4">

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -9,7 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet'!$A$6:$L$105</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet'!$A$6:$M$105</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -31,6 +31,7 @@
     <font>
       <name val="Arial"/>
       <charset val="162"/>
+      <family val="2"/>
       <sz val="10"/>
     </font>
     <font>
@@ -145,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -459,6 +460,122 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -509,116 +626,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -675,10 +689,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -686,12 +696,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -741,7 +745,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -768,9 +800,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -786,56 +815,37 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="3" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="165" fontId="4" fillId="2" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="3" fontId="10" fillId="3" borderId="31" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="10" fillId="3" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -1223,240 +1233,187 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
-    <col width="6.5546875" customWidth="1" style="20" min="1" max="1"/>
-    <col width="11.88671875" customWidth="1" style="20" min="2" max="2"/>
-    <col width="21.44140625" customWidth="1" style="20" min="3" max="3"/>
-    <col width="33.33203125" customWidth="1" style="20" min="4" max="4"/>
-    <col width="23" customWidth="1" style="20" min="5" max="5"/>
-    <col width="5.5546875" customWidth="1" style="20" min="6" max="6"/>
-    <col width="10" customWidth="1" style="20" min="7" max="7"/>
-    <col width="9.88671875" customWidth="1" style="20" min="8" max="8"/>
-    <col width="8.88671875" customWidth="1" style="20" min="9" max="9"/>
-    <col width="10" customWidth="1" style="20" min="10" max="10"/>
-    <col width="9.109375" customWidth="1" style="20" min="11" max="11"/>
-    <col width="9.109375" customWidth="1" style="26" min="12" max="12"/>
-    <col width="9.109375" customWidth="1" style="20" min="13" max="16384"/>
+    <col width="6.5546875" customWidth="1" style="1" min="1" max="1"/>
+    <col width="11.88671875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="21.44140625" customWidth="1" style="1" min="3" max="3"/>
+    <col width="33.33203125" customWidth="1" style="1" min="4" max="4"/>
+    <col width="23" customWidth="1" style="1" min="5" max="5"/>
+    <col width="5.5546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="10" customWidth="1" style="1" min="7" max="7"/>
+    <col width="9.88671875" customWidth="1" style="1" min="8" max="9"/>
+    <col width="8.88671875" customWidth="1" style="1" min="10" max="10"/>
+    <col width="10" customWidth="1" style="1" min="11" max="11"/>
+    <col width="9.109375" customWidth="1" style="1" min="12" max="12"/>
+    <col width="9.109375" customWidth="1" style="2" min="13" max="13"/>
+    <col width="9.109375" customWidth="1" style="1" min="14" max="16384"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="35" t="inlineStr">
+      <c r="A1" s="31" t="inlineStr">
         <is>
           <t>CONSIGNEE:</t>
         </is>
       </c>
-      <c r="B1" s="35" t="n"/>
-      <c r="C1" s="20" t="n"/>
-      <c r="D1" s="20" t="n"/>
-      <c r="E1" s="20" t="n"/>
-      <c r="F1" s="20" t="n"/>
-      <c r="G1" s="20" t="n"/>
-      <c r="H1" s="20" t="n"/>
-      <c r="I1" s="20" t="n"/>
-      <c r="J1" s="20" t="n"/>
-      <c r="K1" s="20" t="n"/>
-      <c r="L1" s="26" t="n"/>
+      <c r="B1" s="31" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="35" t="n"/>
-      <c r="B2" s="35" t="n"/>
-      <c r="C2" s="20" t="n"/>
-      <c r="D2" s="20" t="n"/>
-      <c r="E2" s="20" t="n"/>
-      <c r="F2" s="20" t="n"/>
-      <c r="G2" s="20" t="n"/>
-      <c r="H2" s="20" t="n"/>
-      <c r="I2" s="20" t="n"/>
-      <c r="J2" s="20" t="n"/>
-      <c r="K2" s="20" t="n"/>
-      <c r="L2" s="26" t="n"/>
+      <c r="A2" s="31" t="n"/>
+      <c r="B2" s="31" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="36" t="inlineStr">
+      <c r="A3" s="32" t="inlineStr">
         <is>
           <t>PO NO:</t>
         </is>
       </c>
-      <c r="B3" s="35" t="n"/>
-      <c r="C3" s="20" t="n"/>
-      <c r="D3" s="20" t="n"/>
-      <c r="E3" s="20" t="n"/>
-      <c r="F3" s="20" t="n"/>
-      <c r="G3" s="20" t="n"/>
-      <c r="H3" s="20" t="n"/>
-      <c r="I3" s="20" t="n"/>
-      <c r="J3" s="20" t="n"/>
-      <c r="K3" s="20" t="n"/>
-      <c r="L3" s="26" t="n"/>
+      <c r="B3" s="31" t="n"/>
     </row>
     <row r="4">
-      <c r="A4" s="36" t="inlineStr">
+      <c r="A4" s="32" t="inlineStr">
         <is>
           <t>INVOICE NO:</t>
         </is>
       </c>
-      <c r="B4" s="35" t="n"/>
-      <c r="C4" s="20" t="n"/>
-      <c r="D4" s="20" t="n"/>
-      <c r="E4" s="20" t="n"/>
-      <c r="F4" s="20" t="n"/>
-      <c r="G4" s="20" t="n"/>
-      <c r="H4" s="20" t="n"/>
-      <c r="I4" s="20" t="n"/>
-      <c r="J4" s="20" t="n"/>
-      <c r="K4" s="20" t="n"/>
-      <c r="L4" s="26" t="n"/>
+      <c r="B4" s="31" t="n"/>
     </row>
     <row r="5">
-      <c r="A5" s="37" t="inlineStr">
+      <c r="A5" s="33" t="inlineStr">
         <is>
           <t>CONT NO:</t>
         </is>
       </c>
-      <c r="B5" s="35" t="n"/>
-      <c r="C5" s="20" t="n"/>
-      <c r="D5" s="20" t="n"/>
-      <c r="E5" s="20" t="n"/>
-      <c r="F5" s="20" t="n"/>
-      <c r="G5" s="20" t="n"/>
-      <c r="H5" s="20" t="n"/>
-      <c r="I5" s="20" t="n"/>
-      <c r="J5" s="20" t="n"/>
-      <c r="K5" s="20" t="n"/>
-      <c r="L5" s="26" t="n"/>
+      <c r="B5" s="31" t="n"/>
     </row>
     <row r="6" ht="17.4" customHeight="1">
-      <c r="A6" s="48" t="inlineStr">
+      <c r="A6" s="46" t="inlineStr">
         <is>
           <t>ÇEKİ LİSTESİ</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="20" t="n"/>
-      <c r="B7" s="20" t="n"/>
-      <c r="C7" s="20" t="n"/>
-      <c r="D7" s="20" t="n"/>
-      <c r="E7" s="20" t="n"/>
-      <c r="F7" s="20" t="n"/>
-      <c r="G7" s="20" t="n"/>
-      <c r="H7" s="20" t="n"/>
-      <c r="I7" s="20" t="n"/>
-      <c r="J7" s="20" t="n"/>
-      <c r="K7" s="72" t="n"/>
+      <c r="L7" s="70" t="n"/>
     </row>
     <row r="8" ht="17.4" customHeight="1">
-      <c r="A8" s="34" t="n"/>
-      <c r="B8" s="34" t="n"/>
-      <c r="C8" s="34" t="n"/>
-      <c r="D8" s="34" t="n"/>
-      <c r="E8" s="34" t="n"/>
-      <c r="F8" s="34" t="n"/>
-      <c r="G8" s="34" t="n"/>
-      <c r="H8" s="34" t="n"/>
-      <c r="I8" s="34" t="n"/>
-      <c r="J8" s="34" t="n"/>
-      <c r="K8" s="34" t="n"/>
-      <c r="L8" s="34" t="n"/>
+      <c r="A8" s="30" t="n"/>
+      <c r="B8" s="30" t="n"/>
+      <c r="C8" s="30" t="n"/>
+      <c r="D8" s="30" t="n"/>
+      <c r="E8" s="30" t="n"/>
+      <c r="F8" s="30" t="n"/>
+      <c r="G8" s="30" t="n"/>
+      <c r="H8" s="30" t="n"/>
+      <c r="I8" s="30" t="n"/>
+      <c r="J8" s="30" t="n"/>
+      <c r="K8" s="30" t="n"/>
+      <c r="L8" s="30" t="n"/>
+      <c r="M8" s="30" t="n"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="56" t="inlineStr">
+      <c r="A9" s="62" t="inlineStr">
         <is>
           <t>CRATE</t>
         </is>
       </c>
-      <c r="B9" s="55" t="inlineStr">
+      <c r="B9" s="61" t="inlineStr">
         <is>
           <t>CASE ID</t>
         </is>
       </c>
-      <c r="C9" s="55" t="inlineStr">
+      <c r="C9" s="61" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
       </c>
-      <c r="D9" s="55" t="inlineStr">
+      <c r="D9" s="61" t="inlineStr">
         <is>
           <t>TYPE</t>
         </is>
       </c>
-      <c r="E9" s="55" t="inlineStr">
+      <c r="E9" s="61" t="inlineStr">
         <is>
           <t>COLOR</t>
         </is>
       </c>
-      <c r="F9" s="56" t="inlineStr">
+      <c r="F9" s="62" t="inlineStr">
         <is>
           <t>SIZES (cm)</t>
         </is>
       </c>
-      <c r="G9" s="73" t="n"/>
-      <c r="H9" s="74" t="n"/>
-      <c r="I9" s="55" t="inlineStr">
+      <c r="G9" s="71" t="n"/>
+      <c r="H9" s="72" t="n"/>
+      <c r="I9" s="61" t="inlineStr">
+        <is>
+          <t>BOX</t>
+        </is>
+      </c>
+      <c r="J9" s="61" t="inlineStr">
         <is>
           <t>PCS</t>
         </is>
       </c>
-      <c r="J9" s="56" t="inlineStr">
+      <c r="K9" s="62" t="inlineStr">
         <is>
           <t>QUANTITY</t>
         </is>
       </c>
-      <c r="K9" s="56" t="inlineStr">
+      <c r="L9" s="62" t="inlineStr">
         <is>
           <t>NET</t>
         </is>
       </c>
-      <c r="L9" s="56" t="inlineStr">
+      <c r="M9" s="62" t="inlineStr">
         <is>
           <t>GROSS</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="56" t="inlineStr">
+      <c r="A10" s="62" t="inlineStr">
         <is>
           <t>NR</t>
         </is>
       </c>
-      <c r="B10" s="75" t="n"/>
-      <c r="C10" s="75" t="n"/>
-      <c r="D10" s="75" t="n"/>
-      <c r="E10" s="75" t="n"/>
-      <c r="F10" s="56" t="inlineStr">
+      <c r="B10" s="73" t="n"/>
+      <c r="C10" s="73" t="n"/>
+      <c r="D10" s="73" t="n"/>
+      <c r="E10" s="73" t="n"/>
+      <c r="F10" s="62" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="G10" s="56" t="inlineStr">
+      <c r="G10" s="62" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="H10" s="56" t="inlineStr">
+      <c r="H10" s="62" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="I10" s="75" t="n"/>
-      <c r="J10" s="56" t="inlineStr">
+      <c r="I10" s="73" t="n"/>
+      <c r="J10" s="73" t="n"/>
+      <c r="K10" s="62" t="inlineStr">
         <is>
           <t>SQM</t>
         </is>
       </c>
-      <c r="K10" s="56" t="inlineStr">
+      <c r="L10" s="62" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
       </c>
-      <c r="L10" s="56" t="inlineStr">
+      <c r="M10" s="62" t="inlineStr">
         <is>
           <t>KG</t>
         </is>
@@ -1467,7 +1424,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>527258</v>
+        <v>57526</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
@@ -1476,40 +1433,43 @@
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I11" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J11" s="9" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="K11" s="10" t="n">
-        <v>1177.2</v>
-      </c>
-      <c r="L11" s="16" t="n">
-        <v>1207.2</v>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I11" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J11" s="10" t="n">
+        <v>156</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="L11" s="10" t="n">
+        <v>556.704</v>
+      </c>
+      <c r="M11" s="16" t="n">
+        <v>586.704</v>
       </c>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1517,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>527259</v>
+        <v>59176</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
@@ -1526,40 +1486,43 @@
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I12" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J12" s="9" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="K12" s="10" t="n">
-        <v>1177.2</v>
-      </c>
-      <c r="L12" s="16" t="n">
-        <v>1207.2</v>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I12" s="11" t="n">
+        <v>52</v>
+      </c>
+      <c r="J12" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="L12" s="10" t="n">
+        <v>1113.408</v>
+      </c>
+      <c r="M12" s="16" t="n">
+        <v>1143.408</v>
       </c>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1567,7 +1530,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="18" t="n">
-        <v>527260</v>
+        <v>59229</v>
       </c>
       <c r="C13" s="10" t="inlineStr">
         <is>
@@ -1576,40 +1539,43 @@
       </c>
       <c r="D13" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E13" s="10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Mina Rustic</t>
         </is>
       </c>
       <c r="F13" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G13" s="11" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H13" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I13" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J13" s="9" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="K13" s="10" t="n">
-        <v>1177.2</v>
-      </c>
-      <c r="L13" s="16" t="n">
-        <v>1207.2</v>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I13" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J13" s="10" t="n">
+        <v>156</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="L13" s="10" t="n">
+        <v>556.704</v>
+      </c>
+      <c r="M13" s="16" t="n">
+        <v>586.704</v>
       </c>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1617,49 +1583,52 @@
         <v>4</v>
       </c>
       <c r="B14" s="18" t="n">
-        <v>527261</v>
+        <v>59256</v>
       </c>
       <c r="C14" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="D14" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="E14" s="10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut 3D</t>
         </is>
       </c>
       <c r="F14" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G14" s="11" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="H14" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I14" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J14" s="9" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="K14" s="10" t="n">
-        <v>1177.2</v>
-      </c>
-      <c r="L14" s="16" t="n">
-        <v>1207.2</v>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I14" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="J14" s="10" t="n">
+        <v>174</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="L14" s="10" t="n">
+        <v>751.6799999999999</v>
+      </c>
+      <c r="M14" s="16" t="n">
+        <v>781.6799999999999</v>
       </c>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1667,49 +1636,52 @@
         <v>5</v>
       </c>
       <c r="B15" s="18" t="n">
-        <v>527262</v>
+        <v>59257</v>
       </c>
       <c r="C15" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="D15" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="E15" s="10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut 3D</t>
         </is>
       </c>
       <c r="F15" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G15" s="11" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="H15" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I15" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J15" s="9" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="K15" s="10" t="n">
-        <v>1177.2</v>
-      </c>
-      <c r="L15" s="16" t="n">
-        <v>1207.2</v>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I15" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="J15" s="10" t="n">
+        <v>174</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="L15" s="10" t="n">
+        <v>751.6799999999999</v>
+      </c>
+      <c r="M15" s="16" t="n">
+        <v>781.6799999999999</v>
       </c>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1717,49 +1689,52 @@
         <v>6</v>
       </c>
       <c r="B16" s="18" t="n">
-        <v>527263</v>
+        <v>59258</v>
       </c>
       <c r="C16" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="D16" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="E16" s="10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut 3D</t>
         </is>
       </c>
       <c r="F16" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G16" s="11" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="H16" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I16" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J16" s="9" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="K16" s="10" t="n">
-        <v>1177.2</v>
-      </c>
-      <c r="L16" s="16" t="n">
-        <v>1207.2</v>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I16" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="J16" s="10" t="n">
+        <v>174</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="L16" s="10" t="n">
+        <v>751.6799999999999</v>
+      </c>
+      <c r="M16" s="16" t="n">
+        <v>781.6799999999999</v>
       </c>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1767,49 +1742,52 @@
         <v>7</v>
       </c>
       <c r="B17" s="18" t="n">
-        <v>527264</v>
+        <v>59268</v>
       </c>
       <c r="C17" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="D17" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="E17" s="10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut 3D</t>
         </is>
       </c>
       <c r="F17" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G17" s="11" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="H17" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I17" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J17" s="9" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="K17" s="10" t="n">
-        <v>1177.2</v>
-      </c>
-      <c r="L17" s="16" t="n">
-        <v>1207.2</v>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I17" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="J17" s="10" t="n">
+        <v>174</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="L17" s="10" t="n">
+        <v>751.6799999999999</v>
+      </c>
+      <c r="M17" s="16" t="n">
+        <v>781.6799999999999</v>
       </c>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1817,599 +1795,272 @@
         <v>8</v>
       </c>
       <c r="B18" s="18" t="n">
-        <v>527265</v>
+        <v>59272</v>
       </c>
       <c r="C18" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Travertine Mosaic</t>
         </is>
       </c>
       <c r="D18" s="14" t="inlineStr">
         <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
+          <t>Unfilled&amp;Brushed</t>
         </is>
       </c>
       <c r="E18" s="10" t="inlineStr">
         <is>
-          <t>Silver Grey</t>
+          <t>Classic Vein Cut 3D</t>
         </is>
       </c>
       <c r="F18" s="13" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>1,5</t>
         </is>
       </c>
       <c r="G18" s="11" t="inlineStr">
         <is>
-          <t>40,6</t>
+          <t>20,0</t>
         </is>
       </c>
       <c r="H18" s="11" t="inlineStr">
         <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I18" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J18" s="9" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="K18" s="10" t="n">
-        <v>1177.2</v>
-      </c>
-      <c r="L18" s="16" t="n">
-        <v>1207.2</v>
+          <t>60,0</t>
+        </is>
+      </c>
+      <c r="I18" s="11" t="n">
+        <v>29</v>
+      </c>
+      <c r="J18" s="10" t="n">
+        <v>174</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>20.88</v>
+      </c>
+      <c r="L18" s="10" t="n">
+        <v>751.6799999999999</v>
+      </c>
+      <c r="M18" s="16" t="n">
+        <v>781.6799999999999</v>
       </c>
     </row>
     <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A19" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="18" t="n">
-        <v>527266</v>
-      </c>
-      <c r="C19" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D19" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Tumbled</t>
-        </is>
-      </c>
-      <c r="E19" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F19" s="13" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G19" s="11" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="H19" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I19" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J19" s="9" t="n">
-        <v>16.31</v>
-      </c>
-      <c r="K19" s="10" t="n">
-        <v>1174.32</v>
-      </c>
-      <c r="L19" s="16" t="n">
-        <v>1204.32</v>
+      <c r="B19" s="18" t="n"/>
+      <c r="C19" s="10" t="n"/>
+      <c r="D19" s="14" t="n"/>
+      <c r="E19" s="10" t="n"/>
+      <c r="F19" s="13" t="n"/>
+      <c r="G19" s="11" t="n"/>
+      <c r="H19" s="11" t="n"/>
+      <c r="I19" s="11" t="n"/>
+      <c r="J19" s="10" t="n"/>
+      <c r="K19" s="9" t="n"/>
+      <c r="L19" s="10" t="n"/>
+      <c r="M19" s="16">
+        <f>L19+30</f>
+        <v/>
       </c>
     </row>
     <row r="20" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A20" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="18" t="n">
-        <v>527276</v>
-      </c>
-      <c r="C20" s="10" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="D20" s="14" t="inlineStr">
-        <is>
-          <t>VH72</t>
-        </is>
-      </c>
-      <c r="E20" s="10" t="inlineStr">
-        <is>
-          <t>Elkay Maxiseal</t>
-        </is>
-      </c>
-      <c r="F20" s="13" t="inlineStr">
-        <is>
-          <t>1 LT</t>
-        </is>
-      </c>
-      <c r="G20" s="11" t="inlineStr">
-        <is>
-          <t>1 LT</t>
-        </is>
-      </c>
-      <c r="H20" s="11" t="inlineStr">
-        <is>
-          <t>1 LT</t>
-        </is>
-      </c>
-      <c r="I20" s="10" t="n">
-        <v>12</v>
-      </c>
-      <c r="J20" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="16" t="n">
-        <v>30</v>
+      <c r="B20" s="18" t="n"/>
+      <c r="C20" s="10" t="n"/>
+      <c r="D20" s="14" t="n"/>
+      <c r="E20" s="10" t="n"/>
+      <c r="F20" s="13" t="n"/>
+      <c r="G20" s="11" t="n"/>
+      <c r="H20" s="11" t="n"/>
+      <c r="I20" s="11" t="n"/>
+      <c r="J20" s="10" t="n"/>
+      <c r="K20" s="9" t="n"/>
+      <c r="L20" s="10" t="n"/>
+      <c r="M20" s="16">
+        <f>L20+30</f>
+        <v/>
       </c>
     </row>
     <row r="21" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A21" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="18" t="n">
-        <v>527251</v>
-      </c>
-      <c r="C21" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Coping</t>
-        </is>
-      </c>
-      <c r="D21" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Tumbled&amp;Bullnosed</t>
-        </is>
-      </c>
-      <c r="E21" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F21" s="13" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G21" s="11" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="H21" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I21" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J21" s="9" t="n">
-        <v>40.26</v>
-      </c>
-      <c r="K21" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" s="16" t="n">
-        <v>30</v>
+      <c r="B21" s="18" t="n"/>
+      <c r="C21" s="10" t="n"/>
+      <c r="D21" s="14" t="n"/>
+      <c r="E21" s="10" t="n"/>
+      <c r="F21" s="13" t="n"/>
+      <c r="G21" s="11" t="n"/>
+      <c r="H21" s="11" t="n"/>
+      <c r="I21" s="11" t="n"/>
+      <c r="J21" s="10" t="n"/>
+      <c r="K21" s="9" t="n"/>
+      <c r="L21" s="10" t="n"/>
+      <c r="M21" s="16">
+        <f>L21+30</f>
+        <v/>
       </c>
     </row>
     <row r="22" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A22" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="18" t="n">
-        <v>527252</v>
-      </c>
-      <c r="C22" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Coping</t>
-        </is>
-      </c>
-      <c r="D22" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Tumbled&amp;Bullnosed</t>
-        </is>
-      </c>
-      <c r="E22" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F22" s="13" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G22" s="11" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="H22" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I22" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J22" s="9" t="n">
-        <v>40.26</v>
-      </c>
-      <c r="K22" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" s="16" t="n">
-        <v>30</v>
+      <c r="B22" s="18" t="n"/>
+      <c r="C22" s="10" t="n"/>
+      <c r="D22" s="14" t="n"/>
+      <c r="E22" s="10" t="n"/>
+      <c r="F22" s="13" t="n"/>
+      <c r="G22" s="11" t="n"/>
+      <c r="H22" s="11" t="n"/>
+      <c r="I22" s="11" t="n"/>
+      <c r="J22" s="10" t="n"/>
+      <c r="K22" s="9" t="n"/>
+      <c r="L22" s="10" t="n"/>
+      <c r="M22" s="16">
+        <f>L22+30</f>
+        <v/>
       </c>
     </row>
     <row r="23" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A23" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="18" t="n">
-        <v>527253</v>
-      </c>
-      <c r="C23" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Coping</t>
-        </is>
-      </c>
-      <c r="D23" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Tumbled&amp;Bullnosed</t>
-        </is>
-      </c>
-      <c r="E23" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F23" s="13" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G23" s="11" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="H23" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I23" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J23" s="9" t="n">
-        <v>40.26</v>
-      </c>
-      <c r="K23" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" s="16" t="n">
-        <v>30</v>
+      <c r="B23" s="18" t="n"/>
+      <c r="C23" s="10" t="n"/>
+      <c r="D23" s="14" t="n"/>
+      <c r="E23" s="10" t="n"/>
+      <c r="F23" s="13" t="n"/>
+      <c r="G23" s="11" t="n"/>
+      <c r="H23" s="11" t="n"/>
+      <c r="I23" s="11" t="n"/>
+      <c r="J23" s="10" t="n"/>
+      <c r="K23" s="9" t="n"/>
+      <c r="L23" s="10" t="n"/>
+      <c r="M23" s="16">
+        <f>L23+30</f>
+        <v/>
       </c>
     </row>
     <row r="24" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A24" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="18" t="n">
-        <v>527254</v>
-      </c>
-      <c r="C24" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Coping</t>
-        </is>
-      </c>
-      <c r="D24" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Tumbled&amp;Bullnosed</t>
-        </is>
-      </c>
-      <c r="E24" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F24" s="13" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G24" s="11" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="H24" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I24" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J24" s="9" t="n">
-        <v>40.26</v>
-      </c>
-      <c r="K24" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" s="16" t="n">
-        <v>30</v>
+      <c r="B24" s="18" t="n"/>
+      <c r="C24" s="10" t="n"/>
+      <c r="D24" s="14" t="n"/>
+      <c r="E24" s="10" t="n"/>
+      <c r="F24" s="13" t="n"/>
+      <c r="G24" s="11" t="n"/>
+      <c r="H24" s="11" t="n"/>
+      <c r="I24" s="11" t="n"/>
+      <c r="J24" s="10" t="n"/>
+      <c r="K24" s="9" t="n"/>
+      <c r="L24" s="10" t="n"/>
+      <c r="M24" s="16">
+        <f>L24+30</f>
+        <v/>
       </c>
     </row>
     <row r="25" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A25" s="17" t="n">
         <v>15</v>
       </c>
-      <c r="B25" s="18" t="n">
-        <v>527255</v>
-      </c>
-      <c r="C25" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Coping</t>
-        </is>
-      </c>
-      <c r="D25" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Tumbled&amp;Bullnosed</t>
-        </is>
-      </c>
-      <c r="E25" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F25" s="13" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G25" s="11" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="H25" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I25" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J25" s="9" t="n">
-        <v>40.26</v>
-      </c>
-      <c r="K25" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" s="16" t="n">
-        <v>30</v>
+      <c r="B25" s="18" t="n"/>
+      <c r="C25" s="10" t="n"/>
+      <c r="D25" s="14" t="n"/>
+      <c r="E25" s="10" t="n"/>
+      <c r="F25" s="13" t="n"/>
+      <c r="G25" s="11" t="n"/>
+      <c r="H25" s="11" t="n"/>
+      <c r="I25" s="11" t="n"/>
+      <c r="J25" s="10" t="n"/>
+      <c r="K25" s="9" t="n"/>
+      <c r="L25" s="10" t="n"/>
+      <c r="M25" s="16">
+        <f>L25+30</f>
+        <v/>
       </c>
     </row>
     <row r="26" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A26" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="B26" s="18" t="n">
-        <v>527256</v>
-      </c>
-      <c r="C26" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Coping</t>
-        </is>
-      </c>
-      <c r="D26" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Tumbled&amp;Bullnosed</t>
-        </is>
-      </c>
-      <c r="E26" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F26" s="13" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G26" s="11" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="H26" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I26" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J26" s="9" t="n">
-        <v>40.26</v>
-      </c>
-      <c r="K26" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" s="16" t="n">
-        <v>30</v>
+      <c r="B26" s="18" t="n"/>
+      <c r="C26" s="10" t="n"/>
+      <c r="D26" s="14" t="n"/>
+      <c r="E26" s="10" t="n"/>
+      <c r="F26" s="13" t="n"/>
+      <c r="G26" s="11" t="n"/>
+      <c r="H26" s="11" t="n"/>
+      <c r="I26" s="11" t="n"/>
+      <c r="J26" s="10" t="n"/>
+      <c r="K26" s="9" t="n"/>
+      <c r="L26" s="10" t="n"/>
+      <c r="M26" s="16">
+        <f>L26+30</f>
+        <v/>
       </c>
     </row>
     <row r="27" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A27" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="B27" s="18" t="n">
-        <v>527257</v>
-      </c>
-      <c r="C27" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Coping</t>
-        </is>
-      </c>
-      <c r="D27" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Tumbled&amp;Bullnosed</t>
-        </is>
-      </c>
-      <c r="E27" s="10" t="inlineStr">
-        <is>
-          <t>Silver Grey</t>
-        </is>
-      </c>
-      <c r="F27" s="13" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G27" s="11" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="H27" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I27" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J27" s="9" t="n">
-        <v>40.26</v>
-      </c>
-      <c r="K27" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" s="16" t="n">
-        <v>30</v>
+      <c r="B27" s="18" t="n"/>
+      <c r="C27" s="10" t="n"/>
+      <c r="D27" s="14" t="n"/>
+      <c r="E27" s="10" t="n"/>
+      <c r="F27" s="13" t="n"/>
+      <c r="G27" s="11" t="n"/>
+      <c r="H27" s="11" t="n"/>
+      <c r="I27" s="11" t="n"/>
+      <c r="J27" s="10" t="n"/>
+      <c r="K27" s="9" t="n"/>
+      <c r="L27" s="10" t="n"/>
+      <c r="M27" s="16">
+        <f>L27+30</f>
+        <v/>
       </c>
     </row>
     <row r="28" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A28" s="17" t="n">
         <v>18</v>
       </c>
-      <c r="B28" s="18" t="n">
-        <v>59251</v>
-      </c>
-      <c r="C28" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Copings</t>
-        </is>
-      </c>
-      <c r="D28" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Honed&amp;Bevelled</t>
-        </is>
-      </c>
-      <c r="E28" s="10" t="inlineStr">
-        <is>
-          <t>Classic Mina</t>
-        </is>
-      </c>
-      <c r="F28" s="13" t="inlineStr">
-        <is>
-          <t>3,0</t>
-        </is>
-      </c>
-      <c r="G28" s="11" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="H28" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I28" s="10" t="n">
-        <v>66</v>
-      </c>
-      <c r="J28" s="9" t="n">
-        <v>40.26</v>
-      </c>
-      <c r="K28" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" s="16" t="n">
-        <v>30</v>
+      <c r="B28" s="18" t="n"/>
+      <c r="C28" s="10" t="n"/>
+      <c r="D28" s="14" t="n"/>
+      <c r="E28" s="10" t="n"/>
+      <c r="F28" s="13" t="n"/>
+      <c r="G28" s="11" t="n"/>
+      <c r="H28" s="11" t="n"/>
+      <c r="I28" s="11" t="n"/>
+      <c r="J28" s="10" t="n"/>
+      <c r="K28" s="9" t="n"/>
+      <c r="L28" s="10" t="n"/>
+      <c r="M28" s="16">
+        <f>L28+30</f>
+        <v/>
       </c>
     </row>
     <row r="29" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A29" s="17" t="n">
         <v>19</v>
       </c>
-      <c r="B29" s="18" t="n">
-        <v>527250</v>
-      </c>
-      <c r="C29" s="10" t="inlineStr">
-        <is>
-          <t>Marble Coping</t>
-        </is>
-      </c>
-      <c r="D29" s="14" t="inlineStr">
-        <is>
-          <t>Sandblasted&amp;Bullnose</t>
-        </is>
-      </c>
-      <c r="E29" s="10" t="inlineStr">
-        <is>
-          <t>Alaska Grey</t>
-        </is>
-      </c>
-      <c r="F29" s="13" t="inlineStr">
-        <is>
-          <t>2,0</t>
-        </is>
-      </c>
-      <c r="G29" s="11" t="inlineStr">
-        <is>
-          <t>40,6</t>
-        </is>
-      </c>
-      <c r="H29" s="11" t="inlineStr">
-        <is>
-          <t>61,0</t>
-        </is>
-      </c>
-      <c r="I29" s="10" t="n">
-        <v>100</v>
-      </c>
-      <c r="J29" s="9" t="n">
-        <v>61</v>
-      </c>
-      <c r="K29" s="10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" s="16" t="n">
-        <v>30</v>
+      <c r="B29" s="18" t="n"/>
+      <c r="C29" s="10" t="n"/>
+      <c r="D29" s="14" t="n"/>
+      <c r="E29" s="10" t="n"/>
+      <c r="F29" s="13" t="n"/>
+      <c r="G29" s="11" t="n"/>
+      <c r="H29" s="11" t="n"/>
+      <c r="I29" s="11" t="n"/>
+      <c r="J29" s="10" t="n"/>
+      <c r="K29" s="9" t="n"/>
+      <c r="L29" s="10" t="n"/>
+      <c r="M29" s="16">
+        <f>L29+30</f>
+        <v/>
       </c>
     </row>
     <row r="30" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -2423,11 +2074,12 @@
       <c r="F30" s="13" t="n"/>
       <c r="G30" s="11" t="n"/>
       <c r="H30" s="11" t="n"/>
-      <c r="I30" s="10" t="n"/>
-      <c r="J30" s="9" t="n"/>
-      <c r="K30" s="10" t="n"/>
-      <c r="L30" s="16">
-        <f>K30+30</f>
+      <c r="I30" s="11" t="n"/>
+      <c r="J30" s="10" t="n"/>
+      <c r="K30" s="9" t="n"/>
+      <c r="L30" s="10" t="n"/>
+      <c r="M30" s="16">
+        <f>L30+30</f>
         <v/>
       </c>
     </row>
@@ -2442,11 +2094,12 @@
       <c r="F31" s="13" t="n"/>
       <c r="G31" s="11" t="n"/>
       <c r="H31" s="11" t="n"/>
-      <c r="I31" s="10" t="n"/>
-      <c r="J31" s="9" t="n"/>
-      <c r="K31" s="10" t="n"/>
-      <c r="L31" s="16">
-        <f>K31+30</f>
+      <c r="I31" s="11" t="n"/>
+      <c r="J31" s="10" t="n"/>
+      <c r="K31" s="9" t="n"/>
+      <c r="L31" s="10" t="n"/>
+      <c r="M31" s="16">
+        <f>L31+30</f>
         <v/>
       </c>
     </row>
@@ -2461,11 +2114,12 @@
       <c r="F32" s="13" t="n"/>
       <c r="G32" s="11" t="n"/>
       <c r="H32" s="11" t="n"/>
-      <c r="I32" s="10" t="n"/>
-      <c r="J32" s="9" t="n"/>
-      <c r="K32" s="10" t="n"/>
-      <c r="L32" s="16">
-        <f>K32+30</f>
+      <c r="I32" s="11" t="n"/>
+      <c r="J32" s="10" t="n"/>
+      <c r="K32" s="9" t="n"/>
+      <c r="L32" s="10" t="n"/>
+      <c r="M32" s="16">
+        <f>L32+30</f>
         <v/>
       </c>
     </row>
@@ -2480,11 +2134,12 @@
       <c r="F33" s="13" t="n"/>
       <c r="G33" s="11" t="n"/>
       <c r="H33" s="11" t="n"/>
-      <c r="I33" s="10" t="n"/>
-      <c r="J33" s="9" t="n"/>
-      <c r="K33" s="10" t="n"/>
-      <c r="L33" s="16">
-        <f>K33+30</f>
+      <c r="I33" s="11" t="n"/>
+      <c r="J33" s="10" t="n"/>
+      <c r="K33" s="9" t="n"/>
+      <c r="L33" s="10" t="n"/>
+      <c r="M33" s="16">
+        <f>L33+30</f>
         <v/>
       </c>
     </row>
@@ -2499,11 +2154,12 @@
       <c r="F34" s="13" t="n"/>
       <c r="G34" s="11" t="n"/>
       <c r="H34" s="11" t="n"/>
-      <c r="I34" s="10" t="n"/>
-      <c r="J34" s="9" t="n"/>
-      <c r="K34" s="10" t="n"/>
-      <c r="L34" s="16">
-        <f>K34+30</f>
+      <c r="I34" s="11" t="n"/>
+      <c r="J34" s="10" t="n"/>
+      <c r="K34" s="9" t="n"/>
+      <c r="L34" s="10" t="n"/>
+      <c r="M34" s="16">
+        <f>L34+30</f>
         <v/>
       </c>
     </row>
@@ -2518,11 +2174,12 @@
       <c r="F35" s="13" t="n"/>
       <c r="G35" s="11" t="n"/>
       <c r="H35" s="11" t="n"/>
-      <c r="I35" s="10" t="n"/>
-      <c r="J35" s="9" t="n"/>
-      <c r="K35" s="10" t="n"/>
-      <c r="L35" s="16">
-        <f>K35+30</f>
+      <c r="I35" s="11" t="n"/>
+      <c r="J35" s="10" t="n"/>
+      <c r="K35" s="9" t="n"/>
+      <c r="L35" s="10" t="n"/>
+      <c r="M35" s="16">
+        <f>L35+30</f>
         <v/>
       </c>
     </row>
@@ -2537,11 +2194,12 @@
       <c r="F36" s="13" t="n"/>
       <c r="G36" s="11" t="n"/>
       <c r="H36" s="11" t="n"/>
-      <c r="I36" s="10" t="n"/>
-      <c r="J36" s="9" t="n"/>
-      <c r="K36" s="10" t="n"/>
-      <c r="L36" s="16">
-        <f>K36+30</f>
+      <c r="I36" s="11" t="n"/>
+      <c r="J36" s="10" t="n"/>
+      <c r="K36" s="9" t="n"/>
+      <c r="L36" s="10" t="n"/>
+      <c r="M36" s="16">
+        <f>L36+30</f>
         <v/>
       </c>
     </row>
@@ -2556,11 +2214,12 @@
       <c r="F37" s="13" t="n"/>
       <c r="G37" s="11" t="n"/>
       <c r="H37" s="11" t="n"/>
-      <c r="I37" s="10" t="n"/>
-      <c r="J37" s="9" t="n"/>
-      <c r="K37" s="10" t="n"/>
-      <c r="L37" s="16">
-        <f>K37+30</f>
+      <c r="I37" s="11" t="n"/>
+      <c r="J37" s="10" t="n"/>
+      <c r="K37" s="9" t="n"/>
+      <c r="L37" s="10" t="n"/>
+      <c r="M37" s="16">
+        <f>L37+30</f>
         <v/>
       </c>
     </row>
@@ -2575,11 +2234,12 @@
       <c r="F38" s="13" t="n"/>
       <c r="G38" s="11" t="n"/>
       <c r="H38" s="11" t="n"/>
-      <c r="I38" s="10" t="n"/>
-      <c r="J38" s="9" t="n"/>
-      <c r="K38" s="10" t="n"/>
-      <c r="L38" s="16">
-        <f>K38+30</f>
+      <c r="I38" s="11" t="n"/>
+      <c r="J38" s="10" t="n"/>
+      <c r="K38" s="9" t="n"/>
+      <c r="L38" s="10" t="n"/>
+      <c r="M38" s="16">
+        <f>L38+30</f>
         <v/>
       </c>
     </row>
@@ -2594,11 +2254,12 @@
       <c r="F39" s="13" t="n"/>
       <c r="G39" s="11" t="n"/>
       <c r="H39" s="11" t="n"/>
-      <c r="I39" s="10" t="n"/>
-      <c r="J39" s="9" t="n"/>
-      <c r="K39" s="10" t="n"/>
-      <c r="L39" s="16">
-        <f>K39+30</f>
+      <c r="I39" s="11" t="n"/>
+      <c r="J39" s="10" t="n"/>
+      <c r="K39" s="9" t="n"/>
+      <c r="L39" s="10" t="n"/>
+      <c r="M39" s="16">
+        <f>L39+30</f>
         <v/>
       </c>
     </row>
@@ -2613,11 +2274,12 @@
       <c r="F40" s="13" t="n"/>
       <c r="G40" s="11" t="n"/>
       <c r="H40" s="11" t="n"/>
-      <c r="I40" s="10" t="n"/>
-      <c r="J40" s="9" t="n"/>
-      <c r="K40" s="10" t="n"/>
-      <c r="L40" s="16">
-        <f>K40+30</f>
+      <c r="I40" s="11" t="n"/>
+      <c r="J40" s="10" t="n"/>
+      <c r="K40" s="9" t="n"/>
+      <c r="L40" s="10" t="n"/>
+      <c r="M40" s="16">
+        <f>L40+30</f>
         <v/>
       </c>
     </row>
@@ -2632,11 +2294,12 @@
       <c r="F41" s="13" t="n"/>
       <c r="G41" s="11" t="n"/>
       <c r="H41" s="11" t="n"/>
-      <c r="I41" s="10" t="n"/>
-      <c r="J41" s="9" t="n"/>
-      <c r="K41" s="10" t="n"/>
-      <c r="L41" s="16">
-        <f>K41+30</f>
+      <c r="I41" s="11" t="n"/>
+      <c r="J41" s="10" t="n"/>
+      <c r="K41" s="9" t="n"/>
+      <c r="L41" s="10" t="n"/>
+      <c r="M41" s="16">
+        <f>L41+30</f>
         <v/>
       </c>
     </row>
@@ -2651,11 +2314,12 @@
       <c r="F42" s="13" t="n"/>
       <c r="G42" s="11" t="n"/>
       <c r="H42" s="11" t="n"/>
-      <c r="I42" s="10" t="n"/>
-      <c r="J42" s="9" t="n"/>
-      <c r="K42" s="10" t="n"/>
-      <c r="L42" s="16">
-        <f>K42+30</f>
+      <c r="I42" s="11" t="n"/>
+      <c r="J42" s="10" t="n"/>
+      <c r="K42" s="9" t="n"/>
+      <c r="L42" s="10" t="n"/>
+      <c r="M42" s="16">
+        <f>L42+30</f>
         <v/>
       </c>
     </row>
@@ -2670,11 +2334,12 @@
       <c r="F43" s="13" t="n"/>
       <c r="G43" s="11" t="n"/>
       <c r="H43" s="11" t="n"/>
-      <c r="I43" s="10" t="n"/>
-      <c r="J43" s="9" t="n"/>
-      <c r="K43" s="10" t="n"/>
-      <c r="L43" s="16">
-        <f>K43+30</f>
+      <c r="I43" s="11" t="n"/>
+      <c r="J43" s="10" t="n"/>
+      <c r="K43" s="9" t="n"/>
+      <c r="L43" s="10" t="n"/>
+      <c r="M43" s="16">
+        <f>L43+30</f>
         <v/>
       </c>
     </row>
@@ -2689,11 +2354,12 @@
       <c r="F44" s="13" t="n"/>
       <c r="G44" s="11" t="n"/>
       <c r="H44" s="11" t="n"/>
-      <c r="I44" s="10" t="n"/>
-      <c r="J44" s="9" t="n"/>
-      <c r="K44" s="10" t="n"/>
-      <c r="L44" s="16">
-        <f>K44+30</f>
+      <c r="I44" s="11" t="n"/>
+      <c r="J44" s="10" t="n"/>
+      <c r="K44" s="9" t="n"/>
+      <c r="L44" s="10" t="n"/>
+      <c r="M44" s="16">
+        <f>L44+30</f>
         <v/>
       </c>
     </row>
@@ -2708,11 +2374,12 @@
       <c r="F45" s="13" t="n"/>
       <c r="G45" s="11" t="n"/>
       <c r="H45" s="11" t="n"/>
-      <c r="I45" s="10" t="n"/>
-      <c r="J45" s="9" t="n"/>
-      <c r="K45" s="10" t="n"/>
-      <c r="L45" s="16">
-        <f>K45+30</f>
+      <c r="I45" s="11" t="n"/>
+      <c r="J45" s="10" t="n"/>
+      <c r="K45" s="9" t="n"/>
+      <c r="L45" s="10" t="n"/>
+      <c r="M45" s="16">
+        <f>L45+30</f>
         <v/>
       </c>
     </row>
@@ -2727,11 +2394,12 @@
       <c r="F46" s="13" t="n"/>
       <c r="G46" s="11" t="n"/>
       <c r="H46" s="11" t="n"/>
-      <c r="I46" s="10" t="n"/>
-      <c r="J46" s="9" t="n"/>
-      <c r="K46" s="10" t="n"/>
-      <c r="L46" s="16">
-        <f>K46+30</f>
+      <c r="I46" s="11" t="n"/>
+      <c r="J46" s="10" t="n"/>
+      <c r="K46" s="9" t="n"/>
+      <c r="L46" s="10" t="n"/>
+      <c r="M46" s="16">
+        <f>L46+30</f>
         <v/>
       </c>
     </row>
@@ -2746,11 +2414,12 @@
       <c r="F47" s="13" t="n"/>
       <c r="G47" s="11" t="n"/>
       <c r="H47" s="11" t="n"/>
-      <c r="I47" s="10" t="n"/>
-      <c r="J47" s="9" t="n"/>
-      <c r="K47" s="10" t="n"/>
-      <c r="L47" s="16">
-        <f>K47+30</f>
+      <c r="I47" s="11" t="n"/>
+      <c r="J47" s="10" t="n"/>
+      <c r="K47" s="9" t="n"/>
+      <c r="L47" s="10" t="n"/>
+      <c r="M47" s="16">
+        <f>L47+30</f>
         <v/>
       </c>
     </row>
@@ -2765,11 +2434,12 @@
       <c r="F48" s="13" t="n"/>
       <c r="G48" s="11" t="n"/>
       <c r="H48" s="11" t="n"/>
-      <c r="I48" s="10" t="n"/>
-      <c r="J48" s="9" t="n"/>
-      <c r="K48" s="10" t="n"/>
-      <c r="L48" s="16">
-        <f>K48+30</f>
+      <c r="I48" s="11" t="n"/>
+      <c r="J48" s="10" t="n"/>
+      <c r="K48" s="9" t="n"/>
+      <c r="L48" s="10" t="n"/>
+      <c r="M48" s="16">
+        <f>L48+30</f>
         <v/>
       </c>
     </row>
@@ -2784,11 +2454,12 @@
       <c r="F49" s="13" t="n"/>
       <c r="G49" s="11" t="n"/>
       <c r="H49" s="11" t="n"/>
-      <c r="I49" s="10" t="n"/>
-      <c r="J49" s="9" t="n"/>
-      <c r="K49" s="10" t="n"/>
-      <c r="L49" s="16">
-        <f>K49+30</f>
+      <c r="I49" s="11" t="n"/>
+      <c r="J49" s="10" t="n"/>
+      <c r="K49" s="9" t="n"/>
+      <c r="L49" s="10" t="n"/>
+      <c r="M49" s="16">
+        <f>L49+30</f>
         <v/>
       </c>
     </row>
@@ -2803,11 +2474,12 @@
       <c r="F50" s="13" t="n"/>
       <c r="G50" s="11" t="n"/>
       <c r="H50" s="11" t="n"/>
-      <c r="I50" s="10" t="n"/>
-      <c r="J50" s="9" t="n"/>
-      <c r="K50" s="10" t="n"/>
-      <c r="L50" s="16">
-        <f>K50+30</f>
+      <c r="I50" s="11" t="n"/>
+      <c r="J50" s="10" t="n"/>
+      <c r="K50" s="9" t="n"/>
+      <c r="L50" s="10" t="n"/>
+      <c r="M50" s="16">
+        <f>L50+30</f>
         <v/>
       </c>
     </row>
@@ -2822,11 +2494,12 @@
       <c r="F51" s="13" t="n"/>
       <c r="G51" s="11" t="n"/>
       <c r="H51" s="11" t="n"/>
-      <c r="I51" s="10" t="n"/>
-      <c r="J51" s="9" t="n"/>
-      <c r="K51" s="10" t="n"/>
-      <c r="L51" s="16">
-        <f>K51+30</f>
+      <c r="I51" s="11" t="n"/>
+      <c r="J51" s="10" t="n"/>
+      <c r="K51" s="9" t="n"/>
+      <c r="L51" s="10" t="n"/>
+      <c r="M51" s="16">
+        <f>L51+30</f>
         <v/>
       </c>
     </row>
@@ -2841,11 +2514,12 @@
       <c r="F52" s="13" t="n"/>
       <c r="G52" s="11" t="n"/>
       <c r="H52" s="11" t="n"/>
-      <c r="I52" s="10" t="n"/>
-      <c r="J52" s="9" t="n"/>
-      <c r="K52" s="10" t="n"/>
-      <c r="L52" s="16">
-        <f>K52+30</f>
+      <c r="I52" s="11" t="n"/>
+      <c r="J52" s="10" t="n"/>
+      <c r="K52" s="9" t="n"/>
+      <c r="L52" s="10" t="n"/>
+      <c r="M52" s="16">
+        <f>L52+30</f>
         <v/>
       </c>
     </row>
@@ -2860,11 +2534,12 @@
       <c r="F53" s="13" t="n"/>
       <c r="G53" s="11" t="n"/>
       <c r="H53" s="11" t="n"/>
-      <c r="I53" s="10" t="n"/>
-      <c r="J53" s="9" t="n"/>
-      <c r="K53" s="10" t="n"/>
-      <c r="L53" s="16">
-        <f>K53+30</f>
+      <c r="I53" s="11" t="n"/>
+      <c r="J53" s="10" t="n"/>
+      <c r="K53" s="9" t="n"/>
+      <c r="L53" s="10" t="n"/>
+      <c r="M53" s="16">
+        <f>L53+30</f>
         <v/>
       </c>
     </row>
@@ -2879,11 +2554,12 @@
       <c r="F54" s="13" t="n"/>
       <c r="G54" s="11" t="n"/>
       <c r="H54" s="11" t="n"/>
-      <c r="I54" s="10" t="n"/>
-      <c r="J54" s="9" t="n"/>
-      <c r="K54" s="10" t="n"/>
-      <c r="L54" s="16">
-        <f>K54+30</f>
+      <c r="I54" s="11" t="n"/>
+      <c r="J54" s="10" t="n"/>
+      <c r="K54" s="9" t="n"/>
+      <c r="L54" s="10" t="n"/>
+      <c r="M54" s="16">
+        <f>L54+30</f>
         <v/>
       </c>
     </row>
@@ -2898,11 +2574,12 @@
       <c r="F55" s="13" t="n"/>
       <c r="G55" s="11" t="n"/>
       <c r="H55" s="11" t="n"/>
-      <c r="I55" s="10" t="n"/>
-      <c r="J55" s="9" t="n"/>
-      <c r="K55" s="10" t="n"/>
-      <c r="L55" s="16">
-        <f>K55+30</f>
+      <c r="I55" s="11" t="n"/>
+      <c r="J55" s="10" t="n"/>
+      <c r="K55" s="9" t="n"/>
+      <c r="L55" s="10" t="n"/>
+      <c r="M55" s="16">
+        <f>L55+30</f>
         <v/>
       </c>
     </row>
@@ -2917,11 +2594,12 @@
       <c r="F56" s="13" t="n"/>
       <c r="G56" s="11" t="n"/>
       <c r="H56" s="11" t="n"/>
-      <c r="I56" s="10" t="n"/>
-      <c r="J56" s="9" t="n"/>
-      <c r="K56" s="10" t="n"/>
-      <c r="L56" s="16">
-        <f>K56+30</f>
+      <c r="I56" s="11" t="n"/>
+      <c r="J56" s="10" t="n"/>
+      <c r="K56" s="9" t="n"/>
+      <c r="L56" s="10" t="n"/>
+      <c r="M56" s="16">
+        <f>L56+30</f>
         <v/>
       </c>
     </row>
@@ -2936,11 +2614,12 @@
       <c r="F57" s="13" t="n"/>
       <c r="G57" s="11" t="n"/>
       <c r="H57" s="11" t="n"/>
-      <c r="I57" s="10" t="n"/>
-      <c r="J57" s="9" t="n"/>
-      <c r="K57" s="10" t="n"/>
-      <c r="L57" s="16">
-        <f>K57+30</f>
+      <c r="I57" s="11" t="n"/>
+      <c r="J57" s="10" t="n"/>
+      <c r="K57" s="9" t="n"/>
+      <c r="L57" s="10" t="n"/>
+      <c r="M57" s="16">
+        <f>L57+30</f>
         <v/>
       </c>
     </row>
@@ -2955,11 +2634,12 @@
       <c r="F58" s="13" t="n"/>
       <c r="G58" s="11" t="n"/>
       <c r="H58" s="11" t="n"/>
-      <c r="I58" s="10" t="n"/>
-      <c r="J58" s="9" t="n"/>
-      <c r="K58" s="10" t="n"/>
-      <c r="L58" s="16">
-        <f>K58+30</f>
+      <c r="I58" s="11" t="n"/>
+      <c r="J58" s="10" t="n"/>
+      <c r="K58" s="9" t="n"/>
+      <c r="L58" s="10" t="n"/>
+      <c r="M58" s="16">
+        <f>L58+30</f>
         <v/>
       </c>
     </row>
@@ -2974,11 +2654,12 @@
       <c r="F59" s="13" t="n"/>
       <c r="G59" s="11" t="n"/>
       <c r="H59" s="11" t="n"/>
-      <c r="I59" s="10" t="n"/>
-      <c r="J59" s="9" t="n"/>
-      <c r="K59" s="10" t="n"/>
-      <c r="L59" s="16">
-        <f>K59+30</f>
+      <c r="I59" s="11" t="n"/>
+      <c r="J59" s="10" t="n"/>
+      <c r="K59" s="9" t="n"/>
+      <c r="L59" s="10" t="n"/>
+      <c r="M59" s="16">
+        <f>L59+30</f>
         <v/>
       </c>
     </row>
@@ -2993,11 +2674,12 @@
       <c r="F60" s="13" t="n"/>
       <c r="G60" s="11" t="n"/>
       <c r="H60" s="11" t="n"/>
-      <c r="I60" s="10" t="n"/>
-      <c r="J60" s="9" t="n"/>
-      <c r="K60" s="10" t="n"/>
-      <c r="L60" s="16">
-        <f>K60+30</f>
+      <c r="I60" s="11" t="n"/>
+      <c r="J60" s="10" t="n"/>
+      <c r="K60" s="9" t="n"/>
+      <c r="L60" s="10" t="n"/>
+      <c r="M60" s="16">
+        <f>L60+30</f>
         <v/>
       </c>
     </row>
@@ -3012,11 +2694,12 @@
       <c r="F61" s="13" t="n"/>
       <c r="G61" s="11" t="n"/>
       <c r="H61" s="11" t="n"/>
-      <c r="I61" s="10" t="n"/>
-      <c r="J61" s="9" t="n"/>
-      <c r="K61" s="10" t="n"/>
-      <c r="L61" s="16">
-        <f>K61+30</f>
+      <c r="I61" s="11" t="n"/>
+      <c r="J61" s="10" t="n"/>
+      <c r="K61" s="9" t="n"/>
+      <c r="L61" s="10" t="n"/>
+      <c r="M61" s="16">
+        <f>L61+30</f>
         <v/>
       </c>
     </row>
@@ -3031,11 +2714,12 @@
       <c r="F62" s="13" t="n"/>
       <c r="G62" s="11" t="n"/>
       <c r="H62" s="11" t="n"/>
-      <c r="I62" s="10" t="n"/>
-      <c r="J62" s="9" t="n"/>
-      <c r="K62" s="10" t="n"/>
-      <c r="L62" s="16">
-        <f>K62+30</f>
+      <c r="I62" s="11" t="n"/>
+      <c r="J62" s="10" t="n"/>
+      <c r="K62" s="9" t="n"/>
+      <c r="L62" s="10" t="n"/>
+      <c r="M62" s="16">
+        <f>L62+30</f>
         <v/>
       </c>
     </row>
@@ -3050,11 +2734,12 @@
       <c r="F63" s="13" t="n"/>
       <c r="G63" s="11" t="n"/>
       <c r="H63" s="11" t="n"/>
-      <c r="I63" s="10" t="n"/>
-      <c r="J63" s="9" t="n"/>
-      <c r="K63" s="10" t="n"/>
-      <c r="L63" s="16">
-        <f>K63+30</f>
+      <c r="I63" s="11" t="n"/>
+      <c r="J63" s="10" t="n"/>
+      <c r="K63" s="9" t="n"/>
+      <c r="L63" s="10" t="n"/>
+      <c r="M63" s="16">
+        <f>L63+30</f>
         <v/>
       </c>
     </row>
@@ -3069,11 +2754,12 @@
       <c r="F64" s="13" t="n"/>
       <c r="G64" s="11" t="n"/>
       <c r="H64" s="11" t="n"/>
-      <c r="I64" s="10" t="n"/>
-      <c r="J64" s="9" t="n"/>
-      <c r="K64" s="10" t="n"/>
-      <c r="L64" s="16">
-        <f>K64+30</f>
+      <c r="I64" s="11" t="n"/>
+      <c r="J64" s="10" t="n"/>
+      <c r="K64" s="9" t="n"/>
+      <c r="L64" s="10" t="n"/>
+      <c r="M64" s="16">
+        <f>L64+30</f>
         <v/>
       </c>
     </row>
@@ -3088,11 +2774,12 @@
       <c r="F65" s="13" t="n"/>
       <c r="G65" s="11" t="n"/>
       <c r="H65" s="11" t="n"/>
-      <c r="I65" s="10" t="n"/>
-      <c r="J65" s="9" t="n"/>
-      <c r="K65" s="10" t="n"/>
-      <c r="L65" s="16">
-        <f>K65+30</f>
+      <c r="I65" s="11" t="n"/>
+      <c r="J65" s="10" t="n"/>
+      <c r="K65" s="9" t="n"/>
+      <c r="L65" s="10" t="n"/>
+      <c r="M65" s="16">
+        <f>L65+30</f>
         <v/>
       </c>
     </row>
@@ -3107,11 +2794,12 @@
       <c r="F66" s="13" t="n"/>
       <c r="G66" s="11" t="n"/>
       <c r="H66" s="11" t="n"/>
-      <c r="I66" s="10" t="n"/>
-      <c r="J66" s="9" t="n"/>
-      <c r="K66" s="10" t="n"/>
-      <c r="L66" s="16">
-        <f>K66+30</f>
+      <c r="I66" s="11" t="n"/>
+      <c r="J66" s="10" t="n"/>
+      <c r="K66" s="9" t="n"/>
+      <c r="L66" s="10" t="n"/>
+      <c r="M66" s="16">
+        <f>L66+30</f>
         <v/>
       </c>
     </row>
@@ -3126,11 +2814,12 @@
       <c r="F67" s="13" t="n"/>
       <c r="G67" s="11" t="n"/>
       <c r="H67" s="11" t="n"/>
-      <c r="I67" s="10" t="n"/>
-      <c r="J67" s="9" t="n"/>
-      <c r="K67" s="10" t="n"/>
-      <c r="L67" s="16">
-        <f>K67+30</f>
+      <c r="I67" s="11" t="n"/>
+      <c r="J67" s="10" t="n"/>
+      <c r="K67" s="9" t="n"/>
+      <c r="L67" s="10" t="n"/>
+      <c r="M67" s="16">
+        <f>L67+30</f>
         <v/>
       </c>
     </row>
@@ -3145,11 +2834,12 @@
       <c r="F68" s="13" t="n"/>
       <c r="G68" s="11" t="n"/>
       <c r="H68" s="11" t="n"/>
-      <c r="I68" s="10" t="n"/>
-      <c r="J68" s="9" t="n"/>
-      <c r="K68" s="10" t="n"/>
-      <c r="L68" s="16">
-        <f>K68+30</f>
+      <c r="I68" s="11" t="n"/>
+      <c r="J68" s="10" t="n"/>
+      <c r="K68" s="9" t="n"/>
+      <c r="L68" s="10" t="n"/>
+      <c r="M68" s="16">
+        <f>L68+30</f>
         <v/>
       </c>
     </row>
@@ -3164,11 +2854,12 @@
       <c r="F69" s="13" t="n"/>
       <c r="G69" s="11" t="n"/>
       <c r="H69" s="11" t="n"/>
-      <c r="I69" s="10" t="n"/>
-      <c r="J69" s="9" t="n"/>
-      <c r="K69" s="10" t="n"/>
-      <c r="L69" s="16">
-        <f>K69+30</f>
+      <c r="I69" s="11" t="n"/>
+      <c r="J69" s="10" t="n"/>
+      <c r="K69" s="9" t="n"/>
+      <c r="L69" s="10" t="n"/>
+      <c r="M69" s="16">
+        <f>L69+30</f>
         <v/>
       </c>
     </row>
@@ -3183,11 +2874,12 @@
       <c r="F70" s="13" t="n"/>
       <c r="G70" s="11" t="n"/>
       <c r="H70" s="11" t="n"/>
-      <c r="I70" s="10" t="n"/>
-      <c r="J70" s="9" t="n"/>
-      <c r="K70" s="10" t="n"/>
-      <c r="L70" s="16">
-        <f>K70+30</f>
+      <c r="I70" s="11" t="n"/>
+      <c r="J70" s="10" t="n"/>
+      <c r="K70" s="9" t="n"/>
+      <c r="L70" s="10" t="n"/>
+      <c r="M70" s="16">
+        <f>L70+30</f>
         <v/>
       </c>
     </row>
@@ -3202,11 +2894,12 @@
       <c r="F71" s="13" t="n"/>
       <c r="G71" s="11" t="n"/>
       <c r="H71" s="11" t="n"/>
-      <c r="I71" s="10" t="n"/>
-      <c r="J71" s="9" t="n"/>
-      <c r="K71" s="10" t="n"/>
-      <c r="L71" s="16">
-        <f>K71+30</f>
+      <c r="I71" s="11" t="n"/>
+      <c r="J71" s="10" t="n"/>
+      <c r="K71" s="9" t="n"/>
+      <c r="L71" s="10" t="n"/>
+      <c r="M71" s="16">
+        <f>L71+30</f>
         <v/>
       </c>
     </row>
@@ -3221,11 +2914,12 @@
       <c r="F72" s="13" t="n"/>
       <c r="G72" s="11" t="n"/>
       <c r="H72" s="11" t="n"/>
-      <c r="I72" s="10" t="n"/>
-      <c r="J72" s="9" t="n"/>
-      <c r="K72" s="10" t="n"/>
-      <c r="L72" s="16">
-        <f>K72+30</f>
+      <c r="I72" s="11" t="n"/>
+      <c r="J72" s="10" t="n"/>
+      <c r="K72" s="9" t="n"/>
+      <c r="L72" s="10" t="n"/>
+      <c r="M72" s="16">
+        <f>L72+30</f>
         <v/>
       </c>
     </row>
@@ -3240,11 +2934,12 @@
       <c r="F73" s="13" t="n"/>
       <c r="G73" s="11" t="n"/>
       <c r="H73" s="11" t="n"/>
-      <c r="I73" s="10" t="n"/>
-      <c r="J73" s="9" t="n"/>
-      <c r="K73" s="10" t="n"/>
-      <c r="L73" s="16">
-        <f>K73+30</f>
+      <c r="I73" s="11" t="n"/>
+      <c r="J73" s="10" t="n"/>
+      <c r="K73" s="9" t="n"/>
+      <c r="L73" s="10" t="n"/>
+      <c r="M73" s="16">
+        <f>L73+30</f>
         <v/>
       </c>
     </row>
@@ -3259,11 +2954,12 @@
       <c r="F74" s="13" t="n"/>
       <c r="G74" s="11" t="n"/>
       <c r="H74" s="11" t="n"/>
-      <c r="I74" s="10" t="n"/>
-      <c r="J74" s="9" t="n"/>
-      <c r="K74" s="10" t="n"/>
-      <c r="L74" s="16">
-        <f>K74+30</f>
+      <c r="I74" s="11" t="n"/>
+      <c r="J74" s="10" t="n"/>
+      <c r="K74" s="9" t="n"/>
+      <c r="L74" s="10" t="n"/>
+      <c r="M74" s="16">
+        <f>L74+30</f>
         <v/>
       </c>
     </row>
@@ -3278,11 +2974,12 @@
       <c r="F75" s="13" t="n"/>
       <c r="G75" s="11" t="n"/>
       <c r="H75" s="11" t="n"/>
-      <c r="I75" s="10" t="n"/>
-      <c r="J75" s="9" t="n"/>
-      <c r="K75" s="10" t="n"/>
-      <c r="L75" s="16">
-        <f>K75+30</f>
+      <c r="I75" s="11" t="n"/>
+      <c r="J75" s="10" t="n"/>
+      <c r="K75" s="9" t="n"/>
+      <c r="L75" s="10" t="n"/>
+      <c r="M75" s="16">
+        <f>L75+30</f>
         <v/>
       </c>
     </row>
@@ -3297,11 +2994,12 @@
       <c r="F76" s="13" t="n"/>
       <c r="G76" s="11" t="n"/>
       <c r="H76" s="11" t="n"/>
-      <c r="I76" s="10" t="n"/>
-      <c r="J76" s="9" t="n"/>
-      <c r="K76" s="10" t="n"/>
-      <c r="L76" s="16">
-        <f>K76+30</f>
+      <c r="I76" s="11" t="n"/>
+      <c r="J76" s="10" t="n"/>
+      <c r="K76" s="9" t="n"/>
+      <c r="L76" s="10" t="n"/>
+      <c r="M76" s="16">
+        <f>L76+30</f>
         <v/>
       </c>
     </row>
@@ -3316,11 +3014,12 @@
       <c r="F77" s="13" t="n"/>
       <c r="G77" s="11" t="n"/>
       <c r="H77" s="11" t="n"/>
-      <c r="I77" s="10" t="n"/>
-      <c r="J77" s="9" t="n"/>
-      <c r="K77" s="10" t="n"/>
-      <c r="L77" s="16">
-        <f>K77+30</f>
+      <c r="I77" s="11" t="n"/>
+      <c r="J77" s="10" t="n"/>
+      <c r="K77" s="9" t="n"/>
+      <c r="L77" s="10" t="n"/>
+      <c r="M77" s="16">
+        <f>L77+30</f>
         <v/>
       </c>
     </row>
@@ -3335,11 +3034,12 @@
       <c r="F78" s="13" t="n"/>
       <c r="G78" s="11" t="n"/>
       <c r="H78" s="11" t="n"/>
-      <c r="I78" s="10" t="n"/>
-      <c r="J78" s="9" t="n"/>
-      <c r="K78" s="10" t="n"/>
-      <c r="L78" s="16">
-        <f>K78+30</f>
+      <c r="I78" s="11" t="n"/>
+      <c r="J78" s="10" t="n"/>
+      <c r="K78" s="9" t="n"/>
+      <c r="L78" s="10" t="n"/>
+      <c r="M78" s="16">
+        <f>L78+30</f>
         <v/>
       </c>
     </row>
@@ -3354,11 +3054,12 @@
       <c r="F79" s="13" t="n"/>
       <c r="G79" s="11" t="n"/>
       <c r="H79" s="11" t="n"/>
-      <c r="I79" s="10" t="n"/>
-      <c r="J79" s="9" t="n"/>
-      <c r="K79" s="10" t="n"/>
-      <c r="L79" s="16">
-        <f>K79+30</f>
+      <c r="I79" s="11" t="n"/>
+      <c r="J79" s="10" t="n"/>
+      <c r="K79" s="9" t="n"/>
+      <c r="L79" s="10" t="n"/>
+      <c r="M79" s="16">
+        <f>L79+30</f>
         <v/>
       </c>
     </row>
@@ -3373,11 +3074,12 @@
       <c r="F80" s="13" t="n"/>
       <c r="G80" s="11" t="n"/>
       <c r="H80" s="11" t="n"/>
-      <c r="I80" s="10" t="n"/>
-      <c r="J80" s="9" t="n"/>
-      <c r="K80" s="10" t="n"/>
-      <c r="L80" s="16">
-        <f>K80+30</f>
+      <c r="I80" s="11" t="n"/>
+      <c r="J80" s="10" t="n"/>
+      <c r="K80" s="9" t="n"/>
+      <c r="L80" s="10" t="n"/>
+      <c r="M80" s="16">
+        <f>L80+30</f>
         <v/>
       </c>
     </row>
@@ -3392,11 +3094,12 @@
       <c r="F81" s="13" t="n"/>
       <c r="G81" s="11" t="n"/>
       <c r="H81" s="11" t="n"/>
-      <c r="I81" s="10" t="n"/>
-      <c r="J81" s="9" t="n"/>
-      <c r="K81" s="10" t="n"/>
-      <c r="L81" s="16">
-        <f>K81+30</f>
+      <c r="I81" s="11" t="n"/>
+      <c r="J81" s="10" t="n"/>
+      <c r="K81" s="9" t="n"/>
+      <c r="L81" s="10" t="n"/>
+      <c r="M81" s="16">
+        <f>L81+30</f>
         <v/>
       </c>
     </row>
@@ -3411,11 +3114,12 @@
       <c r="F82" s="13" t="n"/>
       <c r="G82" s="11" t="n"/>
       <c r="H82" s="11" t="n"/>
-      <c r="I82" s="10" t="n"/>
-      <c r="J82" s="9" t="n"/>
-      <c r="K82" s="10" t="n"/>
-      <c r="L82" s="16">
-        <f>K82+30</f>
+      <c r="I82" s="11" t="n"/>
+      <c r="J82" s="10" t="n"/>
+      <c r="K82" s="9" t="n"/>
+      <c r="L82" s="10" t="n"/>
+      <c r="M82" s="16">
+        <f>L82+30</f>
         <v/>
       </c>
     </row>
@@ -3430,11 +3134,12 @@
       <c r="F83" s="13" t="n"/>
       <c r="G83" s="11" t="n"/>
       <c r="H83" s="11" t="n"/>
-      <c r="I83" s="10" t="n"/>
-      <c r="J83" s="9" t="n"/>
-      <c r="K83" s="10" t="n"/>
-      <c r="L83" s="16">
-        <f>K83+30</f>
+      <c r="I83" s="11" t="n"/>
+      <c r="J83" s="10" t="n"/>
+      <c r="K83" s="9" t="n"/>
+      <c r="L83" s="10" t="n"/>
+      <c r="M83" s="16">
+        <f>L83+30</f>
         <v/>
       </c>
     </row>
@@ -3449,11 +3154,12 @@
       <c r="F84" s="13" t="n"/>
       <c r="G84" s="11" t="n"/>
       <c r="H84" s="11" t="n"/>
-      <c r="I84" s="10" t="n"/>
-      <c r="J84" s="9" t="n"/>
-      <c r="K84" s="10" t="n"/>
-      <c r="L84" s="16">
-        <f>K84+30</f>
+      <c r="I84" s="11" t="n"/>
+      <c r="J84" s="10" t="n"/>
+      <c r="K84" s="9" t="n"/>
+      <c r="L84" s="10" t="n"/>
+      <c r="M84" s="16">
+        <f>L84+30</f>
         <v/>
       </c>
     </row>
@@ -3468,11 +3174,12 @@
       <c r="F85" s="13" t="n"/>
       <c r="G85" s="11" t="n"/>
       <c r="H85" s="11" t="n"/>
-      <c r="I85" s="10" t="n"/>
-      <c r="J85" s="9" t="n"/>
-      <c r="K85" s="10" t="n"/>
-      <c r="L85" s="16">
-        <f>K85+30</f>
+      <c r="I85" s="11" t="n"/>
+      <c r="J85" s="10" t="n"/>
+      <c r="K85" s="9" t="n"/>
+      <c r="L85" s="10" t="n"/>
+      <c r="M85" s="16">
+        <f>L85+30</f>
         <v/>
       </c>
     </row>
@@ -3487,11 +3194,12 @@
       <c r="F86" s="13" t="n"/>
       <c r="G86" s="11" t="n"/>
       <c r="H86" s="11" t="n"/>
-      <c r="I86" s="10" t="n"/>
-      <c r="J86" s="9" t="n"/>
-      <c r="K86" s="10" t="n"/>
-      <c r="L86" s="16">
-        <f>K86+30</f>
+      <c r="I86" s="11" t="n"/>
+      <c r="J86" s="10" t="n"/>
+      <c r="K86" s="9" t="n"/>
+      <c r="L86" s="10" t="n"/>
+      <c r="M86" s="16">
+        <f>L86+30</f>
         <v/>
       </c>
     </row>
@@ -3504,309 +3212,310 @@
       <c r="D87" s="14" t="n"/>
       <c r="E87" s="10" t="n"/>
       <c r="F87" s="13" t="n"/>
-      <c r="G87" s="76" t="n"/>
+      <c r="G87" s="74" t="n"/>
       <c r="H87" s="11" t="n"/>
-      <c r="I87" s="10" t="n"/>
-      <c r="J87" s="9" t="n"/>
-      <c r="K87" s="10" t="n"/>
-      <c r="L87" s="16">
-        <f>K87+30</f>
+      <c r="I87" s="11" t="n"/>
+      <c r="J87" s="10" t="n"/>
+      <c r="K87" s="9" t="n"/>
+      <c r="L87" s="10" t="n"/>
+      <c r="M87" s="16">
+        <f>L87+30</f>
         <v/>
       </c>
     </row>
     <row r="88" ht="15.9" customFormat="1" customHeight="1" s="4">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="26" t="n"/>
-      <c r="F88" s="53" t="n"/>
-      <c r="I88" s="6">
-        <f>SUM(I11:I87)</f>
-        <v/>
-      </c>
-      <c r="J88" s="7">
+      <c r="B88" s="2" t="n"/>
+      <c r="F88" s="59" t="n"/>
+      <c r="I88" s="59" t="n"/>
+      <c r="J88" s="6">
         <f>SUM(J11:J87)</f>
         <v/>
       </c>
-      <c r="K88" s="6">
+      <c r="K88" s="7">
         <f>SUM(K11:K87)</f>
         <v/>
       </c>
-      <c r="L88" s="5">
+      <c r="L88" s="6">
         <f>SUM(L11:L87)</f>
+        <v/>
+      </c>
+      <c r="M88" s="5">
+        <f>SUM(M11:M87)</f>
         <v/>
       </c>
     </row>
     <row r="89" ht="15.9" customFormat="1" customHeight="1" s="4">
       <c r="A89" s="8" t="n"/>
-      <c r="B89" s="26" t="n"/>
-      <c r="F89" s="53" t="n"/>
-      <c r="G89" s="53" t="n"/>
-      <c r="H89" s="53" t="n"/>
-      <c r="I89" s="6" t="n"/>
-      <c r="J89" s="7" t="n"/>
-      <c r="K89" s="6" t="n"/>
-      <c r="L89" s="5" t="n"/>
+      <c r="B89" s="2" t="n"/>
+      <c r="F89" s="59" t="n"/>
+      <c r="G89" s="59" t="n"/>
+      <c r="H89" s="59" t="n"/>
+      <c r="I89" s="59" t="n"/>
+      <c r="J89" s="6" t="n"/>
+      <c r="K89" s="7" t="n"/>
+      <c r="L89" s="6" t="n"/>
+      <c r="M89" s="5" t="n"/>
     </row>
     <row r="90" ht="15.9" customFormat="1" customHeight="1" s="4" thickBot="1">
-      <c r="A90" s="31" t="n"/>
-      <c r="B90" s="28" t="n"/>
-      <c r="C90" s="29" t="n"/>
-      <c r="D90" s="30" t="n"/>
-      <c r="E90" s="30" t="n"/>
-      <c r="F90" s="53" t="n"/>
-      <c r="G90" s="53" t="n"/>
-      <c r="H90" s="53" t="n"/>
-      <c r="I90" s="6" t="n"/>
-      <c r="J90" s="7" t="n"/>
-      <c r="K90" s="6" t="n"/>
-      <c r="L90" s="5" t="n"/>
+      <c r="A90" s="27" t="n"/>
+      <c r="B90" s="24" t="n"/>
+      <c r="C90" s="25" t="n"/>
+      <c r="D90" s="26" t="n"/>
+      <c r="E90" s="26" t="n"/>
+      <c r="F90" s="59" t="n"/>
+      <c r="G90" s="59" t="n"/>
+      <c r="H90" s="59" t="n"/>
+      <c r="I90" s="59" t="n"/>
+      <c r="J90" s="6" t="n"/>
+      <c r="K90" s="7" t="n"/>
+      <c r="L90" s="6" t="n"/>
+      <c r="M90" s="5" t="n"/>
     </row>
     <row r="91" ht="15.9" customFormat="1" customHeight="1" s="4" thickBot="1">
-      <c r="A91" s="67" t="inlineStr">
+      <c r="A91" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">TOTAL CASES                                                        </t>
         </is>
       </c>
-      <c r="B91" s="77" t="n"/>
-      <c r="C91" s="78" t="inlineStr">
+      <c r="B91" s="75" t="n"/>
+      <c r="C91" s="76" t="inlineStr">
         <is>
           <t xml:space="preserve"> W. CASES</t>
         </is>
       </c>
-      <c r="D91" s="79" t="n"/>
-      <c r="E91" s="30" t="n"/>
-      <c r="F91" s="53" t="n"/>
-      <c r="G91" s="53" t="n"/>
-      <c r="H91" s="53" t="n"/>
-      <c r="I91" s="6" t="n"/>
-      <c r="J91" s="7" t="n"/>
-      <c r="K91" s="6" t="n"/>
-      <c r="L91" s="5" t="n"/>
+      <c r="D91" s="77" t="n"/>
+      <c r="E91" s="26" t="n"/>
+      <c r="F91" s="59" t="n"/>
+      <c r="G91" s="59" t="n"/>
+      <c r="H91" s="59" t="n"/>
+      <c r="I91" s="59" t="n"/>
+      <c r="J91" s="6" t="n"/>
+      <c r="K91" s="7" t="n"/>
+      <c r="L91" s="6" t="n"/>
+      <c r="M91" s="5" t="n"/>
     </row>
     <row r="92" ht="15.9" customFormat="1" customHeight="1" s="4" thickBot="1">
-      <c r="A92" s="42" t="n"/>
-      <c r="B92" s="33" t="n"/>
-      <c r="C92" s="33" t="n"/>
-      <c r="D92" s="30" t="n"/>
-      <c r="E92" s="30" t="n"/>
-      <c r="F92" s="53" t="n"/>
-      <c r="G92" s="53" t="n"/>
-      <c r="H92" s="53" t="n"/>
-      <c r="I92" s="6" t="n"/>
-      <c r="J92" s="7" t="n"/>
-      <c r="K92" s="6" t="n"/>
-      <c r="L92" s="5" t="n"/>
+      <c r="A92" s="38" t="n"/>
+      <c r="B92" s="29" t="n"/>
+      <c r="C92" s="29" t="n"/>
+      <c r="D92" s="26" t="n"/>
+      <c r="E92" s="26" t="n"/>
+      <c r="F92" s="59" t="n"/>
+      <c r="G92" s="59" t="n"/>
+      <c r="H92" s="59" t="n"/>
+      <c r="I92" s="59" t="n"/>
+      <c r="J92" s="6" t="n"/>
+      <c r="K92" s="7" t="n"/>
+      <c r="L92" s="6" t="n"/>
+      <c r="M92" s="5" t="n"/>
     </row>
     <row r="93" ht="15.9" customFormat="1" customHeight="1" s="4" thickBot="1">
-      <c r="A93" s="67" t="inlineStr">
+      <c r="A93" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">TOTAL NET KG                         </t>
         </is>
       </c>
-      <c r="B93" s="77" t="n"/>
-      <c r="C93" s="80">
-        <f>+K88</f>
-        <v/>
-      </c>
-      <c r="D93" s="79" t="n"/>
-      <c r="E93" s="43" t="inlineStr">
+      <c r="B93" s="75" t="n"/>
+      <c r="C93" s="78">
+        <f>+L88</f>
+        <v/>
+      </c>
+      <c r="D93" s="77" t="n"/>
+      <c r="E93" s="39" t="inlineStr">
         <is>
           <t>KGS</t>
         </is>
       </c>
-      <c r="F93" s="53" t="n"/>
-      <c r="G93" s="53" t="n"/>
-      <c r="H93" s="53" t="n"/>
-      <c r="I93" s="6" t="n"/>
-      <c r="J93" s="7" t="n"/>
-      <c r="K93" s="6" t="n"/>
-      <c r="L93" s="5" t="n"/>
+      <c r="F93" s="59" t="n"/>
+      <c r="G93" s="59" t="n"/>
+      <c r="H93" s="59" t="n"/>
+      <c r="I93" s="59" t="n"/>
+      <c r="J93" s="6" t="n"/>
+      <c r="K93" s="7" t="n"/>
+      <c r="L93" s="6" t="n"/>
+      <c r="M93" s="5" t="n"/>
     </row>
     <row r="94" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A94" s="32" t="n"/>
-      <c r="B94" s="28" t="n"/>
-      <c r="C94" s="29" t="n"/>
-      <c r="D94" s="30" t="n"/>
-      <c r="E94" s="30" t="n"/>
-      <c r="L94" s="3" t="n"/>
+      <c r="A94" s="28" t="n"/>
+      <c r="B94" s="24" t="n"/>
+      <c r="C94" s="25" t="n"/>
+      <c r="D94" s="26" t="n"/>
+      <c r="E94" s="26" t="n"/>
+      <c r="M94" s="3" t="n"/>
     </row>
     <row r="95" ht="13.8" customHeight="1" thickBot="1">
-      <c r="A95" s="67" t="inlineStr">
+      <c r="A95" s="50" t="inlineStr">
         <is>
           <t xml:space="preserve">TOTAL GROSS KG                     </t>
         </is>
       </c>
-      <c r="B95" s="77" t="n"/>
-      <c r="C95" s="80">
-        <f>+L88</f>
-        <v/>
-      </c>
-      <c r="D95" s="79" t="n"/>
-      <c r="E95" s="43" t="inlineStr">
+      <c r="B95" s="75" t="n"/>
+      <c r="C95" s="78">
+        <f>+M88</f>
+        <v/>
+      </c>
+      <c r="D95" s="77" t="n"/>
+      <c r="E95" s="39" t="inlineStr">
         <is>
           <t>KGS</t>
         </is>
       </c>
-      <c r="L95" s="3" t="n"/>
+      <c r="M95" s="3" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="44" t="n"/>
-      <c r="B96" s="45" t="n"/>
-      <c r="C96" s="46" t="n"/>
-      <c r="D96" s="47" t="n"/>
-      <c r="E96" s="43" t="n"/>
-      <c r="L96" s="3" t="n"/>
+      <c r="A96" s="40" t="n"/>
+      <c r="B96" s="41" t="n"/>
+      <c r="C96" s="42" t="n"/>
+      <c r="D96" s="43" t="n"/>
+      <c r="E96" s="39" t="n"/>
+      <c r="M96" s="3" t="n"/>
     </row>
     <row r="97" ht="18" customHeight="1" thickBot="1">
-      <c r="A97" s="62" t="inlineStr">
+      <c r="A97" s="67" t="inlineStr">
         <is>
           <t>EK AÇIKLAMALAR</t>
         </is>
       </c>
-      <c r="E97" s="57" t="inlineStr">
+      <c r="E97" s="47" t="inlineStr">
         <is>
           <t>KASA ÖLÇÜLERİ</t>
         </is>
       </c>
-      <c r="L97" s="81" t="n"/>
+      <c r="M97" s="79" t="n"/>
     </row>
     <row r="98" ht="25.05" customHeight="1">
-      <c r="A98" s="63" t="n"/>
-      <c r="B98" s="82" t="n"/>
-      <c r="C98" s="82" t="n"/>
-      <c r="D98" s="82" t="n"/>
-      <c r="E98" s="83" t="n"/>
-      <c r="F98" s="82" t="n"/>
-      <c r="G98" s="82" t="n"/>
-      <c r="H98" s="82" t="n"/>
-      <c r="I98" s="82" t="n"/>
-      <c r="J98" s="82" t="n"/>
-      <c r="K98" s="82" t="n"/>
-      <c r="L98" s="84" t="n"/>
+      <c r="A98" s="44" t="n"/>
+      <c r="B98" s="80" t="n"/>
+      <c r="C98" s="80" t="n"/>
+      <c r="D98" s="80" t="n"/>
+      <c r="E98" s="81" t="n"/>
+      <c r="F98" s="80" t="n"/>
+      <c r="G98" s="80" t="n"/>
+      <c r="H98" s="80" t="n"/>
+      <c r="I98" s="80" t="n"/>
+      <c r="J98" s="80" t="n"/>
+      <c r="K98" s="80" t="n"/>
+      <c r="L98" s="80" t="n"/>
+      <c r="M98" s="82" t="n"/>
     </row>
     <row r="99" ht="25.05" customHeight="1">
       <c r="A99" s="8" t="n"/>
-      <c r="B99" s="26" t="n"/>
-      <c r="C99" s="26" t="n"/>
-      <c r="D99" s="26" t="n"/>
-      <c r="E99" s="25" t="n"/>
-      <c r="F99" s="26" t="n"/>
-      <c r="G99" s="26" t="n"/>
-      <c r="H99" s="26" t="n"/>
-      <c r="I99" s="26" t="n"/>
-      <c r="J99" s="26" t="n"/>
-      <c r="K99" s="26" t="n"/>
-      <c r="L99" s="3" t="n"/>
+      <c r="B99" s="2" t="n"/>
+      <c r="C99" s="2" t="n"/>
+      <c r="D99" s="2" t="n"/>
+      <c r="E99" s="21" t="n"/>
+      <c r="F99" s="2" t="n"/>
+      <c r="G99" s="2" t="n"/>
+      <c r="H99" s="2" t="n"/>
+      <c r="I99" s="2" t="n"/>
+      <c r="J99" s="2" t="n"/>
+      <c r="K99" s="2" t="n"/>
+      <c r="L99" s="2" t="n"/>
+      <c r="M99" s="3" t="n"/>
     </row>
     <row r="100" ht="25.05" customHeight="1" thickBot="1">
-      <c r="A100" s="38" t="n"/>
-      <c r="B100" s="39" t="n"/>
-      <c r="C100" s="39" t="n"/>
-      <c r="D100" s="39" t="n"/>
-      <c r="E100" s="40" t="n"/>
-      <c r="F100" s="39" t="n"/>
-      <c r="G100" s="39" t="n"/>
-      <c r="H100" s="39" t="n"/>
-      <c r="I100" s="39" t="n"/>
-      <c r="J100" s="39" t="n"/>
-      <c r="K100" s="39" t="n"/>
-      <c r="L100" s="41" t="n"/>
+      <c r="A100" s="34" t="n"/>
+      <c r="B100" s="35" t="n"/>
+      <c r="C100" s="35" t="n"/>
+      <c r="D100" s="35" t="n"/>
+      <c r="E100" s="36" t="n"/>
+      <c r="F100" s="35" t="n"/>
+      <c r="G100" s="35" t="n"/>
+      <c r="H100" s="35" t="n"/>
+      <c r="I100" s="35" t="n"/>
+      <c r="J100" s="35" t="n"/>
+      <c r="K100" s="35" t="n"/>
+      <c r="L100" s="35" t="n"/>
+      <c r="M100" s="37" t="n"/>
     </row>
     <row r="101" ht="25.05" customHeight="1">
-      <c r="A101" s="62" t="inlineStr">
+      <c r="A101" s="67" t="inlineStr">
         <is>
           <t>KONTEYNER İÇİ DAĞILIM</t>
         </is>
       </c>
-      <c r="E101" s="57" t="inlineStr">
+      <c r="E101" s="47" t="inlineStr">
         <is>
           <t>YÜKLEME TOPLANTISI NOTLARI</t>
         </is>
       </c>
-      <c r="L101" s="81" t="n"/>
+      <c r="M101" s="79" t="n"/>
     </row>
     <row r="102" ht="25.05" customHeight="1">
-      <c r="A102" s="61" t="n"/>
-      <c r="B102" s="85" t="n"/>
-      <c r="C102" s="85" t="n"/>
-      <c r="D102" s="85" t="n"/>
-      <c r="E102" s="86" t="n"/>
-      <c r="F102" s="85" t="n"/>
-      <c r="G102" s="85" t="n"/>
-      <c r="H102" s="85" t="n"/>
-      <c r="I102" s="85" t="n"/>
-      <c r="J102" s="85" t="n"/>
-      <c r="K102" s="85" t="n"/>
-      <c r="L102" s="87" t="n"/>
+      <c r="A102" s="66" t="n"/>
+      <c r="B102" s="83" t="n"/>
+      <c r="C102" s="83" t="n"/>
+      <c r="D102" s="83" t="n"/>
+      <c r="E102" s="84" t="n"/>
+      <c r="F102" s="83" t="n"/>
+      <c r="G102" s="83" t="n"/>
+      <c r="H102" s="83" t="n"/>
+      <c r="I102" s="83" t="n"/>
+      <c r="J102" s="83" t="n"/>
+      <c r="K102" s="83" t="n"/>
+      <c r="L102" s="83" t="n"/>
+      <c r="M102" s="85" t="n"/>
     </row>
     <row r="103" ht="25.05" customHeight="1">
-      <c r="A103" s="22" t="n"/>
-      <c r="B103" s="26" t="n"/>
-      <c r="C103" s="26" t="n"/>
-      <c r="D103" s="26" t="n"/>
-      <c r="E103" s="25" t="n"/>
-      <c r="F103" s="26" t="n"/>
-      <c r="G103" s="26" t="n"/>
-      <c r="H103" s="26" t="n"/>
-      <c r="I103" s="26" t="n"/>
-      <c r="J103" s="26" t="n"/>
-      <c r="K103" s="26" t="n"/>
-      <c r="L103" s="24" t="n"/>
+      <c r="A103" s="20" t="n"/>
+      <c r="B103" s="2" t="n"/>
+      <c r="C103" s="2" t="n"/>
+      <c r="D103" s="2" t="n"/>
+      <c r="E103" s="21" t="n"/>
+      <c r="F103" s="2" t="n"/>
+      <c r="G103" s="2" t="n"/>
+      <c r="H103" s="2" t="n"/>
+      <c r="I103" s="2" t="n"/>
+      <c r="J103" s="2" t="n"/>
+      <c r="K103" s="2" t="n"/>
+      <c r="L103" s="2" t="n"/>
+      <c r="M103" s="22" t="n"/>
     </row>
     <row r="104" ht="25.05" customHeight="1">
-      <c r="A104" s="49" t="n"/>
-      <c r="B104" s="88" t="n"/>
-      <c r="C104" s="88" t="n"/>
-      <c r="D104" s="88" t="n"/>
-      <c r="E104" s="89" t="n"/>
-      <c r="F104" s="88" t="n"/>
-      <c r="G104" s="88" t="n"/>
-      <c r="H104" s="88" t="n"/>
-      <c r="I104" s="88" t="n"/>
-      <c r="J104" s="88" t="n"/>
-      <c r="K104" s="88" t="n"/>
-      <c r="L104" s="90" t="n"/>
-    </row>
-    <row r="105" ht="25.05" customHeight="1">
-      <c r="A105" s="20" t="n"/>
-      <c r="B105" s="20" t="n"/>
-      <c r="C105" s="20" t="n"/>
-      <c r="D105" s="20" t="n"/>
-      <c r="E105" s="20" t="n"/>
-      <c r="F105" s="20" t="n"/>
-      <c r="G105" s="20" t="n"/>
-      <c r="H105" s="20" t="n"/>
-      <c r="I105" s="20" t="n"/>
-      <c r="J105" s="20" t="n"/>
-      <c r="K105" s="20" t="n"/>
-      <c r="L105" s="26" t="n"/>
-    </row>
+      <c r="A104" s="55" t="n"/>
+      <c r="B104" s="86" t="n"/>
+      <c r="C104" s="86" t="n"/>
+      <c r="D104" s="86" t="n"/>
+      <c r="E104" s="87" t="n"/>
+      <c r="F104" s="86" t="n"/>
+      <c r="G104" s="86" t="n"/>
+      <c r="H104" s="86" t="n"/>
+      <c r="I104" s="86" t="n"/>
+      <c r="J104" s="86" t="n"/>
+      <c r="K104" s="86" t="n"/>
+      <c r="L104" s="86" t="n"/>
+      <c r="M104" s="88" t="n"/>
+    </row>
+    <row r="105" ht="25.05" customHeight="1"/>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="26">
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="A6:M6"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="E104:M104"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="E101:M101"/>
+    <mergeCell ref="E102:M102"/>
+    <mergeCell ref="A102:D102"/>
+    <mergeCell ref="A101:D101"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="A97:D97"/>
     <mergeCell ref="A98:D98"/>
-    <mergeCell ref="E97:L97"/>
-    <mergeCell ref="E98:L98"/>
+    <mergeCell ref="E97:M97"/>
+    <mergeCell ref="E98:M98"/>
     <mergeCell ref="A91:B91"/>
     <mergeCell ref="C91:D91"/>
     <mergeCell ref="A93:B93"/>
     <mergeCell ref="C93:D93"/>
     <mergeCell ref="A95:B95"/>
     <mergeCell ref="C95:D95"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="E104:L104"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="E101:L101"/>
-    <mergeCell ref="E102:L102"/>
-    <mergeCell ref="A102:D102"/>
-    <mergeCell ref="A101:D101"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="A97:D97"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1574803149606299" right="0.1181102362204725" top="0.33" bottom="0.59" header="0.33" footer="0.5118110236220472"/>

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1424,52 +1424,52 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>57526</v>
+        <v>527187</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Landing</t>
         </is>
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Emperador</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="I11" s="11" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="J11" s="10" t="n">
-        <v>156</v>
+        <v>40</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>19.33</v>
+        <v>28.8</v>
       </c>
       <c r="L11" s="10" t="n">
-        <v>556.704</v>
+        <v>1584</v>
       </c>
       <c r="M11" s="16" t="n">
-        <v>586.704</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1477,370 +1477,172 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>59176</v>
+        <v>527188</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
-          <t>Travertine Tiles</t>
+          <t>Marble Landing</t>
         </is>
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
+          <t>Polished</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Mina Rustic</t>
+          <t>Emperador</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>ANT</t>
+          <t>60,0</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>PAT</t>
+          <t>120,0</t>
         </is>
       </c>
       <c r="I12" s="11" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="J12" s="10" t="n">
-        <v>312</v>
+        <v>40</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>38.66</v>
+        <v>28.8</v>
       </c>
       <c r="L12" s="10" t="n">
-        <v>1113.408</v>
+        <v>1584</v>
       </c>
       <c r="M12" s="16" t="n">
-        <v>1143.408</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A13" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="18" t="n">
-        <v>59229</v>
-      </c>
-      <c r="C13" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Tiles</t>
-        </is>
-      </c>
-      <c r="D13" s="14" t="inlineStr">
-        <is>
-          <t>Filled&amp;Brushed&amp;Chiseled</t>
-        </is>
-      </c>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Mina Rustic</t>
-        </is>
-      </c>
-      <c r="F13" s="13" t="inlineStr">
-        <is>
-          <t>1,2</t>
-        </is>
-      </c>
-      <c r="G13" s="11" t="inlineStr">
-        <is>
-          <t>ANT</t>
-        </is>
-      </c>
-      <c r="H13" s="11" t="inlineStr">
-        <is>
-          <t>PAT</t>
-        </is>
-      </c>
-      <c r="I13" s="11" t="n">
-        <v>26</v>
-      </c>
-      <c r="J13" s="10" t="n">
-        <v>156</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>19.33</v>
-      </c>
-      <c r="L13" s="10" t="n">
-        <v>556.704</v>
-      </c>
-      <c r="M13" s="16" t="n">
-        <v>586.704</v>
+      <c r="B13" s="18" t="n"/>
+      <c r="C13" s="10" t="n"/>
+      <c r="D13" s="14" t="n"/>
+      <c r="E13" s="10" t="n"/>
+      <c r="F13" s="13" t="n"/>
+      <c r="G13" s="11" t="n"/>
+      <c r="H13" s="11" t="n"/>
+      <c r="I13" s="11" t="n"/>
+      <c r="J13" s="10" t="n"/>
+      <c r="K13" s="9" t="n"/>
+      <c r="L13" s="10" t="n"/>
+      <c r="M13" s="16">
+        <f>L13+30</f>
+        <v/>
       </c>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A14" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="n">
-        <v>59256</v>
-      </c>
-      <c r="C14" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Mosaic</t>
-        </is>
-      </c>
-      <c r="D14" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed</t>
-        </is>
-      </c>
-      <c r="E14" s="10" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut 3D</t>
-        </is>
-      </c>
-      <c r="F14" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G14" s="11" t="inlineStr">
-        <is>
-          <t>20,0</t>
-        </is>
-      </c>
-      <c r="H14" s="11" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="I14" s="11" t="n">
-        <v>29</v>
-      </c>
-      <c r="J14" s="10" t="n">
-        <v>174</v>
-      </c>
-      <c r="K14" s="9" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="L14" s="10" t="n">
-        <v>751.6799999999999</v>
-      </c>
-      <c r="M14" s="16" t="n">
-        <v>781.6799999999999</v>
+      <c r="B14" s="18" t="n"/>
+      <c r="C14" s="10" t="n"/>
+      <c r="D14" s="14" t="n"/>
+      <c r="E14" s="10" t="n"/>
+      <c r="F14" s="13" t="n"/>
+      <c r="G14" s="11" t="n"/>
+      <c r="H14" s="11" t="n"/>
+      <c r="I14" s="11" t="n"/>
+      <c r="J14" s="10" t="n"/>
+      <c r="K14" s="9" t="n"/>
+      <c r="L14" s="10" t="n"/>
+      <c r="M14" s="16">
+        <f>L14+30</f>
+        <v/>
       </c>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A15" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="n">
-        <v>59257</v>
-      </c>
-      <c r="C15" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Mosaic</t>
-        </is>
-      </c>
-      <c r="D15" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed</t>
-        </is>
-      </c>
-      <c r="E15" s="10" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut 3D</t>
-        </is>
-      </c>
-      <c r="F15" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G15" s="11" t="inlineStr">
-        <is>
-          <t>20,0</t>
-        </is>
-      </c>
-      <c r="H15" s="11" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="I15" s="11" t="n">
-        <v>29</v>
-      </c>
-      <c r="J15" s="10" t="n">
-        <v>174</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="L15" s="10" t="n">
-        <v>751.6799999999999</v>
-      </c>
-      <c r="M15" s="16" t="n">
-        <v>781.6799999999999</v>
+      <c r="B15" s="18" t="n"/>
+      <c r="C15" s="10" t="n"/>
+      <c r="D15" s="14" t="n"/>
+      <c r="E15" s="10" t="n"/>
+      <c r="F15" s="13" t="n"/>
+      <c r="G15" s="11" t="n"/>
+      <c r="H15" s="11" t="n"/>
+      <c r="I15" s="11" t="n"/>
+      <c r="J15" s="10" t="n"/>
+      <c r="K15" s="9" t="n"/>
+      <c r="L15" s="10" t="n"/>
+      <c r="M15" s="16">
+        <f>L15+30</f>
+        <v/>
       </c>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A16" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="18" t="n">
-        <v>59258</v>
-      </c>
-      <c r="C16" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Mosaic</t>
-        </is>
-      </c>
-      <c r="D16" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed</t>
-        </is>
-      </c>
-      <c r="E16" s="10" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut 3D</t>
-        </is>
-      </c>
-      <c r="F16" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G16" s="11" t="inlineStr">
-        <is>
-          <t>20,0</t>
-        </is>
-      </c>
-      <c r="H16" s="11" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="I16" s="11" t="n">
-        <v>29</v>
-      </c>
-      <c r="J16" s="10" t="n">
-        <v>174</v>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="L16" s="10" t="n">
-        <v>751.6799999999999</v>
-      </c>
-      <c r="M16" s="16" t="n">
-        <v>781.6799999999999</v>
+      <c r="B16" s="18" t="n"/>
+      <c r="C16" s="10" t="n"/>
+      <c r="D16" s="14" t="n"/>
+      <c r="E16" s="10" t="n"/>
+      <c r="F16" s="13" t="n"/>
+      <c r="G16" s="11" t="n"/>
+      <c r="H16" s="11" t="n"/>
+      <c r="I16" s="11" t="n"/>
+      <c r="J16" s="10" t="n"/>
+      <c r="K16" s="9" t="n"/>
+      <c r="L16" s="10" t="n"/>
+      <c r="M16" s="16">
+        <f>L16+30</f>
+        <v/>
       </c>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A17" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="n">
-        <v>59268</v>
-      </c>
-      <c r="C17" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Mosaic</t>
-        </is>
-      </c>
-      <c r="D17" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed</t>
-        </is>
-      </c>
-      <c r="E17" s="10" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut 3D</t>
-        </is>
-      </c>
-      <c r="F17" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G17" s="11" t="inlineStr">
-        <is>
-          <t>20,0</t>
-        </is>
-      </c>
-      <c r="H17" s="11" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="I17" s="11" t="n">
-        <v>29</v>
-      </c>
-      <c r="J17" s="10" t="n">
-        <v>174</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="L17" s="10" t="n">
-        <v>751.6799999999999</v>
-      </c>
-      <c r="M17" s="16" t="n">
-        <v>781.6799999999999</v>
+      <c r="B17" s="18" t="n"/>
+      <c r="C17" s="10" t="n"/>
+      <c r="D17" s="14" t="n"/>
+      <c r="E17" s="10" t="n"/>
+      <c r="F17" s="13" t="n"/>
+      <c r="G17" s="11" t="n"/>
+      <c r="H17" s="11" t="n"/>
+      <c r="I17" s="11" t="n"/>
+      <c r="J17" s="10" t="n"/>
+      <c r="K17" s="9" t="n"/>
+      <c r="L17" s="10" t="n"/>
+      <c r="M17" s="16">
+        <f>L17+30</f>
+        <v/>
       </c>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A18" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="n">
-        <v>59272</v>
-      </c>
-      <c r="C18" s="10" t="inlineStr">
-        <is>
-          <t>Travertine Mosaic</t>
-        </is>
-      </c>
-      <c r="D18" s="14" t="inlineStr">
-        <is>
-          <t>Unfilled&amp;Brushed</t>
-        </is>
-      </c>
-      <c r="E18" s="10" t="inlineStr">
-        <is>
-          <t>Classic Vein Cut 3D</t>
-        </is>
-      </c>
-      <c r="F18" s="13" t="inlineStr">
-        <is>
-          <t>1,5</t>
-        </is>
-      </c>
-      <c r="G18" s="11" t="inlineStr">
-        <is>
-          <t>20,0</t>
-        </is>
-      </c>
-      <c r="H18" s="11" t="inlineStr">
-        <is>
-          <t>60,0</t>
-        </is>
-      </c>
-      <c r="I18" s="11" t="n">
-        <v>29</v>
-      </c>
-      <c r="J18" s="10" t="n">
-        <v>174</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>20.88</v>
-      </c>
-      <c r="L18" s="10" t="n">
-        <v>751.6799999999999</v>
-      </c>
-      <c r="M18" s="16" t="n">
-        <v>781.6799999999999</v>
+      <c r="B18" s="18" t="n"/>
+      <c r="C18" s="10" t="n"/>
+      <c r="D18" s="14" t="n"/>
+      <c r="E18" s="10" t="n"/>
+      <c r="F18" s="13" t="n"/>
+      <c r="G18" s="11" t="n"/>
+      <c r="H18" s="11" t="n"/>
+      <c r="I18" s="11" t="n"/>
+      <c r="J18" s="10" t="n"/>
+      <c r="K18" s="9" t="n"/>
+      <c r="L18" s="10" t="n"/>
+      <c r="M18" s="16">
+        <f>L18+30</f>
+        <v/>
       </c>
     </row>
     <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">

--- a/resource_api/shared/dosyalar/ceki_listesi.xlsx
+++ b/resource_api/shared/dosyalar/ceki_listesi.xlsx
@@ -1424,52 +1424,52 @@
         <v>1</v>
       </c>
       <c r="B11" s="18" t="n">
-        <v>527187</v>
+        <v>59724</v>
       </c>
       <c r="C11" s="10" t="inlineStr">
         <is>
-          <t>Marble Landing</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D11" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E11" s="10" t="inlineStr">
         <is>
-          <t>Emperador</t>
+          <t>Golden Ink</t>
         </is>
       </c>
       <c r="F11" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G11" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H11" s="11" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I11" s="11" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J11" s="10" t="n">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>28.8</v>
+        <v>19.33</v>
       </c>
       <c r="L11" s="10" t="n">
-        <v>1584</v>
+        <v>556.704</v>
       </c>
       <c r="M11" s="16" t="n">
-        <v>1614</v>
+        <v>586.704</v>
       </c>
     </row>
     <row r="12" ht="24.9" customFormat="1" customHeight="1" s="4">
@@ -1477,292 +1477,688 @@
         <v>2</v>
       </c>
       <c r="B12" s="18" t="n">
-        <v>527188</v>
+        <v>59725</v>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
-          <t>Marble Landing</t>
+          <t>Travertine Tiles</t>
         </is>
       </c>
       <c r="D12" s="14" t="inlineStr">
         <is>
-          <t>Polished</t>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
         </is>
       </c>
       <c r="E12" s="10" t="inlineStr">
         <is>
-          <t>Emperador</t>
+          <t>Golden Ink</t>
         </is>
       </c>
       <c r="F12" s="13" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>1,2</t>
         </is>
       </c>
       <c r="G12" s="11" t="inlineStr">
         <is>
-          <t>60,0</t>
+          <t>ANT</t>
         </is>
       </c>
       <c r="H12" s="11" t="inlineStr">
         <is>
-          <t>120,0</t>
+          <t>PAT</t>
         </is>
       </c>
       <c r="I12" s="11" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="J12" s="10" t="n">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="K12" s="9" t="n">
-        <v>28.8</v>
+        <v>19.33</v>
       </c>
       <c r="L12" s="10" t="n">
-        <v>1584</v>
+        <v>556.704</v>
       </c>
       <c r="M12" s="16" t="n">
-        <v>1614</v>
+        <v>586.704</v>
       </c>
     </row>
     <row r="13" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A13" s="17" t="n">
         <v>3</v>
       </c>
-      <c r="B13" s="18" t="n"/>
-      <c r="C13" s="10" t="n"/>
-      <c r="D13" s="14" t="n"/>
-      <c r="E13" s="10" t="n"/>
-      <c r="F13" s="13" t="n"/>
-      <c r="G13" s="11" t="n"/>
-      <c r="H13" s="11" t="n"/>
-      <c r="I13" s="11" t="n"/>
-      <c r="J13" s="10" t="n"/>
-      <c r="K13" s="9" t="n"/>
-      <c r="L13" s="10" t="n"/>
-      <c r="M13" s="16">
-        <f>L13+30</f>
-        <v/>
+      <c r="B13" s="18" t="n">
+        <v>59732</v>
+      </c>
+      <c r="C13" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D13" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Golden Ink</t>
+        </is>
+      </c>
+      <c r="F13" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G13" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H13" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I13" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J13" s="10" t="n">
+        <v>156</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="L13" s="10" t="n">
+        <v>556.704</v>
+      </c>
+      <c r="M13" s="16" t="n">
+        <v>586.704</v>
       </c>
     </row>
     <row r="14" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A14" s="17" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="n"/>
-      <c r="C14" s="10" t="n"/>
-      <c r="D14" s="14" t="n"/>
-      <c r="E14" s="10" t="n"/>
-      <c r="F14" s="13" t="n"/>
-      <c r="G14" s="11" t="n"/>
-      <c r="H14" s="11" t="n"/>
-      <c r="I14" s="11" t="n"/>
-      <c r="J14" s="10" t="n"/>
-      <c r="K14" s="9" t="n"/>
-      <c r="L14" s="10" t="n"/>
-      <c r="M14" s="16">
-        <f>L14+30</f>
-        <v/>
+      <c r="B14" s="18" t="n">
+        <v>59733</v>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D14" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E14" s="10" t="inlineStr">
+        <is>
+          <t>Golden Ink</t>
+        </is>
+      </c>
+      <c r="F14" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G14" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H14" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I14" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J14" s="10" t="n">
+        <v>156</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="L14" s="10" t="n">
+        <v>556.704</v>
+      </c>
+      <c r="M14" s="16" t="n">
+        <v>586.704</v>
       </c>
     </row>
     <row r="15" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A15" s="17" t="n">
         <v>5</v>
       </c>
-      <c r="B15" s="18" t="n"/>
-      <c r="C15" s="10" t="n"/>
-      <c r="D15" s="14" t="n"/>
-      <c r="E15" s="10" t="n"/>
-      <c r="F15" s="13" t="n"/>
-      <c r="G15" s="11" t="n"/>
-      <c r="H15" s="11" t="n"/>
-      <c r="I15" s="11" t="n"/>
-      <c r="J15" s="10" t="n"/>
-      <c r="K15" s="9" t="n"/>
-      <c r="L15" s="10" t="n"/>
-      <c r="M15" s="16">
-        <f>L15+30</f>
-        <v/>
+      <c r="B15" s="18" t="n">
+        <v>59734</v>
+      </c>
+      <c r="C15" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D15" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E15" s="10" t="inlineStr">
+        <is>
+          <t>Scabos</t>
+        </is>
+      </c>
+      <c r="F15" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G15" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H15" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I15" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J15" s="10" t="n">
+        <v>156</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="L15" s="10" t="n">
+        <v>556.704</v>
+      </c>
+      <c r="M15" s="16" t="n">
+        <v>586.704</v>
       </c>
     </row>
     <row r="16" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A16" s="17" t="n">
         <v>6</v>
       </c>
-      <c r="B16" s="18" t="n"/>
-      <c r="C16" s="10" t="n"/>
-      <c r="D16" s="14" t="n"/>
-      <c r="E16" s="10" t="n"/>
-      <c r="F16" s="13" t="n"/>
-      <c r="G16" s="11" t="n"/>
-      <c r="H16" s="11" t="n"/>
-      <c r="I16" s="11" t="n"/>
-      <c r="J16" s="10" t="n"/>
-      <c r="K16" s="9" t="n"/>
-      <c r="L16" s="10" t="n"/>
-      <c r="M16" s="16">
-        <f>L16+30</f>
-        <v/>
+      <c r="B16" s="18" t="n">
+        <v>59735</v>
+      </c>
+      <c r="C16" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D16" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E16" s="10" t="inlineStr">
+        <is>
+          <t>Scabos</t>
+        </is>
+      </c>
+      <c r="F16" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G16" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H16" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I16" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J16" s="10" t="n">
+        <v>156</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="L16" s="10" t="n">
+        <v>556.704</v>
+      </c>
+      <c r="M16" s="16" t="n">
+        <v>586.704</v>
       </c>
     </row>
     <row r="17" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A17" s="17" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="18" t="n"/>
-      <c r="C17" s="10" t="n"/>
-      <c r="D17" s="14" t="n"/>
-      <c r="E17" s="10" t="n"/>
-      <c r="F17" s="13" t="n"/>
-      <c r="G17" s="11" t="n"/>
-      <c r="H17" s="11" t="n"/>
-      <c r="I17" s="11" t="n"/>
-      <c r="J17" s="10" t="n"/>
-      <c r="K17" s="9" t="n"/>
-      <c r="L17" s="10" t="n"/>
-      <c r="M17" s="16">
-        <f>L17+30</f>
-        <v/>
+      <c r="B17" s="18" t="n">
+        <v>59736</v>
+      </c>
+      <c r="C17" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D17" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E17" s="10" t="inlineStr">
+        <is>
+          <t>Scabos</t>
+        </is>
+      </c>
+      <c r="F17" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G17" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H17" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I17" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J17" s="10" t="n">
+        <v>156</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="L17" s="10" t="n">
+        <v>556.704</v>
+      </c>
+      <c r="M17" s="16" t="n">
+        <v>586.704</v>
       </c>
     </row>
     <row r="18" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A18" s="17" t="n">
         <v>8</v>
       </c>
-      <c r="B18" s="18" t="n"/>
-      <c r="C18" s="10" t="n"/>
-      <c r="D18" s="14" t="n"/>
-      <c r="E18" s="10" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="11" t="n"/>
-      <c r="H18" s="11" t="n"/>
-      <c r="I18" s="11" t="n"/>
-      <c r="J18" s="10" t="n"/>
-      <c r="K18" s="9" t="n"/>
-      <c r="L18" s="10" t="n"/>
-      <c r="M18" s="16">
-        <f>L18+30</f>
-        <v/>
+      <c r="B18" s="18" t="n">
+        <v>59738</v>
+      </c>
+      <c r="C18" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D18" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E18" s="10" t="inlineStr">
+        <is>
+          <t>Scabos</t>
+        </is>
+      </c>
+      <c r="F18" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G18" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H18" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I18" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J18" s="10" t="n">
+        <v>156</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="L18" s="10" t="n">
+        <v>556.704</v>
+      </c>
+      <c r="M18" s="16" t="n">
+        <v>586.704</v>
       </c>
     </row>
     <row r="19" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A19" s="17" t="n">
         <v>9</v>
       </c>
-      <c r="B19" s="18" t="n"/>
-      <c r="C19" s="10" t="n"/>
-      <c r="D19" s="14" t="n"/>
-      <c r="E19" s="10" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="11" t="n"/>
-      <c r="H19" s="11" t="n"/>
-      <c r="I19" s="11" t="n"/>
-      <c r="J19" s="10" t="n"/>
-      <c r="K19" s="9" t="n"/>
-      <c r="L19" s="10" t="n"/>
-      <c r="M19" s="16">
-        <f>L19+30</f>
-        <v/>
+      <c r="B19" s="18" t="n">
+        <v>59742</v>
+      </c>
+      <c r="C19" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D19" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E19" s="10" t="inlineStr">
+        <is>
+          <t>Scabos</t>
+        </is>
+      </c>
+      <c r="F19" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G19" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H19" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I19" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J19" s="10" t="n">
+        <v>156</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="L19" s="10" t="n">
+        <v>556.704</v>
+      </c>
+      <c r="M19" s="16" t="n">
+        <v>586.704</v>
       </c>
     </row>
     <row r="20" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A20" s="17" t="n">
         <v>10</v>
       </c>
-      <c r="B20" s="18" t="n"/>
-      <c r="C20" s="10" t="n"/>
-      <c r="D20" s="14" t="n"/>
-      <c r="E20" s="10" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="11" t="n"/>
-      <c r="H20" s="11" t="n"/>
-      <c r="I20" s="11" t="n"/>
-      <c r="J20" s="10" t="n"/>
-      <c r="K20" s="9" t="n"/>
-      <c r="L20" s="10" t="n"/>
-      <c r="M20" s="16">
-        <f>L20+30</f>
-        <v/>
+      <c r="B20" s="18" t="n">
+        <v>59744</v>
+      </c>
+      <c r="C20" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D20" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E20" s="10" t="inlineStr">
+        <is>
+          <t>Scabos</t>
+        </is>
+      </c>
+      <c r="F20" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G20" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H20" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I20" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J20" s="10" t="n">
+        <v>156</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="L20" s="10" t="n">
+        <v>556.704</v>
+      </c>
+      <c r="M20" s="16" t="n">
+        <v>586.704</v>
       </c>
     </row>
     <row r="21" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A21" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="B21" s="18" t="n"/>
-      <c r="C21" s="10" t="n"/>
-      <c r="D21" s="14" t="n"/>
-      <c r="E21" s="10" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="11" t="n"/>
-      <c r="H21" s="11" t="n"/>
-      <c r="I21" s="11" t="n"/>
-      <c r="J21" s="10" t="n"/>
-      <c r="K21" s="9" t="n"/>
-      <c r="L21" s="10" t="n"/>
-      <c r="M21" s="16">
-        <f>L21+30</f>
-        <v/>
+      <c r="B21" s="18" t="n">
+        <v>59747</v>
+      </c>
+      <c r="C21" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D21" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E21" s="10" t="inlineStr">
+        <is>
+          <t>Scabos</t>
+        </is>
+      </c>
+      <c r="F21" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G21" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H21" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I21" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J21" s="10" t="n">
+        <v>156</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="L21" s="10" t="n">
+        <v>556.704</v>
+      </c>
+      <c r="M21" s="16" t="n">
+        <v>586.704</v>
       </c>
     </row>
     <row r="22" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A22" s="17" t="n">
         <v>12</v>
       </c>
-      <c r="B22" s="18" t="n"/>
-      <c r="C22" s="10" t="n"/>
-      <c r="D22" s="14" t="n"/>
-      <c r="E22" s="10" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="11" t="n"/>
-      <c r="H22" s="11" t="n"/>
-      <c r="I22" s="11" t="n"/>
-      <c r="J22" s="10" t="n"/>
-      <c r="K22" s="9" t="n"/>
-      <c r="L22" s="10" t="n"/>
-      <c r="M22" s="16">
-        <f>L22+30</f>
-        <v/>
+      <c r="B22" s="18" t="n">
+        <v>59748</v>
+      </c>
+      <c r="C22" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D22" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E22" s="10" t="inlineStr">
+        <is>
+          <t>Scabos</t>
+        </is>
+      </c>
+      <c r="F22" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G22" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H22" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I22" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J22" s="10" t="n">
+        <v>156</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="L22" s="10" t="n">
+        <v>556.704</v>
+      </c>
+      <c r="M22" s="16" t="n">
+        <v>586.704</v>
       </c>
     </row>
     <row r="23" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A23" s="17" t="n">
         <v>13</v>
       </c>
-      <c r="B23" s="18" t="n"/>
-      <c r="C23" s="10" t="n"/>
-      <c r="D23" s="14" t="n"/>
-      <c r="E23" s="10" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="11" t="n"/>
-      <c r="H23" s="11" t="n"/>
-      <c r="I23" s="11" t="n"/>
-      <c r="J23" s="10" t="n"/>
-      <c r="K23" s="9" t="n"/>
-      <c r="L23" s="10" t="n"/>
-      <c r="M23" s="16">
-        <f>L23+30</f>
-        <v/>
+      <c r="B23" s="18" t="n">
+        <v>59750</v>
+      </c>
+      <c r="C23" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D23" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E23" s="10" t="inlineStr">
+        <is>
+          <t>Scabos</t>
+        </is>
+      </c>
+      <c r="F23" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G23" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H23" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I23" s="11" t="n">
+        <v>26</v>
+      </c>
+      <c r="J23" s="10" t="n">
+        <v>156</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>19.33</v>
+      </c>
+      <c r="L23" s="10" t="n">
+        <v>556.704</v>
+      </c>
+      <c r="M23" s="16" t="n">
+        <v>586.704</v>
       </c>
     </row>
     <row r="24" ht="24.9" customFormat="1" customHeight="1" s="4">
       <c r="A24" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="B24" s="18" t="n"/>
-      <c r="C24" s="10" t="n"/>
-      <c r="D24" s="14" t="n"/>
-      <c r="E24" s="10" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="11" t="n"/>
-      <c r="H24" s="11" t="n"/>
-      <c r="I24" s="11" t="n"/>
-      <c r="J24" s="10" t="n"/>
-      <c r="K24" s="9" t="n"/>
-      <c r="L24" s="10" t="n"/>
-      <c r="M24" s="16">
-        <f>L24+30</f>
-        <v/>
+      <c r="B24" s="18" t="n">
+        <v>59754</v>
+      </c>
+      <c r="C24" s="10" t="inlineStr">
+        <is>
+          <t>Travertine Tiles</t>
+        </is>
+      </c>
+      <c r="D24" s="14" t="inlineStr">
+        <is>
+          <t>Filled&amp;Brushed&amp;Chiseled</t>
+        </is>
+      </c>
+      <c r="E24" s="10" t="inlineStr">
+        <is>
+          <t>Scabos</t>
+        </is>
+      </c>
+      <c r="F24" s="13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G24" s="11" t="inlineStr">
+        <is>
+          <t>ANT</t>
+        </is>
+      </c>
+      <c r="H24" s="11" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="I24" s="11" t="n">
+        <v>52</v>
+      </c>
+      <c r="J24" s="10" t="n">
+        <v>312</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>38.66</v>
+      </c>
+      <c r="L24" s="10" t="n">
+        <v>1113.408</v>
+      </c>
+      <c r="M24" s="16" t="n">
+        <v>1143.408</v>
       </c>
     </row>
     <row r="25" ht="24.9" customFormat="1" customHeight="1" s="4">
